--- a/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="112">
   <si>
     <t>BID</t>
   </si>
@@ -434,24 +434,6 @@
     <t>Actual/360</t>
   </si>
   <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>Z5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
     <t>STISEK6MDFI=</t>
   </si>
   <si>
@@ -471,17 +453,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="ddd\,\ d\-mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="167" formatCode="General_)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0;#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
-    <numFmt numFmtId="170" formatCode="0.0000%"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="173" formatCode="0.000000000000000000"/>
+  <numFmts count="9">
+    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="ddd\,\ d\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="ddd\,\ dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0;#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -833,15 +814,15 @@
     <xf numFmtId="40" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="8" fillId="5" borderId="0">
+    <xf numFmtId="167" fontId="8" fillId="5" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="6" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -869,19 +850,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,13 +914,13 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -952,34 +933,34 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,7 +1008,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,13 +1033,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1071,19 +1052,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,8 +1092,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1127,10 +1108,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1169,11 +1150,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1184,11 +1165,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1212,7 +1193,7 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,13 +1202,13 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1241,28 +1222,28 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="9" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1271,10 +1252,10 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1292,16 +1273,16 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="4" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="4" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="4" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1370,1122 +1351,1106 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC18" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB18" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC39" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG27" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE27" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI27" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI35" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH25" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD25" s="7"/>
       </tp>
-    </main>
-    <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF33" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF32" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF31" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF30" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF29" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF28" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF27" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF26" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF25" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI17" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI15" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI16" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH38" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH37" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH39" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH36" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH35" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH34" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE12" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG9" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG8" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG10" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG13" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG11" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG14" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG12" s="7"/>
@@ -2494,88 +2459,88 @@
         <v>#N/A No instrument defined.</v>
         <stp/>
         <stp>ÿ_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AB8" s="7"/>
+        <tr r="AB10" s="7"/>
+        <tr r="AB11" s="7"/>
         <tr r="AB9" s="7"/>
-        <tr r="AB11" s="7"/>
-        <tr r="AB10" s="7"/>
-        <tr r="AB8" s="7"/>
       </tp>
       <tp t="s">
         <v>#N/A No instrument defined.</v>
         <stp/>
         <stp>ÿ_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="AC8" s="7"/>
+        <tr r="AC11" s="7"/>
+        <tr r="AC10" s="7"/>
         <tr r="AC9" s="7"/>
-        <tr r="AC10" s="7"/>
-        <tr r="AC11" s="7"/>
-        <tr r="AC8" s="7"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      </tp>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF23" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MH5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF24" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF20" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF21" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG22" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG21" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MH5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG19" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG23" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG20" s="7"/>
       </tp>
-      <tp t="s">
-        <v>#N/A RIC Not Found</v>
+      <tp>
+        <v>0</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG24" s="7"/>
@@ -2598,6 +2563,7 @@
       <sheetName val="Swaps3M"/>
       <sheetName val="BasisSwap3M6M"/>
       <sheetName val="BasisSwap1M3M"/>
+      <sheetName val="SEK_Market"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$I$3"/>
@@ -2606,17 +2572,11 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="I3">
-            <v>22</v>
+            <v>16</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="I3" t="str">
-            <v>Index Object ID</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -2624,6 +2584,7 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2963,11 +2924,11 @@
     <row r="5" spans="2:5" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B5" s="136"/>
       <c r="C5" s="150" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" s="125">
         <f>[1]!TriggerCounter</f>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="137"/>
     </row>
@@ -3402,13 +3363,13 @@
         <f t="shared" ref="M6:M18" si="0">Currency&amp;"ON"&amp;C6&amp;"D="</f>
         <v>SEKONOND=</v>
       </c>
-      <c r="N6" s="9">
-        <f>'ON Pricing'!H6*100</f>
-        <v>1.0243378850402707E-2</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" ref="O6:O11" si="1">N6</f>
-        <v>1.0243378850402707E-2</v>
+      <c r="N6" s="9" t="e">
+        <f ca="1">'ON Pricing'!H6*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O6" s="9" t="e">
+        <f t="shared" ref="O6:O7" ca="1" si="1">N6</f>
+        <v>#NAME?</v>
       </c>
       <c r="P6" s="86"/>
       <c r="Q6" s="87"/>
@@ -3425,12 +3386,12 @@
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC6" s="9" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD6" s="88"/>
       <c r="AE6" s="88"/>
@@ -3462,13 +3423,13 @@
         <f t="shared" si="0"/>
         <v>SEKONTND=</v>
       </c>
-      <c r="N7" s="13">
-        <f>'ON Pricing'!H7*100</f>
-        <v>1.0196485592392536E-2</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="1"/>
-        <v>1.0196485592392536E-2</v>
+      <c r="N7" s="13" t="e">
+        <f ca="1">'ON Pricing'!H7*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O7" s="13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
@@ -3485,12 +3446,12 @@
       <c r="Z7" s="13"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC7" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD7" s="104"/>
       <c r="AE7" s="104"/>
@@ -3526,40 +3487,40 @@
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="89" t="str">
-        <f t="shared" ref="P6:P12" si="2">Currency&amp;$P$4&amp;C8&amp;"D="</f>
+        <f t="shared" ref="P8:P12" si="2">Currency&amp;$P$4&amp;C8&amp;"D="</f>
         <v>SEK1MSND=</v>
       </c>
-      <c r="Q8" s="90">
-        <f>'1M Pricing'!H8*100</f>
-        <v>-5.0651803631396319E-3</v>
-      </c>
-      <c r="R8" s="90">
-        <f t="shared" ref="R7:R8" si="3">Q8</f>
-        <v>-5.0651803631396319E-3</v>
+      <c r="Q8" s="90" t="e">
+        <f ca="1">'1M Pricing'!H8*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R8" s="90" t="e">
+        <f t="shared" ref="R8" ca="1" si="3">Q8</f>
+        <v>#NAME?</v>
       </c>
       <c r="S8" s="10" t="str">
-        <f t="shared" ref="S6:S14" si="4">Currency&amp;$S$4&amp;C8&amp;"D="</f>
+        <f t="shared" ref="S8:S14" si="4">Currency&amp;$S$4&amp;C8&amp;"D="</f>
         <v>SEK3MSND=</v>
       </c>
-      <c r="T8" s="11">
-        <f>'3M Pricing'!H8*100</f>
-        <v>8.422066404278894E-4</v>
-      </c>
-      <c r="U8" s="11">
-        <f t="shared" ref="U7:U8" si="5">T8</f>
-        <v>8.422066404278894E-4</v>
+      <c r="T8" s="11" t="e">
+        <f ca="1">'3M Pricing'!H8*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U8" s="11" t="e">
+        <f t="shared" ref="U8" ca="1" si="5">T8</f>
+        <v>#NAME?</v>
       </c>
       <c r="V8" s="10" t="str">
-        <f t="shared" ref="V6:V17" si="6">Currency&amp;$V$4&amp;C8&amp;"D="</f>
+        <f t="shared" ref="V8:V17" si="6">Currency&amp;$V$4&amp;C8&amp;"D="</f>
         <v>SEK6MSND=</v>
       </c>
-      <c r="W8" s="11">
-        <f>'6M Pricing'!H8*100</f>
-        <v>0.16477900937328371</v>
-      </c>
-      <c r="X8" s="11">
-        <f t="shared" ref="X7:X8" si="7">W8</f>
-        <v>0.16477900937328371</v>
+      <c r="W8" s="11" t="e">
+        <f ca="1">'6M Pricing'!H8*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X8" s="11" t="e">
+        <f t="shared" ref="X8" ca="1" si="7">W8</f>
+        <v>#NAME?</v>
       </c>
       <c r="Y8" s="67" t="s">
         <v>56</v>
@@ -3575,28 +3536,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD8" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE8" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF8" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG8" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH8" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V8,BID)-W8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V8,BID)-W8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI8" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V8,ASK)-X8)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V8,ASK)-X8)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ8" s="33"/>
     </row>
@@ -3629,37 +3590,37 @@
         <f t="shared" si="2"/>
         <v>SEK1MSWD=</v>
       </c>
-      <c r="Q9" s="90">
-        <f>'1M Pricing'!H9*100</f>
-        <v>-5.499999998294567E-3</v>
-      </c>
-      <c r="R9" s="90">
-        <f t="shared" ref="R9:R12" si="8">Q9</f>
-        <v>-5.499999998294567E-3</v>
+      <c r="Q9" s="90" t="e">
+        <f ca="1">'1M Pricing'!H9*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R9" s="90" t="e">
+        <f t="shared" ref="R9:R12" ca="1" si="8">Q9</f>
+        <v>#NAME?</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3MSWD=</v>
       </c>
-      <c r="T9" s="11">
-        <f>'3M Pricing'!H9*100</f>
-        <v>1.3361692609491016E-3</v>
-      </c>
-      <c r="U9" s="11">
-        <f t="shared" ref="U9:U14" si="9">T9</f>
-        <v>1.3361692609491016E-3</v>
+      <c r="T9" s="11" t="e">
+        <f ca="1">'3M Pricing'!H9*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U9" s="11" t="e">
+        <f t="shared" ref="U9:U14" ca="1" si="9">T9</f>
+        <v>#NAME?</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6MSWD=</v>
       </c>
-      <c r="W9" s="11">
-        <f>'6M Pricing'!H9*100</f>
-        <v>0.16445093122806143</v>
-      </c>
-      <c r="X9" s="11">
-        <f t="shared" ref="X9:X17" si="10">W9</f>
-        <v>0.16445093122806143</v>
+      <c r="W9" s="11" t="e">
+        <f ca="1">'6M Pricing'!H9*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X9" s="11" t="e">
+        <f t="shared" ref="X9:X17" ca="1" si="10">W9</f>
+        <v>#NAME?</v>
       </c>
       <c r="Y9" s="67" t="s">
         <v>56</v>
@@ -3675,28 +3636,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD9" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE9" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF9" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG9" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH9" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V9,BID)-W9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V9,BID)-W9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI9" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V9,ASK)-X9)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V9,ASK)-X9)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ9" s="33" t="s">
         <v>56</v>
@@ -3731,37 +3692,37 @@
         <f t="shared" si="2"/>
         <v>SEK1M2WD=</v>
       </c>
-      <c r="Q10" s="90">
-        <f>'1M Pricing'!H10*100</f>
-        <v>-6.700000011080778E-3</v>
-      </c>
-      <c r="R10" s="90">
-        <f t="shared" si="8"/>
-        <v>-6.700000011080778E-3</v>
+      <c r="Q10" s="90" t="e">
+        <f ca="1">'1M Pricing'!H10*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R10" s="90" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M2WD=</v>
       </c>
-      <c r="T10" s="11">
-        <f>'3M Pricing'!H10*100</f>
-        <v>2.8489306873602516E-3</v>
-      </c>
-      <c r="U10" s="11">
-        <f t="shared" si="9"/>
-        <v>2.8489306873602516E-3</v>
+      <c r="T10" s="11" t="e">
+        <f ca="1">'3M Pricing'!H10*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U10" s="11" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2WD=</v>
       </c>
-      <c r="W10" s="11">
-        <f>'6M Pricing'!H10*100</f>
-        <v>0.16344185957382706</v>
-      </c>
-      <c r="X10" s="11">
-        <f t="shared" si="10"/>
-        <v>0.16344185957382706</v>
+      <c r="W10" s="11" t="e">
+        <f ca="1">'6M Pricing'!H10*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X10" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y10" s="67" t="s">
         <v>56</v>
@@ -3777,28 +3738,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD10" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE10" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF10" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG10" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH10" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V10,BID)-W10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V10,BID)-W10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI10" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V10,ASK)-X10)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V10,ASK)-X10)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ10" s="33" t="s">
         <v>56</v>
@@ -3833,37 +3794,37 @@
         <f t="shared" si="2"/>
         <v>SEK1M3WD=</v>
       </c>
-      <c r="Q11" s="90">
-        <f>'1M Pricing'!H11*100</f>
-        <v>-8.6000000406752774E-3</v>
-      </c>
-      <c r="R11" s="90">
-        <f t="shared" si="8"/>
-        <v>-8.6000000406752774E-3</v>
+      <c r="Q11" s="90" t="e">
+        <f ca="1">'1M Pricing'!H11*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R11" s="90" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="S11" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M3WD=</v>
       </c>
-      <c r="T11" s="11">
-        <f>'3M Pricing'!H11*100</f>
-        <v>5.3702042234046333E-3</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="9"/>
-        <v>5.3702042234046333E-3</v>
+      <c r="T11" s="11" t="e">
+        <f ca="1">'3M Pricing'!H11*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U11" s="11" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="V11" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3WD=</v>
       </c>
-      <c r="W11" s="11">
-        <f>'6M Pricing'!H11*100</f>
-        <v>0.16175823600317329</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="10"/>
-        <v>0.16175823600317329</v>
+      <c r="W11" s="11" t="e">
+        <f ca="1">'6M Pricing'!H11*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X11" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y11" s="67" t="s">
         <v>56</v>
@@ -3879,28 +3840,28 @@
         <v>#VALUE!</v>
       </c>
       <c r="AD11" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE11" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF11" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG11" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH11" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V11,BID)-W11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V11,BID)-W11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI11" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V11,ASK)-X11)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V11,ASK)-X11)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ11" s="33" t="s">
         <v>56</v>
@@ -3935,49 +3896,49 @@
         <f t="shared" si="0"/>
         <v>SEKON1MD=</v>
       </c>
-      <c r="N12" s="11">
-        <f>'ON Pricing'!H12*100</f>
-        <v>3.9999999997978155E-3</v>
-      </c>
-      <c r="O12" s="11">
-        <f t="shared" ref="O12" si="11">N12</f>
-        <v>3.9999999997978155E-3</v>
+      <c r="N12" s="11" t="e">
+        <f ca="1">'ON Pricing'!H12*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O12" s="11" t="e">
+        <f t="shared" ref="O12" ca="1" si="11">N12</f>
+        <v>#NAME?</v>
       </c>
       <c r="P12" s="89" t="str">
         <f t="shared" si="2"/>
         <v>SEK1M1MD=</v>
       </c>
-      <c r="Q12" s="90">
-        <f>'1M Pricing'!H12*100</f>
-        <v>-1.1300000109769139E-2</v>
-      </c>
-      <c r="R12" s="90">
-        <f t="shared" si="8"/>
-        <v>-1.1300000109769139E-2</v>
+      <c r="Q12" s="90" t="e">
+        <f ca="1">'1M Pricing'!H12*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R12" s="90" t="e">
+        <f t="shared" ca="1" si="8"/>
+        <v>#NAME?</v>
       </c>
       <c r="S12" s="10" t="str">
         <f t="shared" si="4"/>
         <v>SEK3M1MD=</v>
       </c>
-      <c r="T12" s="11">
-        <f>'3M Pricing'!H12*100</f>
-        <v>8.899999999550141E-3</v>
-      </c>
-      <c r="U12" s="11">
-        <f t="shared" si="9"/>
-        <v>8.899999999550141E-3</v>
+      <c r="T12" s="11" t="e">
+        <f ca="1">'3M Pricing'!H12*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U12" s="11" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="V12" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M1MD=</v>
       </c>
-      <c r="W12" s="11">
-        <f>'6M Pricing'!H12*100</f>
-        <v>0.15939999999023005</v>
-      </c>
-      <c r="X12" s="11">
-        <f t="shared" si="10"/>
-        <v>0.15939999999023005</v>
+      <c r="W12" s="11" t="e">
+        <f ca="1">'6M Pricing'!H12*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X12" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y12" s="67" t="s">
         <v>56</v>
@@ -3985,36 +3946,36 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD12" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE12" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V12,BID)-W12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V12,BID)-W12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI12" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V12,ASK)-X12)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V12,ASK)-X12)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ12" s="33" t="s">
         <v>56</v>
@@ -4048,13 +4009,13 @@
         <f t="shared" si="0"/>
         <v>SEKON2MD=</v>
       </c>
-      <c r="N13" s="11">
-        <f>'ON Pricing'!H13*100</f>
-        <v>-9.0000000000130947E-3</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" ref="O13:O39" si="12">N13</f>
-        <v>-9.0000000000130947E-3</v>
+      <c r="N13" s="11" t="e">
+        <f ca="1">'ON Pricing'!H13*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O13" s="11" t="e">
+        <f t="shared" ref="O13:O39" ca="1" si="12">N13</f>
+        <v>#NAME?</v>
       </c>
       <c r="P13" s="89"/>
       <c r="Q13" s="90"/>
@@ -4063,25 +4024,25 @@
         <f t="shared" si="4"/>
         <v>SEK3M2MD=</v>
       </c>
-      <c r="T13" s="11">
-        <f>'3M Pricing'!H13*100</f>
-        <v>3.2200000000010456E-2</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="9"/>
-        <v>3.2200000000010456E-2</v>
+      <c r="T13" s="11" t="e">
+        <f ca="1">'3M Pricing'!H13*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U13" s="11" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2MD=</v>
       </c>
-      <c r="W13" s="11">
-        <f>'6M Pricing'!H13*100</f>
-        <v>0.148499999985441</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="10"/>
-        <v>0.148499999985441</v>
+      <c r="W13" s="11" t="e">
+        <f ca="1">'6M Pricing'!H13*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X13" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y13" s="67" t="s">
         <v>56</v>
@@ -4089,30 +4050,30 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M13,BID)-N13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M13,BID)-N13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M13,ASK)-O13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M13,ASK)-O13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V13,BID)-W13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V13,BID)-W13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI13" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V13,ASK)-X13)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V13,ASK)-X13)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ13" s="33" t="s">
         <v>56</v>
@@ -4146,13 +4107,13 @@
         <f t="shared" si="0"/>
         <v>SEKON3MD=</v>
       </c>
-      <c r="N14" s="11">
-        <f>'ON Pricing'!H14*100</f>
-        <v>-1.3999999999965974E-2</v>
-      </c>
-      <c r="O14" s="11">
-        <f t="shared" si="12"/>
-        <v>-1.3999999999965974E-2</v>
+      <c r="N14" s="11" t="e">
+        <f ca="1">'ON Pricing'!H14*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O14" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="93"/>
@@ -4161,25 +4122,25 @@
         <f t="shared" si="4"/>
         <v>SEK3M3MD=</v>
       </c>
-      <c r="T14" s="11">
-        <f>'3M Pricing'!H14*100</f>
-        <v>4.8099999999984142E-2</v>
-      </c>
-      <c r="U14" s="11">
-        <f t="shared" si="9"/>
-        <v>4.8099999999984142E-2</v>
+      <c r="T14" s="11" t="e">
+        <f ca="1">'3M Pricing'!H14*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U14" s="11" t="e">
+        <f t="shared" ca="1" si="9"/>
+        <v>#NAME?</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3MD=</v>
       </c>
-      <c r="W14" s="11">
-        <f>'6M Pricing'!H14*100</f>
-        <v>0.14519999999205768</v>
-      </c>
-      <c r="X14" s="11">
-        <f t="shared" si="10"/>
-        <v>0.14519999999205768</v>
+      <c r="W14" s="11" t="e">
+        <f ca="1">'6M Pricing'!H14*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X14" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y14" s="67" t="s">
         <v>56</v>
@@ -4187,30 +4148,30 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD14" s="94"/>
       <c r="AE14" s="94"/>
       <c r="AF14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V14,BID)-W14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V14,BID)-W14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI14" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V14,ASK)-X14)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V14,ASK)-X14)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ14" s="33" t="s">
         <v>56</v>
@@ -4243,13 +4204,13 @@
         <f t="shared" si="0"/>
         <v>SEKON4MD=</v>
       </c>
-      <c r="N15" s="11">
-        <f>'ON Pricing'!H15*100</f>
-        <v>-2.3999999999990692E-2</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" si="12"/>
-        <v>-2.3999999999990692E-2</v>
+      <c r="N15" s="11" t="e">
+        <f ca="1">'ON Pricing'!H15*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O15" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P15" s="89"/>
       <c r="Q15" s="90"/>
@@ -4261,13 +4222,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M4MD=</v>
       </c>
-      <c r="W15" s="11">
-        <f>'6M Pricing'!H15*100</f>
-        <v>0.1371999999881357</v>
-      </c>
-      <c r="X15" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1371999999881357</v>
+      <c r="W15" s="11" t="e">
+        <f ca="1">'6M Pricing'!H15*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X15" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y15" s="67" t="s">
         <v>56</v>
@@ -4275,24 +4236,24 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M15,BID)-N15)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M15,BID)-N15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC15" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M15,ASK)-O15)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M15,ASK)-O15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD15" s="91"/>
       <c r="AE15" s="91"/>
       <c r="AF15" s="71"/>
       <c r="AG15" s="71"/>
       <c r="AH15" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V15,BID)-W15)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V15,BID)-W15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI15" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V15,ASK)-X15)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V15,ASK)-X15)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ15" s="33" t="s">
         <v>56</v>
@@ -4325,13 +4286,13 @@
         <f t="shared" si="0"/>
         <v>SEKON5MD=</v>
       </c>
-      <c r="N16" s="11">
-        <f>'ON Pricing'!H16*100</f>
-        <v>-2.999999999998618E-2</v>
-      </c>
-      <c r="O16" s="11">
-        <f t="shared" si="12"/>
-        <v>-2.999999999998618E-2</v>
+      <c r="N16" s="11" t="e">
+        <f ca="1">'ON Pricing'!H16*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O16" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="90"/>
@@ -4343,13 +4304,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M5MD=</v>
       </c>
-      <c r="W16" s="11">
-        <f>'6M Pricing'!H16*100</f>
-        <v>0.1331999999961522</v>
-      </c>
-      <c r="X16" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1331999999961522</v>
+      <c r="W16" s="11" t="e">
+        <f ca="1">'6M Pricing'!H16*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X16" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y16" s="67" t="s">
         <v>56</v>
@@ -4357,24 +4318,24 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M16,BID)-N16)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M16,BID)-N16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC16" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M16,ASK)-O16)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M16,ASK)-O16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD16" s="91"/>
       <c r="AE16" s="91"/>
       <c r="AF16" s="71"/>
       <c r="AG16" s="71"/>
       <c r="AH16" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V16,BID)-W16)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V16,BID)-W16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI16" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V16,ASK)-X16)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V16,ASK)-X16)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ16" s="33" t="s">
         <v>56</v>
@@ -4407,13 +4368,13 @@
         <f t="shared" si="0"/>
         <v>SEKON6MD=</v>
       </c>
-      <c r="N17" s="11">
-        <f>'ON Pricing'!H17*100</f>
-        <v>-3.5999999999975274E-2</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="12"/>
-        <v>-3.5999999999975274E-2</v>
+      <c r="N17" s="11" t="e">
+        <f ca="1">'ON Pricing'!H17*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O17" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="93"/>
@@ -4425,13 +4386,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M6MD=</v>
       </c>
-      <c r="W17" s="11">
-        <f>'6M Pricing'!H17*100</f>
-        <v>0.12900000000001263</v>
-      </c>
-      <c r="X17" s="11">
-        <f t="shared" si="10"/>
-        <v>0.12900000000001263</v>
+      <c r="W17" s="11" t="e">
+        <f ca="1">'6M Pricing'!H17*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X17" s="11" t="e">
+        <f t="shared" ca="1" si="10"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y17" s="67" t="s">
         <v>56</v>
@@ -4439,24 +4400,24 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC17" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD17" s="94"/>
       <c r="AE17" s="94"/>
       <c r="AF17" s="71"/>
       <c r="AG17" s="71"/>
       <c r="AH17" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V17,BID)-W17)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V17,BID)-W17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI17" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V17,ASK)-X17)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V17,ASK)-X17)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ17" s="33" t="s">
         <v>56</v>
@@ -4488,13 +4449,13 @@
         <f t="shared" si="0"/>
         <v>SEKON9MD=</v>
       </c>
-      <c r="N18" s="11">
-        <f>'ON Pricing'!H18*100</f>
-        <v>-4.5000000000009317E-2</v>
-      </c>
-      <c r="O18" s="11">
-        <f t="shared" si="12"/>
-        <v>-4.5000000000009317E-2</v>
+      <c r="N18" s="11" t="e">
+        <f ca="1">'ON Pricing'!H18*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O18" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="93"/>
@@ -4511,12 +4472,12 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M18,BID)-N18)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M18,BID)-N18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC18" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M18,ASK)-O18)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M18,ASK)-O18)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD18" s="97"/>
       <c r="AE18" s="97"/>
@@ -4568,13 +4529,13 @@
         <f t="shared" ref="S19:S24" si="13">Currency&amp;$S$4&amp;C19</f>
         <v>SEK3MH5</v>
       </c>
-      <c r="T19" s="9">
-        <f>'3M Pricing'!H19</f>
-        <v>99.937499999994685</v>
-      </c>
-      <c r="U19" s="9">
-        <f t="shared" ref="U19:U24" si="14">T19</f>
-        <v>99.937499999994685</v>
+      <c r="T19" s="9" t="e">
+        <f ca="1">'3M Pricing'!H19</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U19" s="9" t="e">
+        <f t="shared" ref="U19:U24" ca="1" si="14">T19</f>
+        <v>#NAME?</v>
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
@@ -4589,12 +4550,12 @@
       <c r="AD19" s="100"/>
       <c r="AE19" s="100"/>
       <c r="AF19" s="9" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S19,BID)-T19)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S19,BID)-T19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG19" s="9" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S19,ASK)-U19)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S19,ASK)-U19)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH19" s="69"/>
       <c r="AI19" s="69"/>
@@ -4641,13 +4602,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MM5</v>
       </c>
-      <c r="T20" s="11">
-        <f>'3M Pricing'!H20</f>
-        <v>99.965000000036355</v>
-      </c>
-      <c r="U20" s="11">
-        <f t="shared" si="14"/>
-        <v>99.965000000036355</v>
+      <c r="T20" s="11" t="e">
+        <f ca="1">'3M Pricing'!H20</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U20" s="11" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
@@ -4662,12 +4623,12 @@
       <c r="AD20" s="94"/>
       <c r="AE20" s="94"/>
       <c r="AF20" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S20,BID)-T20)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S20,BID)-T20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG20" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S20,ASK)-U20)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S20,ASK)-U20)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH20" s="71"/>
       <c r="AI20" s="71"/>
@@ -4714,13 +4675,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MU5</v>
       </c>
-      <c r="T21" s="11">
-        <f>'3M Pricing'!H21</f>
-        <v>99.96500000018365</v>
-      </c>
-      <c r="U21" s="11">
-        <f t="shared" si="14"/>
-        <v>99.96500000018365</v>
+      <c r="T21" s="11" t="e">
+        <f ca="1">'3M Pricing'!H21</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U21" s="11" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70"/>
@@ -4735,12 +4696,12 @@
       <c r="AD21" s="94"/>
       <c r="AE21" s="94"/>
       <c r="AF21" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S21,BID)-T21)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S21,BID)-T21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG21" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S21,ASK)-U21)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S21,ASK)-U21)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH21" s="71"/>
       <c r="AI21" s="71"/>
@@ -4787,13 +4748,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MZ5</v>
       </c>
-      <c r="T22" s="11">
-        <f>'3M Pricing'!H22</f>
-        <v>99.955000000000041</v>
-      </c>
-      <c r="U22" s="11">
-        <f t="shared" si="14"/>
-        <v>99.955000000000041</v>
+      <c r="T22" s="11" t="e">
+        <f ca="1">'3M Pricing'!H22</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U22" s="11" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
@@ -4808,12 +4769,12 @@
       <c r="AD22" s="94"/>
       <c r="AE22" s="94"/>
       <c r="AF22" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S22,BID)-T22)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S22,BID)-T22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG22" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S22,ASK)-U22)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S22,ASK)-U22)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH22" s="71"/>
       <c r="AI22" s="71"/>
@@ -4860,13 +4821,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MH6</v>
       </c>
-      <c r="T23" s="11">
-        <f>'3M Pricing'!H23</f>
-        <v>99.92499999999994</v>
-      </c>
-      <c r="U23" s="11">
-        <f t="shared" si="14"/>
-        <v>99.92499999999994</v>
+      <c r="T23" s="11" t="e">
+        <f ca="1">'3M Pricing'!H23</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U23" s="11" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
@@ -4881,12 +4842,12 @@
       <c r="AD23" s="94"/>
       <c r="AE23" s="94"/>
       <c r="AF23" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S23,BID)-T23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S23,BID)-T23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG23" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S23,ASK)-U23)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S23,ASK)-U23)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH23" s="71"/>
       <c r="AI23" s="71"/>
@@ -4931,13 +4892,13 @@
         <f t="shared" si="13"/>
         <v>SEK3MM6</v>
       </c>
-      <c r="T24" s="13">
-        <f>'3M Pricing'!H24</f>
-        <v>99.884999999952669</v>
-      </c>
-      <c r="U24" s="13">
-        <f t="shared" si="14"/>
-        <v>99.884999999952669</v>
+      <c r="T24" s="13" t="e">
+        <f ca="1">'3M Pricing'!H24</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U24" s="13" t="e">
+        <f t="shared" ca="1" si="14"/>
+        <v>#NAME?</v>
       </c>
       <c r="V24" s="72"/>
       <c r="W24" s="72"/>
@@ -4952,12 +4913,12 @@
       <c r="AD24" s="101"/>
       <c r="AE24" s="101"/>
       <c r="AF24" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S24,BID)-T24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S24,BID)-T24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG24" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S24,ASK)-U24)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S24,ASK)-U24)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH24" s="73"/>
       <c r="AI24" s="73"/>
@@ -4994,99 +4955,102 @@
         <f t="array" ref="J25:L39">S25:U39</f>
         <v>SEK3M1Y=</v>
       </c>
-      <c r="K25" s="9">
-        <v>4.1340378219271792E-2</v>
-      </c>
-      <c r="L25" s="9">
-        <v>4.1340378219271792E-2</v>
+      <c r="K25" s="9" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L25" s="9" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M25" s="8" t="str">
         <f t="shared" ref="M25:M39" si="15">Currency&amp;"ON"&amp;C25&amp;"D="</f>
         <v>SEKON1YD=</v>
       </c>
-      <c r="N25" s="9">
-        <f>'ON Pricing'!H25*100</f>
-        <v>-5.1000000000000136E-2</v>
-      </c>
-      <c r="O25" s="9">
-        <f>N25</f>
-        <v>-5.1000000000000136E-2</v>
+      <c r="N25" s="9" t="e">
+        <f ca="1">'ON Pricing'!H25*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O25" s="9" t="e">
+        <f ca="1">N25</f>
+        <v>#NAME?</v>
       </c>
       <c r="P25" s="98" t="str">
         <f t="shared" ref="P25:P39" si="16">Currency&amp;$P$4&amp;C25&amp;"="</f>
         <v>SEK1M1Y=</v>
       </c>
-      <c r="Q25" s="99">
-        <f>'1M Pricing'!H25*100</f>
-        <v>-3.1391392155424587E-2</v>
-      </c>
-      <c r="R25" s="99">
-        <f t="shared" ref="R25" si="17">Q25</f>
-        <v>-3.1391392155424587E-2</v>
+      <c r="Q25" s="99" t="e">
+        <f ca="1">'1M Pricing'!H25*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R25" s="99" t="e">
+        <f t="shared" ref="R25" ca="1" si="17">Q25</f>
+        <v>#NAME?</v>
       </c>
       <c r="S25" s="10" t="str">
         <f t="shared" ref="S25:S39" si="18">Currency&amp;$S$4&amp;C25&amp;"="</f>
         <v>SEK3M1Y=</v>
       </c>
-      <c r="T25" s="11">
-        <f>'3M Pricing'!H25*100</f>
-        <v>4.1340378219271792E-2</v>
-      </c>
-      <c r="U25" s="11">
-        <f>T25</f>
-        <v>4.1340378219271792E-2</v>
+      <c r="T25" s="11" t="e">
+        <f ca="1">'3M Pricing'!H25*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U25" s="11" t="e">
+        <f ca="1">T25</f>
+        <v>#NAME?</v>
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" ref="V25:V39" si="19">Currency&amp;$V$4&amp;C25&amp;"="</f>
         <v>SEK6M1Y=</v>
       </c>
-      <c r="W25" s="9">
-        <f>'6M Pricing'!H25*100</f>
-        <v>0.12719558058702937</v>
-      </c>
-      <c r="X25" s="9">
-        <f>W25</f>
-        <v>0.12719558058702937</v>
+      <c r="W25" s="9" t="e">
+        <f ca="1">'6M Pricing'!H25*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X25" s="9" t="e">
+        <f ca="1">W25</f>
+        <v>#NAME?</v>
       </c>
       <c r="Y25" s="67"/>
       <c r="Z25" s="11" t="e">
-        <f t="array" ref="Z25:AA39">AF25:AG39</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="Z25:AA39" ca="1">AF25:AG39</f>
+        <v>#NAME?</v>
       </c>
       <c r="AA25" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB25" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC25" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD25" s="117" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P25,BID)-Q25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P25,BID)-Q25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE25" s="117" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P25,ASK)-R25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P25,ASK)-R25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF25" s="71" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S25,BID)-T25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S25,BID)-T25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG25" s="71" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S25,ASK)-U25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S25,ASK)-U25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH25" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V25,BID)-W25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V25,BID)-W25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI25" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V25,ASK)-X25)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V25,ASK)-X25)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ25" s="33"/>
     </row>
@@ -5117,100 +5081,104 @@
       <c r="J26" s="10" t="str">
         <v>SEK3M2Y=</v>
       </c>
-      <c r="K26" s="11">
-        <v>8.750000000075929E-2</v>
-      </c>
-      <c r="L26" s="11">
-        <v>8.750000000075929E-2</v>
+      <c r="K26" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L26" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M26" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON2YD=</v>
       </c>
-      <c r="N26" s="11">
-        <f>'ON Pricing'!H26*100</f>
-        <v>-6.2500000000018027E-2</v>
-      </c>
-      <c r="O26" s="11">
-        <f t="shared" si="12"/>
-        <v>-6.2500000000018027E-2</v>
+      <c r="N26" s="11" t="e">
+        <f ca="1">'ON Pricing'!H26*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O26" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P26" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M2Y=</v>
       </c>
-      <c r="Q26" s="90">
-        <f>'1M Pricing'!H26*100</f>
-        <v>-6.5854233108715741E-3</v>
-      </c>
-      <c r="R26" s="90">
-        <f>Q26</f>
-        <v>-6.5854233108715741E-3</v>
+      <c r="Q26" s="90" t="e">
+        <f ca="1">'1M Pricing'!H26*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R26" s="90" t="e">
+        <f ca="1">Q26</f>
+        <v>#NAME?</v>
       </c>
       <c r="S26" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M2Y=</v>
       </c>
-      <c r="T26" s="11">
-        <f>'3M Pricing'!H26*100</f>
-        <v>8.750000000075929E-2</v>
-      </c>
-      <c r="U26" s="11">
-        <f t="shared" ref="U26:U39" si="20">T26</f>
-        <v>8.750000000075929E-2</v>
+      <c r="T26" s="11" t="e">
+        <f ca="1">'3M Pricing'!H26*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U26" s="11" t="e">
+        <f t="shared" ref="U26:U39" ca="1" si="20">T26</f>
+        <v>#NAME?</v>
       </c>
       <c r="V26" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M2Y=</v>
       </c>
-      <c r="W26" s="11">
-        <f>'6M Pricing'!H26*100</f>
-        <v>0.18128588671849716</v>
-      </c>
-      <c r="X26" s="11">
-        <f t="shared" ref="X26:X39" si="21">W26</f>
-        <v>0.18128588671849716</v>
+      <c r="W26" s="11" t="e">
+        <f ca="1">'6M Pricing'!H26*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X26" s="11" t="e">
+        <f t="shared" ref="X26:X39" ca="1" si="21">W26</f>
+        <v>#NAME?</v>
       </c>
       <c r="Y26" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z26" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA26" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD26" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P26,BID)-Q26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P26,BID)-Q26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE26" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P26,ASK)-R26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P26,ASK)-R26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S26,BID)-T26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S26,BID)-T26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S26,ASK)-U26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S26,ASK)-U26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V26,BID)-W26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V26,BID)-W26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI26" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V26,ASK)-X26)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V26,ASK)-X26)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ26" s="33" t="s">
         <v>56</v>
@@ -5243,100 +5211,104 @@
       <c r="J27" s="10" t="str">
         <v>SEK3M3Y=</v>
       </c>
-      <c r="K27" s="11">
-        <v>0.18250000000000843</v>
-      </c>
-      <c r="L27" s="11">
-        <v>0.18250000000000843</v>
+      <c r="K27" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L27" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M27" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON3YD=</v>
       </c>
-      <c r="N27" s="11">
-        <f>'ON Pricing'!H27*100</f>
-        <v>-1.3750000000008393E-2</v>
-      </c>
-      <c r="O27" s="11">
-        <f t="shared" si="12"/>
-        <v>-1.3750000000008393E-2</v>
+      <c r="N27" s="11" t="e">
+        <f ca="1">'ON Pricing'!H27*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O27" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P27" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M3Y=</v>
       </c>
-      <c r="Q27" s="90">
-        <f>'1M Pricing'!H27*100</f>
-        <v>8.2746948028213585E-2</v>
-      </c>
-      <c r="R27" s="90">
-        <f t="shared" ref="R27:R39" si="22">Q27</f>
-        <v>8.2746948028213585E-2</v>
+      <c r="Q27" s="90" t="e">
+        <f ca="1">'1M Pricing'!H27*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R27" s="90" t="e">
+        <f t="shared" ref="R27:R39" ca="1" si="22">Q27</f>
+        <v>#NAME?</v>
       </c>
       <c r="S27" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M3Y=</v>
       </c>
-      <c r="T27" s="11">
-        <f>'3M Pricing'!H27*100</f>
-        <v>0.18250000000000843</v>
-      </c>
-      <c r="U27" s="11">
-        <f t="shared" si="20"/>
-        <v>0.18250000000000843</v>
+      <c r="T27" s="11" t="e">
+        <f ca="1">'3M Pricing'!H27*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U27" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V27" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M3Y=</v>
       </c>
-      <c r="W27" s="11">
-        <f>'6M Pricing'!H27*100</f>
-        <v>0.278702191270921</v>
-      </c>
-      <c r="X27" s="11">
-        <f t="shared" si="21"/>
-        <v>0.278702191270921</v>
+      <c r="W27" s="11" t="e">
+        <f ca="1">'6M Pricing'!H27*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X27" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y27" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z27" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA27" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD27" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P27,BID)-Q27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P27,BID)-Q27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE27" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P27,ASK)-R27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P27,ASK)-R27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S27,BID)-T27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S27,BID)-T27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S27,ASK)-U27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S27,ASK)-U27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V27,BID)-W27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V27,BID)-W27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI27" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V27,ASK)-X27)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V27,ASK)-X27)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ27" s="33" t="s">
         <v>56</v>
@@ -5369,100 +5341,104 @@
       <c r="J28" s="10" t="str">
         <v>SEK3M4Y=</v>
       </c>
-      <c r="K28" s="11">
-        <v>0.30500000000007205</v>
-      </c>
-      <c r="L28" s="11">
-        <v>0.30500000000007205</v>
+      <c r="K28" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L28" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M28" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON4YD=</v>
       </c>
-      <c r="N28" s="11">
-        <f>'ON Pricing'!H28*100</f>
-        <v>4.1250000000003666E-2</v>
-      </c>
-      <c r="O28" s="11">
-        <f t="shared" si="12"/>
-        <v>4.1250000000003666E-2</v>
+      <c r="N28" s="11" t="e">
+        <f ca="1">'ON Pricing'!H28*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O28" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P28" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M4Y=</v>
       </c>
-      <c r="Q28" s="90">
-        <f>'1M Pricing'!H28*100</f>
-        <v>0.2025013761335171</v>
-      </c>
-      <c r="R28" s="90">
-        <f t="shared" si="22"/>
-        <v>0.2025013761335171</v>
+      <c r="Q28" s="90" t="e">
+        <f ca="1">'1M Pricing'!H28*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R28" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S28" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M4Y=</v>
       </c>
-      <c r="T28" s="11">
-        <f>'3M Pricing'!H28*100</f>
-        <v>0.30500000000007205</v>
-      </c>
-      <c r="U28" s="11">
-        <f t="shared" si="20"/>
-        <v>0.30500000000007205</v>
+      <c r="T28" s="11" t="e">
+        <f ca="1">'3M Pricing'!H28*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U28" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V28" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M4Y=</v>
       </c>
-      <c r="W28" s="11">
-        <f>'6M Pricing'!H28*100</f>
-        <v>0.4023192455975616</v>
-      </c>
-      <c r="X28" s="11">
-        <f t="shared" si="21"/>
-        <v>0.4023192455975616</v>
+      <c r="W28" s="11" t="e">
+        <f ca="1">'6M Pricing'!H28*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X28" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y28" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z28" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA28" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD28" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE28" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V28,BID)-W28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V28,BID)-W28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI28" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V28,ASK)-X28)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V28,ASK)-X28)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ28" s="33" t="s">
         <v>56</v>
@@ -5495,100 +5471,104 @@
       <c r="J29" s="10" t="str">
         <v>SEK3M5Y=</v>
       </c>
-      <c r="K29" s="11">
-        <v>0.43500000000018602</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0.43500000000018602</v>
+      <c r="K29" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L29" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M29" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON5YD=</v>
       </c>
-      <c r="N29" s="11">
-        <f>'ON Pricing'!H29*100</f>
-        <v>0.10375000000000122</v>
-      </c>
-      <c r="O29" s="11">
-        <f t="shared" si="12"/>
-        <v>0.10375000000000122</v>
+      <c r="N29" s="11" t="e">
+        <f ca="1">'ON Pricing'!H29*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O29" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P29" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M5Y=</v>
       </c>
-      <c r="Q29" s="90">
-        <f>'1M Pricing'!H29*100</f>
-        <v>0.33197673942053912</v>
-      </c>
-      <c r="R29" s="90">
-        <f t="shared" si="22"/>
-        <v>0.33197673942053912</v>
+      <c r="Q29" s="90" t="e">
+        <f ca="1">'1M Pricing'!H29*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R29" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S29" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M5Y=</v>
       </c>
-      <c r="T29" s="11">
-        <f>'3M Pricing'!H29*100</f>
-        <v>0.43500000000018602</v>
-      </c>
-      <c r="U29" s="11">
-        <f t="shared" si="20"/>
-        <v>0.43500000000018602</v>
+      <c r="T29" s="11" t="e">
+        <f ca="1">'3M Pricing'!H29*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U29" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V29" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M5Y=</v>
       </c>
-      <c r="W29" s="11">
-        <f>'6M Pricing'!H29*100</f>
-        <v>0.53283776578101882</v>
-      </c>
-      <c r="X29" s="11">
-        <f t="shared" si="21"/>
-        <v>0.53283776578101882</v>
+      <c r="W29" s="11" t="e">
+        <f ca="1">'6M Pricing'!H29*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X29" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y29" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z29" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA29" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD29" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE29" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V29,BID)-W29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V29,BID)-W29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI29" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V29,ASK)-X29)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V29,ASK)-X29)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ29" s="33" t="s">
         <v>56</v>
@@ -5621,100 +5601,104 @@
       <c r="J30" s="10" t="str">
         <v>SEK3M6Y=</v>
       </c>
-      <c r="K30" s="11">
-        <v>0.56500000000026218</v>
-      </c>
-      <c r="L30" s="11">
-        <v>0.56500000000026218</v>
+      <c r="K30" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L30" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M30" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON6YD=</v>
       </c>
-      <c r="N30" s="11">
-        <f>'ON Pricing'!H30*100</f>
-        <v>0.16875000000000745</v>
-      </c>
-      <c r="O30" s="11">
-        <f t="shared" si="12"/>
-        <v>0.16875000000000745</v>
+      <c r="N30" s="11" t="e">
+        <f ca="1">'ON Pricing'!H30*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O30" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P30" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M6Y=</v>
       </c>
-      <c r="Q30" s="90">
-        <f>'1M Pricing'!H30*100</f>
-        <v>0.46170439917266082</v>
-      </c>
-      <c r="R30" s="90">
-        <f t="shared" si="22"/>
-        <v>0.46170439917266082</v>
+      <c r="Q30" s="90" t="e">
+        <f ca="1">'1M Pricing'!H30*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R30" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S30" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M6Y=</v>
       </c>
-      <c r="T30" s="11">
-        <f>'3M Pricing'!H30*100</f>
-        <v>0.56500000000026218</v>
-      </c>
-      <c r="U30" s="11">
-        <f t="shared" si="20"/>
-        <v>0.56500000000026218</v>
+      <c r="T30" s="11" t="e">
+        <f ca="1">'3M Pricing'!H30*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U30" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V30" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M6Y=</v>
       </c>
-      <c r="W30" s="11">
-        <f>'6M Pricing'!H30*100</f>
-        <v>0.66320272439063499</v>
-      </c>
-      <c r="X30" s="11">
-        <f t="shared" si="21"/>
-        <v>0.66320272439063499</v>
+      <c r="W30" s="11" t="e">
+        <f ca="1">'6M Pricing'!H30*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X30" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y30" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z30" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA30" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD30" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE30" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V30,BID)-W30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V30,BID)-W30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI30" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V30,ASK)-X30)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V30,ASK)-X30)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ30" s="33" t="s">
         <v>56</v>
@@ -5747,100 +5731,104 @@
       <c r="J31" s="10" t="str">
         <v>SEK3M7Y=</v>
       </c>
-      <c r="K31" s="11">
-        <v>0.69500000000032403</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0.69500000000032403</v>
+      <c r="K31" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L31" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M31" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON7YD=</v>
       </c>
-      <c r="N31" s="11">
-        <f>'ON Pricing'!H31*100</f>
-        <v>0.23250000000000637</v>
-      </c>
-      <c r="O31" s="11">
-        <f t="shared" si="12"/>
-        <v>0.23250000000000637</v>
+      <c r="N31" s="11" t="e">
+        <f ca="1">'ON Pricing'!H31*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O31" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P31" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M7Y=</v>
       </c>
-      <c r="Q31" s="90">
-        <f>'1M Pricing'!H31*100</f>
-        <v>0.59158551006033322</v>
-      </c>
-      <c r="R31" s="90">
-        <f t="shared" si="22"/>
-        <v>0.59158551006033322</v>
+      <c r="Q31" s="90" t="e">
+        <f ca="1">'1M Pricing'!H31*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R31" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S31" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M7Y=</v>
       </c>
-      <c r="T31" s="11">
-        <f>'3M Pricing'!H31*100</f>
-        <v>0.69500000000032403</v>
-      </c>
-      <c r="U31" s="11">
-        <f t="shared" si="20"/>
-        <v>0.69500000000032403</v>
+      <c r="T31" s="11" t="e">
+        <f ca="1">'3M Pricing'!H31*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U31" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V31" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M7Y=</v>
       </c>
-      <c r="W31" s="11">
-        <f>'6M Pricing'!H31*100</f>
-        <v>0.79331546216027093</v>
-      </c>
-      <c r="X31" s="11">
-        <f t="shared" si="21"/>
-        <v>0.79331546216027093</v>
+      <c r="W31" s="11" t="e">
+        <f ca="1">'6M Pricing'!H31*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X31" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y31" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z31" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA31" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD31" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE31" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V31,BID)-W31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V31,BID)-W31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI31" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V31,ASK)-X31)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V31,ASK)-X31)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ31" s="33" t="s">
         <v>56</v>
@@ -5873,100 +5861,104 @@
       <c r="J32" s="10" t="str">
         <v>SEK3M8Y=</v>
       </c>
-      <c r="K32" s="11">
-        <v>0.81000000000039285</v>
-      </c>
-      <c r="L32" s="11">
-        <v>0.81000000000039285</v>
+      <c r="K32" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L32" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M32" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON8YD=</v>
       </c>
-      <c r="N32" s="11">
-        <f>'ON Pricing'!H32*100</f>
-        <v>0.29000000000000525</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="12"/>
-        <v>0.29000000000000525</v>
+      <c r="N32" s="11" t="e">
+        <f ca="1">'ON Pricing'!H32*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O32" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P32" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M8Y=</v>
       </c>
-      <c r="Q32" s="90">
-        <f>'1M Pricing'!H32*100</f>
-        <v>0.70667058778427039</v>
-      </c>
-      <c r="R32" s="90">
-        <f t="shared" si="22"/>
-        <v>0.70667058778427039</v>
+      <c r="Q32" s="90" t="e">
+        <f ca="1">'1M Pricing'!H32*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R32" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S32" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M8Y=</v>
       </c>
-      <c r="T32" s="11">
-        <f>'3M Pricing'!H32*100</f>
-        <v>0.81000000000039285</v>
-      </c>
-      <c r="U32" s="11">
-        <f t="shared" si="20"/>
-        <v>0.81000000000039285</v>
+      <c r="T32" s="11" t="e">
+        <f ca="1">'3M Pricing'!H32*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U32" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V32" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M8Y=</v>
       </c>
-      <c r="W32" s="11">
-        <f>'6M Pricing'!H32*100</f>
-        <v>0.90832638661275145</v>
-      </c>
-      <c r="X32" s="11">
-        <f t="shared" si="21"/>
-        <v>0.90832638661275145</v>
+      <c r="W32" s="11" t="e">
+        <f ca="1">'6M Pricing'!H32*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X32" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y32" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z32" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA32" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD32" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE32" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V32,BID)-W32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V32,BID)-W32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI32" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V32,ASK)-X32)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V32,ASK)-X32)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ32" s="33" t="s">
         <v>56</v>
@@ -5999,100 +5991,104 @@
       <c r="J33" s="10" t="str">
         <v>SEK3M9Y=</v>
       </c>
-      <c r="K33" s="11">
-        <v>0.90750000000007125</v>
-      </c>
-      <c r="L33" s="11">
-        <v>0.90750000000007125</v>
+      <c r="K33" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L33" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M33" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON9YD=</v>
       </c>
-      <c r="N33" s="11">
-        <f>'ON Pricing'!H33*100</f>
-        <v>0.34000000000000485</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" si="12"/>
-        <v>0.34000000000000485</v>
+      <c r="N33" s="11" t="e">
+        <f ca="1">'ON Pricing'!H33*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O33" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P33" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M9Y=</v>
       </c>
-      <c r="Q33" s="90">
-        <f>'1M Pricing'!H33*100</f>
-        <v>0.80415463961502032</v>
-      </c>
-      <c r="R33" s="90">
-        <f t="shared" si="22"/>
-        <v>0.80415463961502032</v>
+      <c r="Q33" s="90" t="e">
+        <f ca="1">'1M Pricing'!H33*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R33" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S33" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M9Y=</v>
       </c>
-      <c r="T33" s="11">
-        <f>'3M Pricing'!H33*100</f>
-        <v>0.90750000000007125</v>
-      </c>
-      <c r="U33" s="11">
-        <f t="shared" si="20"/>
-        <v>0.90750000000007125</v>
+      <c r="T33" s="11" t="e">
+        <f ca="1">'3M Pricing'!H33*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U33" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V33" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M9Y=</v>
       </c>
-      <c r="W33" s="11">
-        <f>'6M Pricing'!H33*100</f>
-        <v>1.0057358928100439</v>
-      </c>
-      <c r="X33" s="11">
-        <f t="shared" si="21"/>
-        <v>1.0057358928100439</v>
+      <c r="W33" s="11" t="e">
+        <f ca="1">'6M Pricing'!H33*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X33" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y33" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z33" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA33" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD33" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE33" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V33,BID)-W33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V33,BID)-W33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI33" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V33,ASK)-X33)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V33,ASK)-X33)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ33" s="33" t="s">
         <v>56</v>
@@ -6125,100 +6121,104 @@
       <c r="J34" s="10" t="str">
         <v>SEK3M10Y=</v>
       </c>
-      <c r="K34" s="11">
-        <v>0.9899999999927831</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0.9899999999927831</v>
+      <c r="K34" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L34" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M34" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON10YD=</v>
       </c>
-      <c r="N34" s="11">
-        <f>'ON Pricing'!H34*100</f>
-        <v>0.38000000000000167</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="12"/>
-        <v>0.38000000000000167</v>
+      <c r="N34" s="11" t="e">
+        <f ca="1">'ON Pricing'!H34*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O34" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P34" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M10Y=</v>
       </c>
-      <c r="Q34" s="90">
-        <f>'1M Pricing'!H34*100</f>
-        <v>0.88671587895065951</v>
-      </c>
-      <c r="R34" s="90">
-        <f t="shared" si="22"/>
-        <v>0.88671587895065951</v>
+      <c r="Q34" s="90" t="e">
+        <f ca="1">'1M Pricing'!H34*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R34" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S34" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M10Y=</v>
       </c>
-      <c r="T34" s="11">
-        <f>'3M Pricing'!H34*100</f>
-        <v>0.9899999999927831</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" si="20"/>
-        <v>0.9899999999927831</v>
+      <c r="T34" s="11" t="e">
+        <f ca="1">'3M Pricing'!H34*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U34" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V34" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M10Y=</v>
       </c>
-      <c r="W34" s="11">
-        <f>'6M Pricing'!H34*100</f>
-        <v>1.0877629172729715</v>
-      </c>
-      <c r="X34" s="11">
-        <f t="shared" si="21"/>
-        <v>1.0877629172729715</v>
+      <c r="W34" s="11" t="e">
+        <f ca="1">'6M Pricing'!H34*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X34" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y34" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z34" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA34" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD34" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE34" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V34,BID)-W34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V34,BID)-W34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI34" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V34,ASK)-X34)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V34,ASK)-X34)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ34" s="33" t="s">
         <v>56</v>
@@ -6251,100 +6251,104 @@
       <c r="J35" s="10" t="str">
         <v>SEK3M12Y=</v>
       </c>
-      <c r="K35" s="11">
-        <v>1.1300000000003321</v>
-      </c>
-      <c r="L35" s="11">
-        <v>1.1300000000003321</v>
+      <c r="K35" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L35" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M35" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON12YD=</v>
       </c>
-      <c r="N35" s="11">
-        <f>'ON Pricing'!H35*100</f>
-        <v>0.45125000000016158</v>
-      </c>
-      <c r="O35" s="11">
-        <f t="shared" si="12"/>
-        <v>0.45125000000016158</v>
+      <c r="N35" s="11" t="e">
+        <f ca="1">'ON Pricing'!H35*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O35" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P35" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M12Y=</v>
       </c>
-      <c r="Q35" s="90">
-        <f>'1M Pricing'!H35*100</f>
-        <v>1.026899290660547</v>
-      </c>
-      <c r="R35" s="90">
-        <f t="shared" si="22"/>
-        <v>1.026899290660547</v>
+      <c r="Q35" s="90" t="e">
+        <f ca="1">'1M Pricing'!H35*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R35" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S35" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M12Y=</v>
       </c>
-      <c r="T35" s="11">
-        <f>'3M Pricing'!H35*100</f>
-        <v>1.1300000000003321</v>
-      </c>
-      <c r="U35" s="11">
-        <f t="shared" si="20"/>
-        <v>1.1300000000003321</v>
+      <c r="T35" s="11" t="e">
+        <f ca="1">'3M Pricing'!H35*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U35" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V35" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M12Y=</v>
       </c>
-      <c r="W35" s="11">
-        <f>'6M Pricing'!H35*100</f>
-        <v>1.2251333702414058</v>
-      </c>
-      <c r="X35" s="11">
-        <f t="shared" si="21"/>
-        <v>1.2251333702414058</v>
+      <c r="W35" s="11" t="e">
+        <f ca="1">'6M Pricing'!H35*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X35" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y35" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z35" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA35" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD35" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE35" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V35,BID)-W35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V35,BID)-W35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI35" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V35,ASK)-X35)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V35,ASK)-X35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ35" s="33" t="s">
         <v>56</v>
@@ -6377,100 +6381,104 @@
       <c r="J36" s="10" t="str">
         <v>SEK3M15Y=</v>
       </c>
-      <c r="K36" s="11">
-        <v>1.295000000002954</v>
-      </c>
-      <c r="L36" s="11">
-        <v>1.295000000002954</v>
+      <c r="K36" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L36" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M36" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON15YD=</v>
       </c>
-      <c r="N36" s="11">
-        <f>'ON Pricing'!H36*100</f>
-        <v>0.53500000000278003</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" si="12"/>
-        <v>0.53500000000278003</v>
+      <c r="N36" s="11" t="e">
+        <f ca="1">'ON Pricing'!H36*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O36" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P36" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M15Y=</v>
       </c>
-      <c r="Q36" s="90">
-        <f>'1M Pricing'!H36*100</f>
-        <v>1.194093498654166</v>
-      </c>
-      <c r="R36" s="90">
-        <f t="shared" si="22"/>
-        <v>1.194093498654166</v>
+      <c r="Q36" s="90" t="e">
+        <f ca="1">'1M Pricing'!H36*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R36" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S36" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M15Y=</v>
       </c>
-      <c r="T36" s="11">
-        <f>'3M Pricing'!H36*100</f>
-        <v>1.295000000002954</v>
-      </c>
-      <c r="U36" s="11">
-        <f t="shared" si="20"/>
-        <v>1.295000000002954</v>
+      <c r="T36" s="11" t="e">
+        <f ca="1">'3M Pricing'!H36*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U36" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V36" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M15Y=</v>
       </c>
-      <c r="W36" s="11">
-        <f>'6M Pricing'!H36*100</f>
-        <v>1.3831514579399056</v>
-      </c>
-      <c r="X36" s="11">
-        <f t="shared" si="21"/>
-        <v>1.3831514579399056</v>
+      <c r="W36" s="11" t="e">
+        <f ca="1">'6M Pricing'!H36*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X36" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y36" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z36" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA36" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD36" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE36" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V36,BID)-W36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V36,BID)-W36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI36" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V36,ASK)-X36)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V36,ASK)-X36)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ36" s="33" t="s">
         <v>56</v>
@@ -6503,100 +6511,104 @@
       <c r="J37" s="10" t="str">
         <v>SEK3M20Y=</v>
       </c>
-      <c r="K37" s="11">
-        <v>1.4800000000047038</v>
-      </c>
-      <c r="L37" s="11">
-        <v>1.4800000000047038</v>
+      <c r="K37" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L37" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M37" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON20YD=</v>
       </c>
-      <c r="N37" s="11">
-        <f>'ON Pricing'!H37*100</f>
-        <v>0.63000000000060563</v>
-      </c>
-      <c r="O37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.63000000000060563</v>
+      <c r="N37" s="11" t="e">
+        <f ca="1">'ON Pricing'!H37*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O37" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P37" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M20Y=</v>
       </c>
-      <c r="Q37" s="90">
-        <f>'1M Pricing'!H37*100</f>
-        <v>1.3845499191600186</v>
-      </c>
-      <c r="R37" s="90">
-        <f t="shared" si="22"/>
-        <v>1.3845499191600186</v>
+      <c r="Q37" s="90" t="e">
+        <f ca="1">'1M Pricing'!H37*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R37" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S37" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M20Y=</v>
       </c>
-      <c r="T37" s="11">
-        <f>'3M Pricing'!H37*100</f>
-        <v>1.4800000000047038</v>
-      </c>
-      <c r="U37" s="11">
-        <f t="shared" si="20"/>
-        <v>1.4800000000047038</v>
+      <c r="T37" s="11" t="e">
+        <f ca="1">'3M Pricing'!H37*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U37" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V37" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M20Y=</v>
       </c>
-      <c r="W37" s="11">
-        <f>'6M Pricing'!H37*100</f>
-        <v>1.5577025726085105</v>
-      </c>
-      <c r="X37" s="11">
-        <f t="shared" si="21"/>
-        <v>1.5577025726085105</v>
+      <c r="W37" s="11" t="e">
+        <f ca="1">'6M Pricing'!H37*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X37" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y37" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z37" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA37" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD37" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE37" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V37,BID)-W37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V37,BID)-W37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI37" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V37,ASK)-X37)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V37,ASK)-X37)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ37" s="33" t="s">
         <v>56</v>
@@ -6629,100 +6641,104 @@
       <c r="J38" s="10" t="str">
         <v>SEK3M25Y=</v>
       </c>
-      <c r="K38" s="11">
-        <v>1.5499999999997036</v>
-      </c>
-      <c r="L38" s="11">
-        <v>1.5499999999997036</v>
+      <c r="K38" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L38" s="11" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M38" s="10" t="str">
         <f t="shared" si="15"/>
         <v>SEKON25YD=</v>
       </c>
-      <c r="N38" s="11">
-        <f>'ON Pricing'!H38*100</f>
-        <v>0.66749999999945997</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="12"/>
-        <v>0.66749999999945997</v>
+      <c r="N38" s="11" t="e">
+        <f ca="1">'ON Pricing'!H38*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O38" s="11" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P38" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M25Y=</v>
       </c>
-      <c r="Q38" s="90">
-        <f>'1M Pricing'!H38*100</f>
-        <v>1.4588113292749867</v>
-      </c>
-      <c r="R38" s="90">
-        <f t="shared" si="22"/>
-        <v>1.4588113292749867</v>
+      <c r="Q38" s="90" t="e">
+        <f ca="1">'1M Pricing'!H38*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R38" s="90" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S38" s="10" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M25Y=</v>
       </c>
-      <c r="T38" s="11">
-        <f>'3M Pricing'!H38*100</f>
-        <v>1.5499999999997036</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="20"/>
-        <v>1.5499999999997036</v>
+      <c r="T38" s="11" t="e">
+        <f ca="1">'3M Pricing'!H38*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U38" s="11" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V38" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M25Y=</v>
       </c>
-      <c r="W38" s="11">
-        <f>'6M Pricing'!H38*100</f>
-        <v>1.6202855579463136</v>
-      </c>
-      <c r="X38" s="11">
-        <f t="shared" si="21"/>
-        <v>1.6202855579463136</v>
+      <c r="W38" s="11" t="e">
+        <f ca="1">'6M Pricing'!H38*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X38" s="11" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y38" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z38" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA38" s="11" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD38" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE38" s="91" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V38,BID)-W38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V38,BID)-W38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI38" s="11" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V38,ASK)-X38)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V38,ASK)-X38)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ38" s="33" t="s">
         <v>56</v>
@@ -6755,100 +6771,104 @@
       <c r="J39" s="12" t="str">
         <v>SEK3M30Y=</v>
       </c>
-      <c r="K39" s="13">
-        <v>1.5699999999999974</v>
-      </c>
-      <c r="L39" s="13">
-        <v>1.5699999999999974</v>
+      <c r="K39" s="13" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="L39" s="13" t="e">
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="M39" s="12" t="str">
         <f t="shared" si="15"/>
         <v>SEKON30YD=</v>
       </c>
-      <c r="N39" s="13">
-        <f>'ON Pricing'!H39*100</f>
-        <v>0.67999999999984817</v>
-      </c>
-      <c r="O39" s="13">
-        <f t="shared" si="12"/>
-        <v>0.67999999999984817</v>
+      <c r="N39" s="13" t="e">
+        <f ca="1">'ON Pricing'!H39*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="O39" s="13" t="e">
+        <f t="shared" ca="1" si="12"/>
+        <v>#NAME?</v>
       </c>
       <c r="P39" s="102" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M30Y=</v>
       </c>
-      <c r="Q39" s="103">
-        <f>'1M Pricing'!H39*100</f>
-        <v>1.4816505294007869</v>
-      </c>
-      <c r="R39" s="103">
-        <f t="shared" si="22"/>
-        <v>1.4816505294007869</v>
+      <c r="Q39" s="103" t="e">
+        <f ca="1">'1M Pricing'!H39*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="R39" s="103" t="e">
+        <f t="shared" ca="1" si="22"/>
+        <v>#NAME?</v>
       </c>
       <c r="S39" s="12" t="str">
         <f t="shared" si="18"/>
         <v>SEK3M30Y=</v>
       </c>
-      <c r="T39" s="13">
-        <f>'3M Pricing'!H39*100</f>
-        <v>1.5699999999999974</v>
-      </c>
-      <c r="U39" s="13">
-        <f t="shared" si="20"/>
-        <v>1.5699999999999974</v>
+      <c r="T39" s="13" t="e">
+        <f ca="1">'3M Pricing'!H39*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="U39" s="13" t="e">
+        <f t="shared" ca="1" si="20"/>
+        <v>#NAME?</v>
       </c>
       <c r="V39" s="12" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M30Y=</v>
       </c>
-      <c r="W39" s="13">
-        <f>'6M Pricing'!H39*100</f>
-        <v>1.6341895475611823</v>
-      </c>
-      <c r="X39" s="13">
-        <f t="shared" si="21"/>
-        <v>1.6341895475611823</v>
+      <c r="W39" s="13" t="e">
+        <f ca="1">'6M Pricing'!H39*100</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="X39" s="13" t="e">
+        <f t="shared" ca="1" si="21"/>
+        <v>#NAME?</v>
       </c>
       <c r="Y39" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z39" s="13" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AA39" s="13" t="e">
-        <v>#VALUE!</v>
+        <f ca="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="AB39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AC39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AD39" s="104" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AE39" s="104" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AG39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AH39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V39,BID)-W39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V39,BID)-W39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AI39" s="13" t="e">
-        <f>ABS(_xll.RtGet(SourceAlias,$V39,ASK)-X39)</f>
-        <v>#VALUE!</v>
+        <f ca="1">ABS(_xll.RtGet(SourceAlias,$V39,ASK)-X39)</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ39" s="33" t="s">
         <v>56</v>
@@ -7073,9 +7093,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
         <v>42045</v>
       </c>
-      <c r="H6" s="43">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>1.0243378850402707E-4</v>
+      <c r="H6" s="43" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>Contribution!M6</f>
@@ -7083,9 +7103,9 @@
       </c>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="124" t="str">
-        <f>_xll.qlInterpolation(,InterpolationType,B8:B18,H8:H18,,Trigger)</f>
-        <v>obj_0035c#0009</v>
+      <c r="L6" s="124" t="e">
+        <f ca="1">_xll.qlInterpolation(,InterpolationType,B8:B18,H8:H18,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
@@ -7114,16 +7134,16 @@
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
         <v>42046</v>
       </c>
-      <c r="H7" s="156">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>1.0196485592392535E-4</v>
+      <c r="H7" s="156" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="157" t="str">
         <f>Contribution!M7</f>
         <v>SEKONTND=</v>
       </c>
       <c r="J7" s="157" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K7" s="51"/>
       <c r="L7" s="58" t="s">
@@ -7156,9 +7176,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F8,IF(C8="SN","1D",IF(C8="SW","1W",C8)),"f",FALSE)</f>
         <v>42047</v>
       </c>
-      <c r="H8" s="43">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L8,InterestRateTrigger)</f>
-        <v>1.0152896539494803E-4</v>
+      <c r="H8" s="43" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L8,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
@@ -7223,9 +7243,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F9,IF(C9="SN","1D",IF(C9="SW","1W",C9)),"f",FALSE)</f>
         <v>42053</v>
       </c>
-      <c r="H9" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRateTrigger)</f>
-        <v>9.7757150431730433E-5</v>
+      <c r="H9" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L9,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
@@ -7310,9 +7330,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F10,IF(C10="SN","1D",IF(C10="SW","1W",C10)),"f",FALSE)</f>
         <v>42060</v>
       </c>
-      <c r="H10" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRateTrigger)</f>
-        <v>8.6205778070233153E-5</v>
+      <c r="H10" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L10,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
@@ -7397,9 +7417,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F11,IF(C11="SN","1D",IF(C11="SW","1W",C11)),"f",FALSE)</f>
         <v>42067</v>
       </c>
-      <c r="H11" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRateTrigger)</f>
-        <v>6.6953391071322699E-5</v>
+      <c r="H11" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L11,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
@@ -7484,9 +7504,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F12,IF(C12="SN","1D",IF(C12="SW","1W",C12)),"mf",TRUE)</f>
         <v>42074</v>
       </c>
-      <c r="H12" s="177">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRateTrigger)</f>
-        <v>3.9999999997978156E-5</v>
+      <c r="H12" s="177" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L12,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="178" t="str">
         <f>Contribution!M12</f>
@@ -7576,9 +7596,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F13,IF(C13="SN","1D",IF(C13="SW","1W",C13)),"mf",TRUE)</f>
         <v>42107</v>
       </c>
-      <c r="H13" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRateTrigger)</f>
-        <v>-9.000000000013095E-5</v>
+      <c r="H13" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L13,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!M13</f>
@@ -7668,9 +7688,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F14,IF(C14="SN","1D",IF(C14="SW","1W",C14)),"mf",TRUE)</f>
         <v>42135</v>
       </c>
-      <c r="H14" s="177">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRateTrigger)</f>
-        <v>-1.3999999999965974E-4</v>
+      <c r="H14" s="177" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L14,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="178" t="str">
         <f>Contribution!M14</f>
@@ -7760,9 +7780,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F15,IF(C15="SN","1D",IF(C15="SW","1W",C15)),"mf",TRUE)</f>
         <v>42166</v>
       </c>
-      <c r="H15" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRateTrigger)</f>
-        <v>-2.3999999999990693E-4</v>
+      <c r="H15" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L15,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!M15</f>
@@ -7852,9 +7872,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F16,IF(C16="SN","1D",IF(C16="SW","1W",C16)),"mf",TRUE)</f>
         <v>42198</v>
       </c>
-      <c r="H16" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRateTrigger)</f>
-        <v>-2.9999999999986179E-4</v>
+      <c r="H16" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L16,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!M16</f>
@@ -7944,9 +7964,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F17,IF(C17="SN","1D",IF(C17="SW","1W",C17)),"mf",TRUE)</f>
         <v>42227</v>
       </c>
-      <c r="H17" s="177">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRateTrigger)</f>
-        <v>-3.5999999999975277E-4</v>
+      <c r="H17" s="177" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L17,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="178" t="str">
         <f>Contribution!M17</f>
@@ -8036,9 +8056,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F18,IF(C18="SN","1D",IF(C18="SW","1W",C18)),"mf",TRUE)</f>
         <v>42319</v>
       </c>
-      <c r="H18" s="42">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRateTrigger)</f>
-        <v>-4.5000000000009317E-4</v>
+      <c r="H18" s="42" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L18,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I18" s="32" t="str">
         <f>Contribution!M18</f>
@@ -8515,9 +8535,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F25,IF(C25="SN","1D",IF(C25="SW","1W",C25)),"mf",TRUE)</f>
         <v>42411</v>
       </c>
-      <c r="H25" s="38">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L25,InterestRateTrigger)</f>
-        <v>-5.1000000000000134E-4</v>
+      <c r="H25" s="38" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L25,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!M25</f>
@@ -8604,9 +8624,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F26,IF(C26="SN","1D",IF(C26="SW","1W",C26)),"mf",TRUE)</f>
         <v>42779</v>
       </c>
-      <c r="H26" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L26,InterestRateTrigger)</f>
-        <v>-6.2500000000018021E-4</v>
+      <c r="H26" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L26,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!M26</f>
@@ -8693,9 +8713,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F27,IF(C27="SN","1D",IF(C27="SW","1W",C27)),"mf",TRUE)</f>
         <v>43143</v>
       </c>
-      <c r="H27" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L27,InterestRateTrigger)</f>
-        <v>-1.3750000000008393E-4</v>
+      <c r="H27" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L27,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!M27</f>
@@ -8782,9 +8802,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F28,IF(C28="SN","1D",IF(C28="SW","1W",C28)),"mf",TRUE)</f>
         <v>43507</v>
       </c>
-      <c r="H28" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRateTrigger)</f>
-        <v>4.1250000000003664E-4</v>
+      <c r="H28" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L28,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!M28</f>
@@ -8871,9 +8891,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F29,IF(C29="SN","1D",IF(C29="SW","1W",C29)),"mf",TRUE)</f>
         <v>43872</v>
       </c>
-      <c r="H29" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRateTrigger)</f>
-        <v>1.0375000000000122E-3</v>
+      <c r="H29" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L29,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!M29</f>
@@ -8960,9 +8980,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F30,IF(C30="SN","1D",IF(C30="SW","1W",C30)),"mf",TRUE)</f>
         <v>44238</v>
       </c>
-      <c r="H30" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRateTrigger)</f>
-        <v>1.6875000000000746E-3</v>
+      <c r="H30" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L30,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!M30</f>
@@ -9049,9 +9069,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F31,IF(C31="SN","1D",IF(C31="SW","1W",C31)),"mf",TRUE)</f>
         <v>44603</v>
       </c>
-      <c r="H31" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRateTrigger)</f>
-        <v>2.3250000000000636E-3</v>
+      <c r="H31" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L31,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!M31</f>
@@ -9138,9 +9158,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F32,IF(C32="SN","1D",IF(C32="SW","1W",C32)),"mf",TRUE)</f>
         <v>44970</v>
       </c>
-      <c r="H32" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRateTrigger)</f>
-        <v>2.9000000000000527E-3</v>
+      <c r="H32" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L32,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!M32</f>
@@ -9227,9 +9247,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F33,IF(C33="SN","1D",IF(C33="SW","1W",C33)),"mf",TRUE)</f>
         <v>45334</v>
       </c>
-      <c r="H33" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRateTrigger)</f>
-        <v>3.4000000000000488E-3</v>
+      <c r="H33" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L33,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!M33</f>
@@ -9316,9 +9336,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F34,IF(C34="SN","1D",IF(C34="SW","1W",C34)),"mf",TRUE)</f>
         <v>45699</v>
       </c>
-      <c r="H34" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRateTrigger)</f>
-        <v>3.8000000000000165E-3</v>
+      <c r="H34" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L34,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!M34</f>
@@ -9405,9 +9425,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F35,IF(C35="SN","1D",IF(C35="SW","1W",C35)),"mf",TRUE)</f>
         <v>46429</v>
       </c>
-      <c r="H35" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRateTrigger)</f>
-        <v>4.5125000000016159E-3</v>
+      <c r="H35" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L35,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!M35</f>
@@ -9494,9 +9514,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F36,IF(C36="SN","1D",IF(C36="SW","1W",C36)),"mf",TRUE)</f>
         <v>47525</v>
       </c>
-      <c r="H36" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRateTrigger)</f>
-        <v>5.3500000000278004E-3</v>
+      <c r="H36" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L36,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!M36</f>
@@ -9583,9 +9603,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F37,IF(C37="SN","1D",IF(C37="SW","1W",C37)),"mf",TRUE)</f>
         <v>49352</v>
       </c>
-      <c r="H37" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRateTrigger)</f>
-        <v>6.3000000000060568E-3</v>
+      <c r="H37" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L37,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!M37</f>
@@ -9672,9 +9692,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F38,IF(C38="SN","1D",IF(C38="SW","1W",C38)),"mf",TRUE)</f>
         <v>51179</v>
       </c>
-      <c r="H38" s="39">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRateTrigger)</f>
-        <v>6.6749999999946002E-3</v>
+      <c r="H38" s="39" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L38,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!M38</f>
@@ -9761,9 +9781,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F39,IF(C39="SN","1D",IF(C39="SW","1W",C39)),"mf",TRUE)</f>
         <v>53006</v>
       </c>
-      <c r="H39" s="42">
-        <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRateTrigger)</f>
-        <v>6.7999999999984817E-3</v>
+      <c r="H39" s="42" t="e">
+        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(L39,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!M39</f>
@@ -10308,16 +10328,16 @@
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
         <v>42045</v>
       </c>
-      <c r="H6" s="43">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-4.9555602702799278E-5</v>
+      <c r="H6" s="43" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="str">
-        <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>obj_0035d#0022</v>
+      <c r="L6" s="59" t="e">
+        <f ca="1">_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -10350,9 +10370,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
         <v>42046</v>
       </c>
-      <c r="H7" s="111">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-5.0120259316562772E-5</v>
+      <c r="H7" s="111" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -10397,9 +10417,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
         <v>42047</v>
       </c>
-      <c r="H8" s="43">
-        <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>-5.0651803631396319E-5</v>
+      <c r="H8" s="43" t="e">
+        <f ca="1">_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!P8</f>
@@ -10448,9 +10468,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
         <v>42053</v>
       </c>
-      <c r="H9" s="39">
-        <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>-5.4999999982945671E-5</v>
+      <c r="H9" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!P9</f>
@@ -10493,9 +10513,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
         <v>42060</v>
       </c>
-      <c r="H10" s="39">
-        <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>-6.7000000110807782E-5</v>
+      <c r="H10" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!P10</f>
@@ -10538,9 +10558,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
         <v>42067</v>
       </c>
-      <c r="H11" s="39">
-        <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>-8.6000000406752773E-5</v>
+      <c r="H11" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!P11</f>
@@ -10583,16 +10603,16 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F12,Trigger)</f>
         <v>42074</v>
       </c>
-      <c r="H12" s="146">
-        <f>_xll.qlIndexFixing(IborIndex,E12,TRUE,InterestRateTrigger)</f>
-        <v>-1.1300000109769139E-4</v>
+      <c r="H12" s="146" t="e">
+        <f ca="1">_xll.qlIndexFixing(IborIndex,E12,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="147" t="str">
         <f>Contribution!P12</f>
         <v>SEK1M1MD=</v>
       </c>
       <c r="J12" s="147" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="62"/>
@@ -10872,9 +10892,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
         <v>42411</v>
       </c>
-      <c r="H25" s="38">
-        <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>-3.1391392155424587E-4</v>
+      <c r="H25" s="38" t="e">
+        <f ca="1">_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!P25</f>
@@ -10923,9 +10943,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
         <v>42779</v>
       </c>
-      <c r="H26" s="39">
-        <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>-6.5854233108715744E-5</v>
+      <c r="H26" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!P26</f>
@@ -10968,9 +10988,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
         <v>43143</v>
       </c>
-      <c r="H27" s="39">
-        <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>8.2746948028213584E-4</v>
+      <c r="H27" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!P27</f>
@@ -11013,9 +11033,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
         <v>43507</v>
       </c>
-      <c r="H28" s="39">
-        <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>2.0250137613351711E-3</v>
+      <c r="H28" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!P28</f>
@@ -11058,9 +11078,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
         <v>43872</v>
       </c>
-      <c r="H29" s="39">
-        <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>3.3197673942053914E-3</v>
+      <c r="H29" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!P29</f>
@@ -11103,9 +11123,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
         <v>44238</v>
       </c>
-      <c r="H30" s="39">
-        <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>4.6170439917266083E-3</v>
+      <c r="H30" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!P30</f>
@@ -11148,9 +11168,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>44603</v>
       </c>
-      <c r="H31" s="39">
-        <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>5.9158551006033323E-3</v>
+      <c r="H31" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!P31</f>
@@ -11193,9 +11213,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>44970</v>
       </c>
-      <c r="H32" s="39">
-        <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>7.0667058778427043E-3</v>
+      <c r="H32" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!P32</f>
@@ -11238,9 +11258,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
         <v>45334</v>
       </c>
-      <c r="H33" s="39">
-        <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>8.041546396150203E-3</v>
+      <c r="H33" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!P33</f>
@@ -11283,9 +11303,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
         <v>45699</v>
       </c>
-      <c r="H34" s="39">
-        <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>8.8671587895065955E-3</v>
+      <c r="H34" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!P34</f>
@@ -11328,9 +11348,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
         <v>46429</v>
       </c>
-      <c r="H35" s="39">
-        <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.0268992906605471E-2</v>
+      <c r="H35" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!P35</f>
@@ -11373,9 +11393,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
         <v>47525</v>
       </c>
-      <c r="H36" s="39">
-        <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.1940934986541661E-2</v>
+      <c r="H36" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!P36</f>
@@ -11418,9 +11438,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>49352</v>
       </c>
-      <c r="H37" s="39">
-        <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.3845499191600186E-2</v>
+      <c r="H37" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!P37</f>
@@ -11463,9 +11483,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
         <v>51179</v>
       </c>
-      <c r="H38" s="39">
-        <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.4588113292749866E-2</v>
+      <c r="H38" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!P38</f>
@@ -11508,9 +11528,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
         <v>53006</v>
       </c>
-      <c r="H39" s="42">
-        <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.4816505294007869E-2</v>
+      <c r="H39" s="42" t="e">
+        <f ca="1">_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!P39</f>
@@ -11767,16 +11787,16 @@
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
         <v>42045</v>
       </c>
-      <c r="H6" s="43">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>7.2332573407723057E-6</v>
+      <c r="H6" s="43" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="str">
-        <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_0035e#0022</v>
+      <c r="L6" s="59" t="e">
+        <f ca="1">_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -11809,9 +11829,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
         <v>42046</v>
       </c>
-      <c r="H7" s="111">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>7.8491181071301675E-6</v>
+      <c r="H7" s="111" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -11856,9 +11876,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
         <v>42047</v>
       </c>
-      <c r="H8" s="43">
-        <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>8.422066404278894E-6</v>
+      <c r="H8" s="43" t="e">
+        <f ca="1">_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!S8</f>
@@ -11907,9 +11927,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
         <v>42053</v>
       </c>
-      <c r="H9" s="39">
-        <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>1.3361692609491017E-5</v>
+      <c r="H9" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!S9</f>
@@ -11952,9 +11972,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
         <v>42060</v>
       </c>
-      <c r="H10" s="39">
-        <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>2.8489306873602516E-5</v>
+      <c r="H10" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!S10</f>
@@ -11997,9 +12017,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
         <v>42067</v>
       </c>
-      <c r="H11" s="39">
-        <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>5.3702042234046333E-5</v>
+      <c r="H11" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!S11</f>
@@ -12042,9 +12062,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42074</v>
       </c>
-      <c r="H12" s="39">
-        <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>8.899999999550141E-5</v>
+      <c r="H12" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!S12</f>
@@ -12087,9 +12107,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
         <v>42107</v>
       </c>
-      <c r="H13" s="39">
-        <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>3.2200000000010454E-4</v>
+      <c r="H13" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!S13</f>
@@ -12132,16 +12152,16 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F14,Trigger)</f>
         <v>42135</v>
       </c>
-      <c r="H14" s="146">
-        <f>_xll.qlIndexFixing(IborIndex,E14,TRUE,InterestRateTrigger)</f>
-        <v>4.8099999999984142E-4</v>
+      <c r="H14" s="146" t="e">
+        <f ca="1">_xll.qlIndexFixing(IborIndex,E14,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="147" t="str">
         <f>Contribution!S14</f>
         <v>SEK3M3MD=</v>
       </c>
       <c r="J14" s="147" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="62"/>
@@ -12237,27 +12257,28 @@
       <c r="B19" s="15">
         <v>1</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>107</v>
+      <c r="C19" s="15" t="str">
+        <f>Contribution!C19</f>
+        <v>H5</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="37">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F19)</f>
-        <v>42079</v>
-      </c>
-      <c r="F19" s="37">
-        <f>_xll.qlIMMdate(C19)</f>
-        <v>42081</v>
-      </c>
-      <c r="G19" s="37">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
-        <v>42173</v>
-      </c>
-      <c r="H19" s="77">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRateTrigger))*100</f>
-        <v>99.937499999994685</v>
+      <c r="E19" s="37" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="37" t="e">
+        <f ca="1">_xll.qlIMMdate(C19)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G19" s="37" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F19,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H19" s="77" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I19" s="31" t="str">
         <f>Contribution!S19</f>
@@ -12281,27 +12302,28 @@
       <c r="B20" s="16">
         <v>2</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>108</v>
+      <c r="C20" s="16" t="str">
+        <f>Contribution!C20</f>
+        <v>M5</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="40">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F20)</f>
-        <v>42170</v>
-      </c>
-      <c r="F20" s="40">
-        <f>_xll.qlIMMdate(C20)</f>
-        <v>42172</v>
-      </c>
-      <c r="G20" s="40">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
-        <v>42264</v>
-      </c>
-      <c r="H20" s="78">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRateTrigger))*100</f>
-        <v>99.965000000036355</v>
+      <c r="E20" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="40" t="e">
+        <f ca="1">_xll.qlIMMdate(C20)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F20,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H20" s="78" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I20" s="30" t="str">
         <f>Contribution!S20</f>
@@ -12325,27 +12347,28 @@
       <c r="B21" s="16">
         <v>3</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>109</v>
+      <c r="C21" s="16" t="str">
+        <f>Contribution!C21</f>
+        <v>U5</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="40">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F21)</f>
-        <v>42261</v>
-      </c>
-      <c r="F21" s="40">
-        <f>_xll.qlIMMdate(C21)</f>
-        <v>42263</v>
-      </c>
-      <c r="G21" s="40">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
-        <v>42354</v>
-      </c>
-      <c r="H21" s="78">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRateTrigger))*100</f>
-        <v>99.96500000018365</v>
+      <c r="E21" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="40" t="e">
+        <f ca="1">_xll.qlIMMdate(C21)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F21,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H21" s="78" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I21" s="30" t="str">
         <f>Contribution!S21</f>
@@ -12369,27 +12392,28 @@
       <c r="B22" s="16">
         <v>4</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>110</v>
+      <c r="C22" s="16" t="str">
+        <f>Contribution!C22</f>
+        <v>Z5</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="40">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F22)</f>
-        <v>42352</v>
-      </c>
-      <c r="F22" s="40">
-        <f>_xll.qlIMMdate(C22)</f>
-        <v>42354</v>
-      </c>
-      <c r="G22" s="40">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H22" s="78">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRateTrigger))*100</f>
-        <v>99.955000000000041</v>
+      <c r="E22" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F22" s="40" t="e">
+        <f ca="1">_xll.qlIMMdate(C22)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G22" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F22,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H22" s="78" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I22" s="30" t="str">
         <f>Contribution!S22</f>
@@ -12413,27 +12437,28 @@
       <c r="B23" s="16">
         <v>5</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>111</v>
+      <c r="C23" s="16" t="str">
+        <f>Contribution!C23</f>
+        <v>H6</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="40">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F23)</f>
-        <v>42443</v>
-      </c>
-      <c r="F23" s="40">
-        <f>_xll.qlIMMdate(C23)</f>
-        <v>42445</v>
-      </c>
-      <c r="G23" s="40">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
-        <v>42537</v>
-      </c>
-      <c r="H23" s="78">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRateTrigger))*100</f>
-        <v>99.92499999999994</v>
+      <c r="E23" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F23)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F23" s="40" t="e">
+        <f ca="1">_xll.qlIMMdate(C23)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G23" s="40" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F23,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H23" s="78" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I23" s="30" t="str">
         <f>Contribution!S23</f>
@@ -12457,27 +12482,28 @@
       <c r="B24" s="17">
         <v>6</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>112</v>
+      <c r="C24" s="17" t="str">
+        <f>Contribution!C24</f>
+        <v>M6</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="41">
-        <f>_xll.qlInterestRateIndexFixingDate(IborIndex,F24)</f>
-        <v>42534</v>
-      </c>
-      <c r="F24" s="41">
-        <f>_xll.qlIMMdate(C24)</f>
-        <v>42536</v>
-      </c>
-      <c r="G24" s="41">
-        <f>_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
-        <v>42628</v>
-      </c>
-      <c r="H24" s="79">
-        <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRateTrigger))*100</f>
-        <v>99.884999999952669</v>
+      <c r="E24" s="41" t="e">
+        <f ca="1">_xll.qlInterestRateIndexFixingDate(IborIndex,F24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F24" s="41" t="e">
+        <f ca="1">_xll.qlIMMdate(C24)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G24" s="41" t="e">
+        <f ca="1">_xll.qlInterestRateIndexMaturity(IborIndex,F24,Trigger)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H24" s="79" t="e">
+        <f ca="1">(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRateTrigger))*100</f>
+        <v>#NAME?</v>
       </c>
       <c r="I24" s="32" t="str">
         <f>Contribution!S24</f>
@@ -12525,9 +12551,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
         <v>42411</v>
       </c>
-      <c r="H25" s="38">
-        <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>4.1340378219271789E-4</v>
+      <c r="H25" s="38" t="e">
+        <f ca="1">_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!S25</f>
@@ -12576,9 +12602,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
         <v>42779</v>
       </c>
-      <c r="H26" s="39">
-        <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>8.750000000075929E-4</v>
+      <c r="H26" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!S26</f>
@@ -12621,9 +12647,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
         <v>43143</v>
       </c>
-      <c r="H27" s="39">
-        <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>1.8250000000000844E-3</v>
+      <c r="H27" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!S27</f>
@@ -12666,9 +12692,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
         <v>43507</v>
       </c>
-      <c r="H28" s="39">
-        <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>3.0500000000007205E-3</v>
+      <c r="H28" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!S28</f>
@@ -12711,9 +12737,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
         <v>43872</v>
       </c>
-      <c r="H29" s="39">
-        <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>4.3500000000018602E-3</v>
+      <c r="H29" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!S29</f>
@@ -12756,9 +12782,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
         <v>44238</v>
       </c>
-      <c r="H30" s="39">
-        <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>5.6500000000026217E-3</v>
+      <c r="H30" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!S30</f>
@@ -12801,9 +12827,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>44603</v>
       </c>
-      <c r="H31" s="39">
-        <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>6.95000000000324E-3</v>
+      <c r="H31" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!S31</f>
@@ -12846,9 +12872,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>44970</v>
       </c>
-      <c r="H32" s="39">
-        <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>8.1000000000039287E-3</v>
+      <c r="H32" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!S32</f>
@@ -12891,9 +12917,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
         <v>45334</v>
       </c>
-      <c r="H33" s="39">
-        <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>9.0750000000007127E-3</v>
+      <c r="H33" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!S33</f>
@@ -12936,9 +12962,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
         <v>45699</v>
       </c>
-      <c r="H34" s="39">
-        <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>9.8999999999278311E-3</v>
+      <c r="H34" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!S34</f>
@@ -12981,9 +13007,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
         <v>46429</v>
       </c>
-      <c r="H35" s="39">
-        <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.1300000000003321E-2</v>
+      <c r="H35" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!S35</f>
@@ -13026,9 +13052,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
         <v>47525</v>
       </c>
-      <c r="H36" s="39">
-        <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.295000000002954E-2</v>
+      <c r="H36" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!S36</f>
@@ -13071,9 +13097,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>49352</v>
       </c>
-      <c r="H37" s="39">
-        <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.4800000000047038E-2</v>
+      <c r="H37" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!S37</f>
@@ -13116,9 +13142,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
         <v>51179</v>
       </c>
-      <c r="H38" s="39">
-        <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.5499999999997037E-2</v>
+      <c r="H38" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!S38</f>
@@ -13161,9 +13187,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
         <v>53006</v>
       </c>
-      <c r="H39" s="42">
-        <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.5699999999999974E-2</v>
+      <c r="H39" s="42" t="e">
+        <f ca="1">_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!S39</f>
@@ -13421,16 +13447,16 @@
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
         <v>42045</v>
       </c>
-      <c r="H6" s="43">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>1.6485748114892346E-3</v>
+      <c r="H6" s="43" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="str">
-        <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>obj_0035f#0020</v>
+      <c r="L6" s="59" t="e">
+        <f ca="1">_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -13463,9 +13489,9 @@
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
         <v>42046</v>
       </c>
-      <c r="H7" s="111">
-        <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>1.648167974045676E-3</v>
+      <c r="H7" s="111" t="e">
+        <f ca="1">_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -13510,9 +13536,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
         <v>42047</v>
       </c>
-      <c r="H8" s="43">
-        <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>1.6477900937328371E-3</v>
+      <c r="H8" s="43" t="e">
+        <f ca="1">_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!V8</f>
@@ -13561,9 +13587,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
         <v>42053</v>
       </c>
-      <c r="H9" s="39">
-        <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>1.6445093122806143E-3</v>
+      <c r="H9" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!V9</f>
@@ -13606,9 +13632,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
         <v>42060</v>
       </c>
-      <c r="H10" s="39">
-        <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>1.6344185957382707E-3</v>
+      <c r="H10" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!V10</f>
@@ -13651,9 +13677,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
         <v>42067</v>
       </c>
-      <c r="H11" s="39">
-        <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>1.6175823600317329E-3</v>
+      <c r="H11" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!V11</f>
@@ -13696,9 +13722,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
         <v>42074</v>
       </c>
-      <c r="H12" s="39">
-        <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>1.5939999999023005E-3</v>
+      <c r="H12" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!V12</f>
@@ -13741,9 +13767,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
         <v>42107</v>
       </c>
-      <c r="H13" s="39">
-        <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>1.4849999998544101E-3</v>
+      <c r="H13" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!V13</f>
@@ -13786,9 +13812,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
         <v>42135</v>
       </c>
-      <c r="H14" s="39">
-        <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRateTrigger)</f>
-        <v>1.4519999999205767E-3</v>
+      <c r="H14" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L14,E14,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I14" s="30" t="str">
         <f>Contribution!V14</f>
@@ -13831,9 +13857,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
         <v>42166</v>
       </c>
-      <c r="H15" s="39">
-        <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRateTrigger)</f>
-        <v>1.371999999881357E-3</v>
+      <c r="H15" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L15,E15,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!V15</f>
@@ -13876,9 +13902,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
         <v>42198</v>
       </c>
-      <c r="H16" s="39">
-        <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRateTrigger)</f>
-        <v>1.3319999999615219E-3</v>
+      <c r="H16" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L16,E16,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!V16</f>
@@ -13921,16 +13947,16 @@
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F17,Trigger)</f>
         <v>42227</v>
       </c>
-      <c r="H17" s="146">
-        <f>_xll.qlIndexFixing(IborIndex,E17,TRUE,InterestRateTrigger)</f>
-        <v>1.2900000000001263E-3</v>
+      <c r="H17" s="146" t="e">
+        <f ca="1">_xll.qlIndexFixing(IborIndex,E17,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I17" s="147" t="str">
         <f>Contribution!V17</f>
         <v>SEK6M6MD=</v>
       </c>
       <c r="J17" s="147" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K17" s="33"/>
       <c r="L17" s="62"/>
@@ -14110,9 +14136,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
         <v>42411</v>
       </c>
-      <c r="H25" s="38">
-        <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>1.2719558058702936E-3</v>
+      <c r="H25" s="38" t="e">
+        <f ca="1">_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!V25</f>
@@ -14161,9 +14187,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
         <v>42779</v>
       </c>
-      <c r="H26" s="39">
-        <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>1.8128588671849715E-3</v>
+      <c r="H26" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!V26</f>
@@ -14206,9 +14232,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
         <v>43143</v>
       </c>
-      <c r="H27" s="39">
-        <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>2.7870219127092101E-3</v>
+      <c r="H27" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!V27</f>
@@ -14251,9 +14277,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
         <v>43507</v>
       </c>
-      <c r="H28" s="39">
-        <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>4.0231924559756159E-3</v>
+      <c r="H28" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!V28</f>
@@ -14296,9 +14322,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
         <v>43872</v>
       </c>
-      <c r="H29" s="39">
-        <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>5.3283776578101887E-3</v>
+      <c r="H29" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!V29</f>
@@ -14341,9 +14367,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
         <v>44238</v>
       </c>
-      <c r="H30" s="39">
-        <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>6.6320272439063495E-3</v>
+      <c r="H30" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!V30</f>
@@ -14386,9 +14412,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
         <v>44603</v>
       </c>
-      <c r="H31" s="39">
-        <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>7.9331546216027098E-3</v>
+      <c r="H31" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!V31</f>
@@ -14431,9 +14457,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
         <v>44970</v>
       </c>
-      <c r="H32" s="39">
-        <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>9.0832638661275146E-3</v>
+      <c r="H32" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!V32</f>
@@ -14476,9 +14502,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
         <v>45334</v>
       </c>
-      <c r="H33" s="39">
-        <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>1.0057358928100439E-2</v>
+      <c r="H33" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!V33</f>
@@ -14521,9 +14547,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
         <v>45699</v>
       </c>
-      <c r="H34" s="39">
-        <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>1.0877629172729716E-2</v>
+      <c r="H34" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!V34</f>
@@ -14566,9 +14592,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
         <v>46429</v>
       </c>
-      <c r="H35" s="39">
-        <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.2251333702414057E-2</v>
+      <c r="H35" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!V35</f>
@@ -14611,9 +14637,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
         <v>47525</v>
       </c>
-      <c r="H36" s="39">
-        <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.3831514579399056E-2</v>
+      <c r="H36" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!V36</f>
@@ -14656,9 +14682,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
         <v>49352</v>
       </c>
-      <c r="H37" s="39">
-        <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.5577025726085105E-2</v>
+      <c r="H37" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!V37</f>
@@ -14701,9 +14727,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
         <v>51179</v>
       </c>
-      <c r="H38" s="39">
-        <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.6202855579463136E-2</v>
+      <c r="H38" s="39" t="e">
+        <f ca="1">_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!V38</f>
@@ -14746,9 +14772,9 @@
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
         <v>53006</v>
       </c>
-      <c r="H39" s="42">
-        <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.6341895475611823E-2</v>
+      <c r="H39" s="42" t="e">
+        <f ca="1">_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
+        <v>#NAME?</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!V39</f>

--- a/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
+++ b/QuantLibXL/Data2/XLS/SEK/SEK_MxContributor.xlsx
@@ -1351,109 +1351,109 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>-0.20716403</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC6" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.20719527200000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC7" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.17750000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24399999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC17" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.23875000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.03</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.23700000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC15" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.105</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24099999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-9.6250000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.224</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.7499999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC27" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.23200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24199999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.21299999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.29125000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.33625000000000005</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.25</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC18" s="7"/>
@@ -1461,42 +1461,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.65625</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.63875000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.59375</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.50750000000000006</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.435</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.3725</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1505,109 +1505,109 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>-0.20716403</v>
         <stp/>
         <stp xml:space="preserve">	SEKONOND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB6" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.20719527200000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKONTND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB7" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.17750000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24399999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB17" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.23875000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON7YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.03</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.23700000000000002</v>
         <stp/>
         <stp xml:space="preserve">	SEKON4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB15" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.105</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24099999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-9.6250000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.224</v>
         <stp/>
         <stp xml:space="preserve">	SEKON2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.7499999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB27" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.23200000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.24199999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.21299999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEKON1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.29125000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEKON8YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.33625000000000005</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9YD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.25</v>
         <stp/>
         <stp xml:space="preserve">	SEKON9MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AB18" s="7"/>
@@ -1615,42 +1615,42 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.50750000000000006</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON15YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.435</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON12YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.3725</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON10YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.63875000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON25YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.59375</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON20YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AC37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.65625</v>
         <stp/>
         <stp xml:space="preserve">
 SEKON30YD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1659,151 +1659,151 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>-1.5234412000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.5005242E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.4999999999999998E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH17" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.0500000000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH15" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.3300000000000005E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.5936275E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.03</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.7106056000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.6799999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-2.0200000000000003E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.328711685</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.249260018</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.356659464</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.0839021990000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.81671830900000009</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.94180458800000011</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.75750000000000006</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.84750000000000003</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.23</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.38250000000000001</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.53</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.65250000000000008</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.11396569000000001</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.05</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.08</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG27" s="7"/>
@@ -1811,187 +1811,189 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>1.42</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.345</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4450000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.1850000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.92</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.0449999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.65427037300000002</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.74422578700000008</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.12770567600000002</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.27961965900000002</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.42690083900000003</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.54928412199999999</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.19362547900000002</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.14377569500000001</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.9542244E-2</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE27" s="7"/>
       </tp>
-      <tp>
-        <v>0</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>-6.4211153000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.3944235000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.502922400000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-8.14E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.6392913999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-8.9700000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.8547106470000001</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.94485063000000002</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.32518768100000001</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.47876987900000001</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.62668490900000007</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.74949886100000007</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.5870157999999999E-2</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3.9722973000000002E-2</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.17345665100000002</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI27" s="7"/>
@@ -1999,121 +2001,123 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>-0.12130000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.12102691400000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.1221</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.12340000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.1268</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4898787340000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4223873680000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.508675728</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.2727362610000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.01694825</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.1395184470000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI35" s="7"/>
       </tp>
-      <tp>
-        <v>0</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.94485063000000002</v>
         <stp/>
         <stp>_x0008_SEK6M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.8547106470000001</v>
         <stp/>
         <stp>_x0008_SEK6M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.74949886100000007</v>
         <stp/>
         <stp>_x0008_SEK6M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.62668490900000007</v>
         <stp/>
         <stp>_x0008_SEK6M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.47876987900000001</v>
         <stp/>
         <stp>_x0008_SEK6M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.32518768100000001</v>
         <stp/>
         <stp>_x0008_SEK6M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.17345665100000002</v>
         <stp/>
         <stp>_x0008_SEK6M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH27" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>3.9722973000000002E-2</v>
         <stp/>
         <stp>_x0008_SEK6M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.5870157999999999E-2</v>
         <stp/>
         <stp>_x0008_SEK6M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH25" s="7"/>
@@ -2121,55 +2125,55 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.74422578700000008</v>
         <stp/>
         <stp>_x0008_SEK1M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.65427037300000002</v>
         <stp/>
         <stp>_x0008_SEK1M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.54928412199999999</v>
         <stp/>
         <stp>_x0008_SEK1M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.42690083900000003</v>
         <stp/>
         <stp>_x0008_SEK1M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.27961965900000002</v>
         <stp/>
         <stp>_x0008_SEK1M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.12770567600000002</v>
         <stp/>
         <stp>_x0008_SEK1M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.9542244E-2</v>
         <stp/>
         <stp>_x0008_SEK1M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD27" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.14377569500000001</v>
         <stp/>
         <stp>_x0008_SEK1M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.19362547900000002</v>
         <stp/>
         <stp>_x0008_SEK1M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD25" s="7"/>
@@ -2177,313 +2181,313 @@
     </main>
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>0</v>
+        <v>0.84750000000000003</v>
         <stp/>
         <stp>_x0008_SEK3M9Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF33" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.75750000000000006</v>
         <stp/>
         <stp>_x0008_SEK3M8Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF32" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.65250000000000008</v>
         <stp/>
         <stp>_x0008_SEK3M7Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF31" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.53</v>
         <stp/>
         <stp>_x0008_SEK3M6Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF30" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.38250000000000001</v>
         <stp/>
         <stp>_x0008_SEK3M5Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF29" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.23</v>
         <stp/>
         <stp>_x0008_SEK3M4Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF28" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.08</v>
         <stp/>
         <stp>_x0008_SEK3M3Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF27" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.05</v>
         <stp/>
         <stp>_x0008_SEK3M2Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF26" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.11396569000000001</v>
         <stp/>
         <stp>_x0008_SEK3M1Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF25" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.42</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.345</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4450000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.1850000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.0449999999999999</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.92</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.328711685</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.249260018</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.356659464</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.0839021990000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.94180458800000011</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>0.81671830900000009</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AD34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.5234412000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.5005242E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.4999999999999998E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M6MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI17" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.0500000000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M4MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI15" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-4.3300000000000005E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M5MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI16" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.5936275E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.03</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-1.7106056000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-3.6799999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-2.0200000000000003E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AI12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4898787340000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M25Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH38" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.4223873680000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M20Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH37" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.508675728</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M30Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH39" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.2727362610000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M15Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH36" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.1395184470000002</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M12Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH35" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>1.01694825</v>
         <stp/>
         <stp xml:space="preserve">	SEK6M10Y=_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AH34" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.12130000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.12102691400000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.1221</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.12340000000000001</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-0.1268</v>
         <stp/>
         <stp xml:space="preserve">	SEK1M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AE12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.4211153000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSWD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG9" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.3944235000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3MSND=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG8" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.502922400000001E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG10" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-8.14E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M2MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG13" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-6.6392913999999997E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3WD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG11" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-8.9700000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M3MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG14" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>-7.0000000000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">	SEK3M1MD=_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG12" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.09</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF22" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.0475</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF23" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.11500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF19" s="7"/>
@@ -2495,25 +2499,25 @@
         <tr r="AF24" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.125</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF20" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.12</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AF21" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.12</v>
         <stp/>
         <stp>_x0007_SEK3MZ5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG21" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.125</v>
         <stp/>
         <stp>_x0007_SEK3MU5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG20" s="7"/>
@@ -2525,19 +2529,19 @@
         <tr r="AG24" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.09</v>
         <stp/>
         <stp>_x0007_SEK3MH6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG22" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.11500000000001</v>
         <stp/>
         <stp>_x0007_SEK3MM5_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG19" s="7"/>
       </tp>
       <tp>
-        <v>0</v>
+        <v>100.0475</v>
         <stp/>
         <stp>_x0007_SEK3MM6_x0003_ASK_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="AG23" s="7"/>
@@ -2920,7 +2924,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="178">
-        <v>42081.538564814815</v>
+        <v>42086.438738425924</v>
       </c>
       <c r="E4" s="136"/>
     </row>
@@ -2942,7 +2946,7 @@
       </c>
       <c r="D6" s="141">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="E6" s="136"/>
     </row>
@@ -3068,7 +3072,7 @@
       </c>
       <c r="D20" s="129">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="E20" s="136"/>
     </row>
@@ -3132,7 +3136,7 @@
     <col min="19" max="19" width="10" style="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10" style="1" customWidth="1"/>
-    <col min="23" max="24" width="7" style="1" customWidth="1"/>
+    <col min="23" max="24" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="2.7109375" style="1" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" style="1" customWidth="1"/>
     <col min="27" max="27" width="10.28515625" style="2" customWidth="1"/>
@@ -3368,11 +3372,11 @@
       </c>
       <c r="N6" s="9">
         <f>'ON Pricing'!H6*100</f>
-        <v>-4.7859120925699938E-2</v>
+        <v>-0.20716389393711679</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" ref="O6:O7" si="1">N6</f>
-        <v>-4.7859120925699938E-2</v>
+        <v>-0.20716389393711679</v>
       </c>
       <c r="P6" s="86"/>
       <c r="Q6" s="87"/>
@@ -3390,11 +3394,11 @@
       <c r="AA6" s="9"/>
       <c r="AB6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,BID)-N6)</f>
-        <v>4.7859120925699938E-2</v>
+        <v>1.3606288321033055E-7</v>
       </c>
       <c r="AC6" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$M6,ASK)-O6)</f>
-        <v>4.7859120925699938E-2</v>
+        <v>1.3606288321033055E-7</v>
       </c>
       <c r="AD6" s="88"/>
       <c r="AE6" s="88"/>
@@ -3428,11 +3432,11 @@
       </c>
       <c r="N7" s="13">
         <f>'ON Pricing'!H7*100</f>
-        <v>-4.7925535941029551E-2</v>
+        <v>-0.20719513692053865</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="1"/>
-        <v>-4.7925535941029551E-2</v>
+        <v>-0.20719513692053865</v>
       </c>
       <c r="P7" s="102"/>
       <c r="Q7" s="103"/>
@@ -3450,11 +3454,11 @@
       <c r="AA7" s="13"/>
       <c r="AB7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,BID)-N7)</f>
-        <v>4.7925535941029551E-2</v>
+        <v>1.3507946136637194E-7</v>
       </c>
       <c r="AC7" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M7,ASK)-O7)</f>
-        <v>4.7925535941029551E-2</v>
+        <v>1.3507946136637194E-7</v>
       </c>
       <c r="AD7" s="104"/>
       <c r="AE7" s="104"/>
@@ -3493,13 +3497,13 @@
         <f t="shared" ref="P8:P12" si="2">Currency&amp;$P$4&amp;C8&amp;"D="</f>
         <v>SEK1MSND=</v>
       </c>
-      <c r="Q8" s="90" t="e">
+      <c r="Q8" s="90">
         <f>'1M Pricing'!H8*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R8" s="90" t="e">
+        <v>-0.12102406118863485</v>
+      </c>
+      <c r="R8" s="90">
         <f t="shared" ref="R8" si="3">Q8</f>
-        <v>#NUM!</v>
+        <v>-0.12102406118863485</v>
       </c>
       <c r="S8" s="10" t="str">
         <f t="shared" ref="S8:S14" si="4">Currency&amp;$S$4&amp;C8&amp;"D="</f>
@@ -3507,23 +3511,23 @@
       </c>
       <c r="T8" s="11">
         <f>'3M Pricing'!H8*100</f>
-        <v>4.7387613089533431E-2</v>
+        <v>-6.4766386753678518E-2</v>
       </c>
       <c r="U8" s="11">
         <f t="shared" ref="U8" si="5">T8</f>
-        <v>4.7387613089533431E-2</v>
+        <v>-6.4766386753678518E-2</v>
       </c>
       <c r="V8" s="10" t="str">
         <f t="shared" ref="V8:V17" si="6">Currency&amp;$V$4&amp;C8&amp;"D="</f>
         <v>SEK6MSND=</v>
       </c>
-      <c r="W8" s="11" t="e">
+      <c r="W8" s="11">
         <f>'6M Pricing'!H8*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X8" s="11" t="e">
+        <v>-4.0800712896249536E-2</v>
+      </c>
+      <c r="X8" s="11">
         <f t="shared" ref="X8" si="7">W8</f>
-        <v>#NUM!</v>
+        <v>-4.0800712896249536E-2</v>
       </c>
       <c r="Y8" s="67" t="s">
         <v>56</v>
@@ -3532,29 +3536,29 @@
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
-      <c r="AD8" s="91" t="e">
+      <c r="AD8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,BID)-Q8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE8" s="91" t="e">
+        <v>2.8528113651671294E-6</v>
+      </c>
+      <c r="AE8" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P8,ASK)-R8)</f>
-        <v>#NUM!</v>
+        <v>2.8528113651671294E-6</v>
       </c>
       <c r="AF8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,BID)-T8)</f>
-        <v>4.7387613089533431E-2</v>
+        <v>8.2215175367851556E-4</v>
       </c>
       <c r="AG8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S8,ASK)-U8)</f>
-        <v>4.7387613089533431E-2</v>
-      </c>
-      <c r="AH8" s="11" t="e">
+        <v>8.2215175367851556E-4</v>
+      </c>
+      <c r="AH8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,BID)-W8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI8" s="11" t="e">
+        <v>2.5795470896249534E-2</v>
+      </c>
+      <c r="AI8" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V8,ASK)-X8)</f>
-        <v>#NUM!</v>
+        <v>2.5795470896249534E-2</v>
       </c>
       <c r="AJ8" s="33"/>
     </row>
@@ -3587,13 +3591,13 @@
         <f t="shared" si="2"/>
         <v>SEK1MSWD=</v>
       </c>
-      <c r="Q9" s="90" t="e">
+      <c r="Q9" s="90">
         <f>'1M Pricing'!H9*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R9" s="90" t="e">
+        <v>-0.12129999999815105</v>
+      </c>
+      <c r="R9" s="90">
         <f t="shared" ref="R9:R12" si="8">Q9</f>
-        <v>#NUM!</v>
+        <v>-0.12129999999815105</v>
       </c>
       <c r="S9" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3601,23 +3605,23 @@
       </c>
       <c r="T9" s="11">
         <f>'3M Pricing'!H9*100</f>
-        <v>4.6848387348903078E-2</v>
+        <v>-6.5023497456121293E-2</v>
       </c>
       <c r="U9" s="11">
         <f t="shared" ref="U9:U14" si="9">T9</f>
-        <v>4.6848387348903078E-2</v>
+        <v>-6.5023497456121293E-2</v>
       </c>
       <c r="V9" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6MSWD=</v>
       </c>
-      <c r="W9" s="11" t="e">
+      <c r="W9" s="11">
         <f>'6M Pricing'!H9*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X9" s="11" t="e">
+        <v>-4.0932932381895375E-2</v>
+      </c>
+      <c r="X9" s="11">
         <f t="shared" ref="X9:X17" si="10">W9</f>
-        <v>#NUM!</v>
+        <v>-4.0932932381895375E-2</v>
       </c>
       <c r="Y9" s="67" t="s">
         <v>56</v>
@@ -3626,29 +3630,29 @@
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
-      <c r="AD9" s="91" t="e">
+      <c r="AD9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,BID)-Q9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE9" s="91" t="e">
+        <v>1.8489515474229279E-12</v>
+      </c>
+      <c r="AE9" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P9,ASK)-R9)</f>
-        <v>#NUM!</v>
+        <v>1.8489515474229279E-12</v>
       </c>
       <c r="AF9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,BID)-T9)</f>
-        <v>4.6848387348903078E-2</v>
+        <v>8.1234445612128614E-4</v>
       </c>
       <c r="AG9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S9,ASK)-U9)</f>
-        <v>4.6848387348903078E-2</v>
-      </c>
-      <c r="AH9" s="11" t="e">
+        <v>8.1234445612128614E-4</v>
+      </c>
+      <c r="AH9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,BID)-W9)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI9" s="11" t="e">
+        <v>2.5698520381895372E-2</v>
+      </c>
+      <c r="AI9" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V9,ASK)-X9)</f>
-        <v>#NUM!</v>
+        <v>2.5698520381895372E-2</v>
       </c>
       <c r="AJ9" s="33" t="s">
         <v>56</v>
@@ -3683,13 +3687,13 @@
         <f t="shared" si="2"/>
         <v>SEK1M2WD=</v>
       </c>
-      <c r="Q10" s="90" t="e">
+      <c r="Q10" s="90">
         <f>'1M Pricing'!H10*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R10" s="90" t="e">
+        <v>-0.1221000000046768</v>
+      </c>
+      <c r="R10" s="90">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>-0.1221000000046768</v>
       </c>
       <c r="S10" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3697,23 +3701,23 @@
       </c>
       <c r="T10" s="11">
         <f>'3M Pricing'!H10*100</f>
-        <v>4.5196634371080791E-2</v>
+        <v>-6.5811548335816178E-2</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="9"/>
-        <v>4.5196634371080791E-2</v>
+        <v>-6.5811548335816178E-2</v>
       </c>
       <c r="V10" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2WD=</v>
       </c>
-      <c r="W10" s="11" t="e">
+      <c r="W10" s="11">
         <f>'6M Pricing'!H10*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X10" s="11" t="e">
+        <v>-4.133811324361477E-2</v>
+      </c>
+      <c r="X10" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.133811324361477E-2</v>
       </c>
       <c r="Y10" s="67" t="s">
         <v>56</v>
@@ -3722,29 +3726,29 @@
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
-      <c r="AD10" s="91" t="e">
+      <c r="AD10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,BID)-Q10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE10" s="91" t="e">
+        <v>4.6768006134456641E-12</v>
+      </c>
+      <c r="AE10" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P10,ASK)-R10)</f>
-        <v>#NUM!</v>
+        <v>4.6768006134456641E-12</v>
       </c>
       <c r="AF10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,BID)-T10)</f>
-        <v>4.5196634371080791E-2</v>
+        <v>7.8232433581616745E-4</v>
       </c>
       <c r="AG10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S10,ASK)-U10)</f>
-        <v>4.5196634371080791E-2</v>
-      </c>
-      <c r="AH10" s="11" t="e">
+        <v>7.8232433581616745E-4</v>
+      </c>
+      <c r="AH10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,BID)-W10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI10" s="11" t="e">
+        <v>2.540183824361477E-2</v>
+      </c>
+      <c r="AI10" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V10,ASK)-X10)</f>
-        <v>#NUM!</v>
+        <v>2.540183824361477E-2</v>
       </c>
       <c r="AJ10" s="33" t="s">
         <v>56</v>
@@ -3779,13 +3783,13 @@
         <f t="shared" si="2"/>
         <v>SEK1M3WD=</v>
       </c>
-      <c r="Q11" s="90" t="e">
+      <c r="Q11" s="90">
         <f>'1M Pricing'!H11*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R11" s="90" t="e">
+        <v>-0.1234000000190757</v>
+      </c>
+      <c r="R11" s="90">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>-0.1234000000190757</v>
       </c>
       <c r="S11" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3793,23 +3797,23 @@
       </c>
       <c r="T11" s="11">
         <f>'3M Pricing'!H11*100</f>
-        <v>4.1960327556908344E-2</v>
+        <v>-6.7125212964036507E-2</v>
       </c>
       <c r="U11" s="11">
         <f t="shared" si="9"/>
-        <v>4.1960327556908344E-2</v>
+        <v>-6.7125212964036507E-2</v>
       </c>
       <c r="V11" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3WD=</v>
       </c>
-      <c r="W11" s="11" t="e">
+      <c r="W11" s="11">
         <f>'6M Pricing'!H11*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X11" s="11" t="e">
+        <v>-4.2013514419839533E-2</v>
+      </c>
+      <c r="X11" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.2013514419839533E-2</v>
       </c>
       <c r="Y11" s="67" t="s">
         <v>56</v>
@@ -3818,29 +3822,29 @@
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
-      <c r="AD11" s="91" t="e">
+      <c r="AD11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,BID)-Q11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE11" s="91" t="e">
+        <v>1.9075685475655746E-11</v>
+      </c>
+      <c r="AE11" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P11,ASK)-R11)</f>
-        <v>#NUM!</v>
+        <v>1.9075685475655746E-11</v>
       </c>
       <c r="AF11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,BID)-T11)</f>
-        <v>4.1960327556908344E-2</v>
+        <v>7.3229896403650963E-4</v>
       </c>
       <c r="AG11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S11,ASK)-U11)</f>
-        <v>4.1960327556908344E-2</v>
-      </c>
-      <c r="AH11" s="11" t="e">
+        <v>7.3229896403650963E-4</v>
+      </c>
+      <c r="AH11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,BID)-W11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI11" s="11" t="e">
+        <v>2.4907458419839532E-2</v>
+      </c>
+      <c r="AI11" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V11,ASK)-X11)</f>
-        <v>#NUM!</v>
+        <v>2.4907458419839532E-2</v>
       </c>
       <c r="AJ11" s="33" t="s">
         <v>56</v>
@@ -3877,23 +3881,23 @@
       </c>
       <c r="N12" s="11">
         <f>'ON Pricing'!H12*100</f>
-        <v>-5.0999999999135071E-2</v>
+        <v>-0.21299999992343352</v>
       </c>
       <c r="O12" s="11">
         <f t="shared" ref="O12" si="11">N12</f>
-        <v>-5.0999999999135071E-2</v>
+        <v>-0.21299999992343352</v>
       </c>
       <c r="P12" s="89" t="str">
         <f t="shared" si="2"/>
         <v>SEK1M1MD=</v>
       </c>
-      <c r="Q12" s="90" t="e">
+      <c r="Q12" s="90">
         <f>'1M Pricing'!H12*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R12" s="90" t="e">
+        <v>-0.12679999980850939</v>
+      </c>
+      <c r="R12" s="90">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
+        <v>-0.12679999980850939</v>
       </c>
       <c r="S12" s="10" t="str">
         <f t="shared" si="4"/>
@@ -3901,23 +3905,23 @@
       </c>
       <c r="T12" s="11">
         <f>'3M Pricing'!H12*100</f>
-        <v>3.660000000026814E-2</v>
+        <v>-7.0599999982399395E-2</v>
       </c>
       <c r="U12" s="11">
         <f t="shared" si="9"/>
-        <v>3.660000000026814E-2</v>
+        <v>-7.0599999982399395E-2</v>
       </c>
       <c r="V12" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M1MD=</v>
       </c>
-      <c r="W12" s="11" t="e">
+      <c r="W12" s="11">
         <f>'6M Pricing'!H12*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X12" s="11" t="e">
+        <v>-4.3799999999896956E-2</v>
+      </c>
+      <c r="X12" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.3799999999896956E-2</v>
       </c>
       <c r="Y12" s="67" t="s">
         <v>56</v>
@@ -3926,35 +3930,35 @@
       <c r="AA12" s="11"/>
       <c r="AB12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,BID)-N12)</f>
-        <v>5.0999999999135071E-2</v>
+        <v>7.656647538212269E-11</v>
       </c>
       <c r="AC12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M12,ASK)-O12)</f>
-        <v>5.0999999999135071E-2</v>
-      </c>
-      <c r="AD12" s="91" t="e">
+        <v>7.656647538212269E-11</v>
+      </c>
+      <c r="AD12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,BID)-Q12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE12" s="91" t="e">
+        <v>1.9149060115353222E-10</v>
+      </c>
+      <c r="AE12" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P12,ASK)-R12)</f>
-        <v>#NUM!</v>
+        <v>1.9149060115353222E-10</v>
       </c>
       <c r="AF12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,BID)-T12)</f>
-        <v>3.660000000026814E-2</v>
+        <v>5.999999823993879E-4</v>
       </c>
       <c r="AG12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S12,ASK)-U12)</f>
-        <v>3.660000000026814E-2</v>
-      </c>
-      <c r="AH12" s="11" t="e">
+        <v>5.999999823993879E-4</v>
+      </c>
+      <c r="AH12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,BID)-W12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI12" s="11" t="e">
+        <v>2.3599999999896953E-2</v>
+      </c>
+      <c r="AI12" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V12,ASK)-X12)</f>
-        <v>#NUM!</v>
+        <v>2.3599999999896953E-2</v>
       </c>
       <c r="AJ12" s="33" t="s">
         <v>56</v>
@@ -3990,11 +3994,11 @@
       </c>
       <c r="N13" s="11">
         <f>'ON Pricing'!H13*100</f>
-        <v>-5.999999999658661E-2</v>
+        <v>-0.22399999979947427</v>
       </c>
       <c r="O13" s="11">
         <f t="shared" ref="O13:O39" si="12">N13</f>
-        <v>-5.999999999658661E-2</v>
+        <v>-0.22399999979947427</v>
       </c>
       <c r="P13" s="89"/>
       <c r="Q13" s="90"/>
@@ -4005,23 +4009,23 @@
       </c>
       <c r="T13" s="11">
         <f>'3M Pricing'!H13*100</f>
-        <v>1.0700000003233918E-2</v>
+        <v>-8.1599999940353038E-2</v>
       </c>
       <c r="U13" s="11">
         <f t="shared" si="9"/>
-        <v>1.0700000003233918E-2</v>
+        <v>-8.1599999940353038E-2</v>
       </c>
       <c r="V13" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M2MD=</v>
       </c>
-      <c r="W13" s="11" t="e">
+      <c r="W13" s="11">
         <f>'6M Pricing'!H13*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X13" s="11" t="e">
+        <v>-4.9100000000059936E-2</v>
+      </c>
+      <c r="X13" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.9100000000059936E-2</v>
       </c>
       <c r="Y13" s="67" t="s">
         <v>56</v>
@@ -4030,29 +4034,29 @@
       <c r="AA13" s="11"/>
       <c r="AB13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,BID)-N13)</f>
-        <v>5.999999999658661E-2</v>
+        <v>2.0052573490580983E-10</v>
       </c>
       <c r="AC13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M13,ASK)-O13)</f>
-        <v>5.999999999658661E-2</v>
+        <v>2.0052573490580983E-10</v>
       </c>
       <c r="AD13" s="91"/>
       <c r="AE13" s="91"/>
       <c r="AF13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,BID)-T13)</f>
-        <v>1.0700000003233918E-2</v>
+        <v>1.9999994035303781E-4</v>
       </c>
       <c r="AG13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S13,ASK)-U13)</f>
-        <v>1.0700000003233918E-2</v>
-      </c>
-      <c r="AH13" s="11" t="e">
+        <v>1.9999994035303781E-4</v>
+      </c>
+      <c r="AH13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,BID)-W13)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI13" s="11" t="e">
+        <v>1.9100000000059937E-2</v>
+      </c>
+      <c r="AI13" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V13,ASK)-X13)</f>
-        <v>#NUM!</v>
+        <v>1.9100000000059937E-2</v>
       </c>
       <c r="AJ13" s="33" t="s">
         <v>56</v>
@@ -4088,11 +4092,11 @@
       </c>
       <c r="N14" s="11">
         <f>'ON Pricing'!H14*100</f>
-        <v>-6.9999999992160888E-2</v>
+        <v>-0.2320000000000341</v>
       </c>
       <c r="O14" s="11">
         <f t="shared" si="12"/>
-        <v>-6.9999999992160888E-2</v>
+        <v>-0.2320000000000341</v>
       </c>
       <c r="P14" s="92"/>
       <c r="Q14" s="93"/>
@@ -4103,23 +4107,23 @@
       </c>
       <c r="T14" s="11">
         <f>'3M Pricing'!H14*100</f>
-        <v>-7.9714098994697769E-3</v>
+        <v>-8.9699999814722417E-2</v>
       </c>
       <c r="U14" s="11">
         <f t="shared" si="9"/>
-        <v>-7.9714098994697769E-3</v>
+        <v>-8.9699999814722417E-2</v>
       </c>
       <c r="V14" s="10" t="str">
         <f t="shared" si="6"/>
         <v>SEK6M3MD=</v>
       </c>
-      <c r="W14" s="11" t="e">
+      <c r="W14" s="11">
         <f>'6M Pricing'!H14*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X14" s="11" t="e">
+        <v>-5.1200000000000044E-2</v>
+      </c>
+      <c r="X14" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-5.1200000000000044E-2</v>
       </c>
       <c r="Y14" s="67" t="s">
         <v>56</v>
@@ -4128,29 +4132,29 @@
       <c r="AA14" s="11"/>
       <c r="AB14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,BID)-N14)</f>
-        <v>6.9999999992160888E-2</v>
+        <v>3.4083846855992306E-14</v>
       </c>
       <c r="AC14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M14,ASK)-O14)</f>
-        <v>6.9999999992160888E-2</v>
+        <v>3.4083846855992306E-14</v>
       </c>
       <c r="AD14" s="94"/>
       <c r="AE14" s="94"/>
       <c r="AF14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,BID)-T14)</f>
-        <v>7.9714098994697769E-3</v>
+        <v>1.8527758494091273E-10</v>
       </c>
       <c r="AG14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S14,ASK)-U14)</f>
-        <v>7.9714098994697769E-3</v>
-      </c>
-      <c r="AH14" s="11" t="e">
+        <v>1.8527758494091273E-10</v>
+      </c>
+      <c r="AH14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,BID)-W14)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI14" s="11" t="e">
+        <v>1.4400000000000045E-2</v>
+      </c>
+      <c r="AI14" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V14,ASK)-X14)</f>
-        <v>#NUM!</v>
+        <v>1.4400000000000045E-2</v>
       </c>
       <c r="AJ14" s="33" t="s">
         <v>56</v>
@@ -4185,11 +4189,11 @@
       </c>
       <c r="N15" s="11">
         <f>'ON Pricing'!H15*100</f>
-        <v>-7.6999999987491907E-2</v>
+        <v>-0.23700000000002483</v>
       </c>
       <c r="O15" s="11">
         <f t="shared" si="12"/>
-        <v>-7.6999999987491907E-2</v>
+        <v>-0.23700000000002483</v>
       </c>
       <c r="P15" s="89"/>
       <c r="Q15" s="90"/>
@@ -4201,13 +4205,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M4MD=</v>
       </c>
-      <c r="W15" s="11" t="e">
+      <c r="W15" s="11">
         <f>'6M Pricing'!H15*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X15" s="11" t="e">
+        <v>-4.9799999952417476E-2</v>
+      </c>
+      <c r="X15" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.9799999952417476E-2</v>
       </c>
       <c r="Y15" s="67" t="s">
         <v>56</v>
@@ -4216,23 +4220,23 @@
       <c r="AA15" s="11"/>
       <c r="AB15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,BID)-N15)</f>
-        <v>7.6999999987491907E-2</v>
+        <v>2.4813484600372249E-14</v>
       </c>
       <c r="AC15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M15,ASK)-O15)</f>
-        <v>7.6999999987491907E-2</v>
+        <v>2.4813484600372249E-14</v>
       </c>
       <c r="AD15" s="91"/>
       <c r="AE15" s="91"/>
       <c r="AF15" s="71"/>
       <c r="AG15" s="71"/>
-      <c r="AH15" s="11" t="e">
+      <c r="AH15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,BID)-W15)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI15" s="11" t="e">
+        <v>9.2999999524174745E-3</v>
+      </c>
+      <c r="AI15" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V15,ASK)-X15)</f>
-        <v>#NUM!</v>
+        <v>9.2999999524174745E-3</v>
       </c>
       <c r="AJ15" s="33" t="s">
         <v>56</v>
@@ -4267,11 +4271,11 @@
       </c>
       <c r="N16" s="11">
         <f>'ON Pricing'!H16*100</f>
-        <v>-8.3999999975873929E-2</v>
+        <v>-0.24099999999998797</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="12"/>
-        <v>-8.3999999975873929E-2</v>
+        <v>-0.24099999999998797</v>
       </c>
       <c r="P16" s="89"/>
       <c r="Q16" s="90"/>
@@ -4283,13 +4287,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M5MD=</v>
       </c>
-      <c r="W16" s="11" t="e">
+      <c r="W16" s="11">
         <f>'6M Pricing'!H16*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X16" s="11" t="e">
+        <v>-4.8100000046095749E-2</v>
+      </c>
+      <c r="X16" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.8100000046095749E-2</v>
       </c>
       <c r="Y16" s="67" t="s">
         <v>56</v>
@@ -4298,23 +4302,23 @@
       <c r="AA16" s="11"/>
       <c r="AB16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,BID)-N16)</f>
-        <v>8.3999999975873929E-2</v>
+        <v>1.201816424156732E-14</v>
       </c>
       <c r="AC16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M16,ASK)-O16)</f>
-        <v>8.3999999975873929E-2</v>
+        <v>1.201816424156732E-14</v>
       </c>
       <c r="AD16" s="91"/>
       <c r="AE16" s="91"/>
       <c r="AF16" s="71"/>
       <c r="AG16" s="71"/>
-      <c r="AH16" s="11" t="e">
+      <c r="AH16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,BID)-W16)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI16" s="11" t="e">
+        <v>4.800000046095744E-3</v>
+      </c>
+      <c r="AI16" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V16,ASK)-X16)</f>
-        <v>#NUM!</v>
+        <v>4.800000046095744E-3</v>
       </c>
       <c r="AJ16" s="33" t="s">
         <v>56</v>
@@ -4350,11 +4354,11 @@
       </c>
       <c r="N17" s="11">
         <f>'ON Pricing'!H17*100</f>
-        <v>-8.8999999971501972E-2</v>
+        <v>-0.24400000000001718</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="12"/>
-        <v>-8.8999999971501972E-2</v>
+        <v>-0.24400000000001718</v>
       </c>
       <c r="P17" s="92"/>
       <c r="Q17" s="93"/>
@@ -4366,13 +4370,13 @@
         <f t="shared" si="6"/>
         <v>SEK6M6MD=</v>
       </c>
-      <c r="W17" s="11" t="e">
+      <c r="W17" s="11">
         <f>'6M Pricing'!H17*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X17" s="11" t="e">
+        <v>-4.49999999999907E-2</v>
+      </c>
+      <c r="X17" s="11">
         <f t="shared" si="10"/>
-        <v>#NUM!</v>
+        <v>-4.49999999999907E-2</v>
       </c>
       <c r="Y17" s="67" t="s">
         <v>56</v>
@@ -4381,23 +4385,23 @@
       <c r="AA17" s="11"/>
       <c r="AB17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,BID)-N17)</f>
-        <v>8.8999999971501972E-2</v>
+        <v>1.7180701306074297E-14</v>
       </c>
       <c r="AC17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M17,ASK)-O17)</f>
-        <v>8.8999999971501972E-2</v>
+        <v>1.7180701306074297E-14</v>
       </c>
       <c r="AD17" s="94"/>
       <c r="AE17" s="94"/>
       <c r="AF17" s="71"/>
       <c r="AG17" s="71"/>
-      <c r="AH17" s="11" t="e">
+      <c r="AH17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,BID)-W17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI17" s="11" t="e">
+        <v>9.298117831235686E-15</v>
+      </c>
+      <c r="AI17" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V17,ASK)-X17)</f>
-        <v>#NUM!</v>
+        <v>9.298117831235686E-15</v>
       </c>
       <c r="AJ17" s="33" t="s">
         <v>56</v>
@@ -4431,11 +4435,11 @@
       </c>
       <c r="N18" s="11">
         <f>'ON Pricing'!H18*100</f>
-        <v>-0.10199999999998512</v>
+        <v>-0.25000000000004197</v>
       </c>
       <c r="O18" s="11">
         <f t="shared" si="12"/>
-        <v>-0.10199999999998512</v>
+        <v>-0.25000000000004197</v>
       </c>
       <c r="P18" s="92"/>
       <c r="Q18" s="93"/>
@@ -4453,11 +4457,11 @@
       <c r="AA18" s="11"/>
       <c r="AB18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,BID)-N18)</f>
-        <v>0.10199999999998512</v>
+        <v>4.1966430330830917E-14</v>
       </c>
       <c r="AC18" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M18,ASK)-O18)</f>
-        <v>0.10199999999998512</v>
+        <v>4.1966430330830917E-14</v>
       </c>
       <c r="AD18" s="97"/>
       <c r="AE18" s="97"/>
@@ -4511,11 +4515,11 @@
       </c>
       <c r="T19" s="9">
         <f>'3M Pricing'!H19</f>
-        <v>100.01999999973208</v>
+        <v>100.11499999985878</v>
       </c>
       <c r="U19" s="9">
         <f t="shared" ref="U19:U24" si="14">T19</f>
-        <v>100.01999999973208</v>
+        <v>100.11499999985878</v>
       </c>
       <c r="V19" s="68"/>
       <c r="W19" s="68"/>
@@ -4531,11 +4535,11 @@
       <c r="AE19" s="100"/>
       <c r="AF19" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,BID)-T19)</f>
-        <v>100.01999999973208</v>
+        <v>1.4122747415967751E-10</v>
       </c>
       <c r="AG19" s="9">
         <f>ABS(_xll.RtGet(SourceAlias,$S19,ASK)-U19)</f>
-        <v>100.01999999973208</v>
+        <v>1.4122747415967751E-10</v>
       </c>
       <c r="AH19" s="69"/>
       <c r="AI19" s="69"/>
@@ -4584,11 +4588,11 @@
       </c>
       <c r="T20" s="11">
         <f>'3M Pricing'!H20</f>
-        <v>100.01750000015137</v>
+        <v>100.12499999994462</v>
       </c>
       <c r="U20" s="11">
         <f t="shared" si="14"/>
-        <v>100.01750000015137</v>
+        <v>100.12499999994462</v>
       </c>
       <c r="V20" s="70"/>
       <c r="W20" s="70"/>
@@ -4604,11 +4608,11 @@
       <c r="AE20" s="94"/>
       <c r="AF20" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,BID)-T20)</f>
-        <v>100.01750000015137</v>
+        <v>5.5379700825142208E-11</v>
       </c>
       <c r="AG20" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S20,ASK)-U20)</f>
-        <v>100.01750000015137</v>
+        <v>5.5379700825142208E-11</v>
       </c>
       <c r="AH20" s="71"/>
       <c r="AI20" s="71"/>
@@ -4657,11 +4661,11 @@
       </c>
       <c r="T21" s="11">
         <f>'3M Pricing'!H21</f>
-        <v>99.995000000190558</v>
+        <v>100.125</v>
       </c>
       <c r="U21" s="11">
         <f t="shared" si="14"/>
-        <v>99.995000000190558</v>
+        <v>100.125</v>
       </c>
       <c r="V21" s="70"/>
       <c r="W21" s="70"/>
@@ -4677,11 +4681,11 @@
       <c r="AE21" s="94"/>
       <c r="AF21" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,BID)-T21)</f>
-        <v>99.995000000190558</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AG21" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S21,ASK)-U21)</f>
-        <v>99.995000000190558</v>
+        <v>4.9999999999954525E-3</v>
       </c>
       <c r="AH21" s="71"/>
       <c r="AI21" s="71"/>
@@ -4730,11 +4734,11 @@
       </c>
       <c r="T22" s="11">
         <f>'3M Pricing'!H22</f>
-        <v>99.955000000245079</v>
+        <v>100.09499999999998</v>
       </c>
       <c r="U22" s="11">
         <f t="shared" si="14"/>
-        <v>99.955000000245079</v>
+        <v>100.09499999999998</v>
       </c>
       <c r="V22" s="70"/>
       <c r="W22" s="70"/>
@@ -4750,11 +4754,11 @@
       <c r="AE22" s="94"/>
       <c r="AF22" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,BID)-T22)</f>
-        <v>99.955000000245079</v>
+        <v>4.9999999999812417E-3</v>
       </c>
       <c r="AG22" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S22,ASK)-U22)</f>
-        <v>99.955000000245079</v>
+        <v>4.9999999999812417E-3</v>
       </c>
       <c r="AH22" s="71"/>
       <c r="AI22" s="71"/>
@@ -4803,11 +4807,11 @@
       </c>
       <c r="T23" s="11">
         <f>'3M Pricing'!H23</f>
-        <v>99.889999999905783</v>
+        <v>100.04249999990166</v>
       </c>
       <c r="U23" s="11">
         <f t="shared" si="14"/>
-        <v>99.889999999905783</v>
+        <v>100.04249999990166</v>
       </c>
       <c r="V23" s="70"/>
       <c r="W23" s="70"/>
@@ -4823,11 +4827,11 @@
       <c r="AE23" s="94"/>
       <c r="AF23" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,BID)-T23)</f>
-        <v>99.889999999905783</v>
+        <v>5.0000000983345672E-3</v>
       </c>
       <c r="AG23" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S23,ASK)-U23)</f>
-        <v>99.889999999905783</v>
+        <v>5.0000000983345672E-3</v>
       </c>
       <c r="AH23" s="71"/>
       <c r="AI23" s="71"/>
@@ -4874,11 +4878,11 @@
       </c>
       <c r="T24" s="13">
         <f>'3M Pricing'!H24</f>
-        <v>99.925520211378029</v>
+        <v>99.974999999999994</v>
       </c>
       <c r="U24" s="13">
         <f t="shared" si="14"/>
-        <v>99.925520211378029</v>
+        <v>99.974999999999994</v>
       </c>
       <c r="V24" s="72"/>
       <c r="W24" s="72"/>
@@ -4936,10 +4940,10 @@
         <v>SEK3M1Y=</v>
       </c>
       <c r="K25" s="9">
-        <v>-1.0391898640119836E-2</v>
+        <v>-0.11542212671681977</v>
       </c>
       <c r="L25" s="9">
-        <v>-1.0391898640119836E-2</v>
+        <v>-0.11542212671681977</v>
       </c>
       <c r="M25" s="8" t="str">
         <f t="shared" ref="M25:M39" si="15">Currency&amp;"ON"&amp;C25&amp;"D="</f>
@@ -4947,23 +4951,23 @@
       </c>
       <c r="N25" s="9">
         <f>'ON Pricing'!H25*100</f>
-        <v>-0.10499999999998898</v>
+        <v>-0.2430000000000688</v>
       </c>
       <c r="O25" s="9">
         <f>N25</f>
-        <v>-0.10499999999998898</v>
+        <v>-0.2430000000000688</v>
       </c>
       <c r="P25" s="98" t="str">
         <f t="shared" ref="P25:P39" si="16">Currency&amp;$P$4&amp;C25&amp;"="</f>
         <v>SEK1M1Y=</v>
       </c>
-      <c r="Q25" s="90" t="e">
+      <c r="Q25" s="90">
         <f>'1M Pricing'!H25*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R25" s="90" t="e">
+        <v>-0.19132798649356048</v>
+      </c>
+      <c r="R25" s="90">
         <f t="shared" ref="R25" si="17">Q25</f>
-        <v>#NUM!</v>
+        <v>-0.19132798649356048</v>
       </c>
       <c r="S25" s="10" t="str">
         <f t="shared" ref="S25:S39" si="18">Currency&amp;$S$4&amp;C25&amp;"="</f>
@@ -4971,63 +4975,63 @@
       </c>
       <c r="T25" s="11">
         <f>'3M Pricing'!H25*100</f>
-        <v>-1.0391898640119836E-2</v>
+        <v>-0.11542212671681977</v>
       </c>
       <c r="U25" s="11">
         <f>T25</f>
-        <v>-1.0391898640119836E-2</v>
+        <v>-0.11542212671681977</v>
       </c>
       <c r="V25" s="8" t="str">
         <f t="shared" ref="V25:V39" si="19">Currency&amp;$V$4&amp;C25&amp;"="</f>
         <v>SEK6M1Y=</v>
       </c>
-      <c r="W25" s="9" t="e">
+      <c r="W25" s="9">
         <f>'6M Pricing'!H25*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X25" s="9" t="e">
+        <v>-4.3623538733729601E-2</v>
+      </c>
+      <c r="X25" s="9">
         <f>W25</f>
-        <v>#NUM!</v>
+        <v>-4.3623538733729601E-2</v>
       </c>
       <c r="Y25" s="67"/>
       <c r="Z25" s="11">
         <f t="array" ref="Z25:AA39">AF25:AG39</f>
-        <v>1.0391898640119836E-2</v>
+        <v>1.4564367168197617E-3</v>
       </c>
       <c r="AA25" s="11">
-        <v>1.0391898640119836E-2</v>
+        <v>1.4564367168197617E-3</v>
       </c>
       <c r="AB25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,BID)-N25)</f>
-        <v>0.10499999999998898</v>
+        <v>1.000000000068807E-3</v>
       </c>
       <c r="AC25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M25,ASK)-O25)</f>
-        <v>0.10499999999998898</v>
-      </c>
-      <c r="AD25" s="91" t="e">
+        <v>1.000000000068807E-3</v>
+      </c>
+      <c r="AD25" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P25,BID)-Q25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE25" s="91" t="e">
+        <v>2.2974925064395413E-3</v>
+      </c>
+      <c r="AE25" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P25,ASK)-R25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AF25" s="71">
+        <v>2.2974925064395413E-3</v>
+      </c>
+      <c r="AF25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S25,BID)-T25)</f>
-        <v>1.0391898640119836E-2</v>
-      </c>
-      <c r="AG25" s="71">
+        <v>1.4564367168197617E-3</v>
+      </c>
+      <c r="AG25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S25,ASK)-U25)</f>
-        <v>1.0391898640119836E-2</v>
-      </c>
-      <c r="AH25" s="11" t="e">
+        <v>1.4564367168197617E-3</v>
+      </c>
+      <c r="AH25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V25,BID)-W25)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI25" s="11" t="e">
+        <v>7.7533807337296021E-3</v>
+      </c>
+      <c r="AI25" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V25,ASK)-X25)</f>
-        <v>#NUM!</v>
+        <v>7.7533807337296021E-3</v>
       </c>
       <c r="AJ25" s="33"/>
     </row>
@@ -5059,10 +5063,10 @@
         <v>SEK3M2Y=</v>
       </c>
       <c r="K26" s="11">
-        <v>3.7500000014603206E-2</v>
+        <v>-6.2499999995672698E-2</v>
       </c>
       <c r="L26" s="11">
-        <v>3.7500000014603206E-2</v>
+        <v>-6.2499999995672698E-2</v>
       </c>
       <c r="M26" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5070,23 +5074,23 @@
       </c>
       <c r="N26" s="11">
         <f>'ON Pricing'!H26*100</f>
-        <v>-4.1249999999999024E-2</v>
+        <v>-0.10374999999999887</v>
       </c>
       <c r="O26" s="11">
         <f t="shared" si="12"/>
-        <v>-4.1249999999999024E-2</v>
+        <v>-0.10374999999999887</v>
       </c>
       <c r="P26" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M2Y=</v>
       </c>
-      <c r="Q26" s="90" t="e">
+      <c r="Q26" s="90">
         <f>'1M Pricing'!H26*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R26" s="90" t="e">
+        <v>-0.15627027289320405</v>
+      </c>
+      <c r="R26" s="90">
         <f>Q26</f>
-        <v>#NUM!</v>
+        <v>-0.15627027289320405</v>
       </c>
       <c r="S26" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5094,64 +5098,64 @@
       </c>
       <c r="T26" s="11">
         <f>'3M Pricing'!H26*100</f>
-        <v>3.7500000014603206E-2</v>
+        <v>-6.2499999995672698E-2</v>
       </c>
       <c r="U26" s="11">
         <f t="shared" ref="U26:U39" si="20">T26</f>
-        <v>3.7500000014603206E-2</v>
+        <v>-6.2499999995672698E-2</v>
       </c>
       <c r="V26" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M2Y=</v>
       </c>
-      <c r="W26" s="11" t="e">
+      <c r="W26" s="11">
         <f>'6M Pricing'!H26*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X26" s="11" t="e">
+        <v>2.3970658132554442E-2</v>
+      </c>
+      <c r="X26" s="11">
         <f t="shared" ref="X26:X39" si="21">W26</f>
-        <v>#NUM!</v>
+        <v>2.3970658132554442E-2</v>
       </c>
       <c r="Y26" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z26" s="11">
-        <v>3.7500000014603206E-2</v>
+        <v>1.2499999995672695E-2</v>
       </c>
       <c r="AA26" s="11">
-        <v>3.7500000014603206E-2</v>
+        <v>1.2499999995672695E-2</v>
       </c>
       <c r="AB26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,BID)-N26)</f>
-        <v>4.1249999999999024E-2</v>
+        <v>7.4999999999988687E-3</v>
       </c>
       <c r="AC26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M26,ASK)-O26)</f>
-        <v>4.1249999999999024E-2</v>
-      </c>
-      <c r="AD26" s="91" t="e">
+        <v>7.4999999999988687E-3</v>
+      </c>
+      <c r="AD26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,BID)-Q26)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE26" s="91" t="e">
+        <v>1.2494577893204045E-2</v>
+      </c>
+      <c r="AE26" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P26,ASK)-R26)</f>
-        <v>#NUM!</v>
+        <v>1.2494577893204045E-2</v>
       </c>
       <c r="AF26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,BID)-T26)</f>
-        <v>3.7500000014603206E-2</v>
+        <v>1.2499999995672695E-2</v>
       </c>
       <c r="AG26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S26,ASK)-U26)</f>
-        <v>3.7500000014603206E-2</v>
-      </c>
-      <c r="AH26" s="11" t="e">
+        <v>1.2499999995672695E-2</v>
+      </c>
+      <c r="AH26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,BID)-W26)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI26" s="11" t="e">
+        <v>1.575231486744556E-2</v>
+      </c>
+      <c r="AI26" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V26,ASK)-X26)</f>
-        <v>#NUM!</v>
+        <v>1.575231486744556E-2</v>
       </c>
       <c r="AJ26" s="33" t="s">
         <v>56</v>
@@ -5185,10 +5189,10 @@
         <v>SEK3M3Y=</v>
       </c>
       <c r="K27" s="11">
-        <v>0.1575000000104079</v>
+        <v>6.7499999989308779E-2</v>
       </c>
       <c r="L27" s="11">
-        <v>0.1575000000104079</v>
+        <v>6.7499999989308779E-2</v>
       </c>
       <c r="M27" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5196,23 +5200,23 @@
       </c>
       <c r="N27" s="11">
         <f>'ON Pricing'!H27*100</f>
-        <v>7.5000000000029765E-3</v>
+        <v>-4.4999999999999436E-2</v>
       </c>
       <c r="O27" s="11">
         <f t="shared" si="12"/>
-        <v>7.5000000000029765E-3</v>
+        <v>-4.4999999999999436E-2</v>
       </c>
       <c r="P27" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M3Y=</v>
       </c>
-      <c r="Q27" s="90" t="e">
+      <c r="Q27" s="90">
         <f>'1M Pricing'!H27*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R27" s="90" t="e">
+        <v>-3.2037612674177235E-2</v>
+      </c>
+      <c r="R27" s="90">
         <f t="shared" ref="R27:R39" si="22">Q27</f>
-        <v>#NUM!</v>
+        <v>-3.2037612674177235E-2</v>
       </c>
       <c r="S27" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5220,64 +5224,64 @@
       </c>
       <c r="T27" s="11">
         <f>'3M Pricing'!H27*100</f>
-        <v>0.1575000000104079</v>
+        <v>6.7499999989308779E-2</v>
       </c>
       <c r="U27" s="11">
         <f t="shared" si="20"/>
-        <v>0.1575000000104079</v>
+        <v>6.7499999989308779E-2</v>
       </c>
       <c r="V27" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M3Y=</v>
       </c>
-      <c r="W27" s="11" t="e">
+      <c r="W27" s="11">
         <f>'6M Pricing'!H27*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X27" s="11" t="e">
+        <v>0.15882204778771206</v>
+      </c>
+      <c r="X27" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.15882204778771206</v>
       </c>
       <c r="Y27" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z27" s="11">
-        <v>0.1575000000104079</v>
+        <v>1.2500000010691223E-2</v>
       </c>
       <c r="AA27" s="11">
-        <v>0.1575000000104079</v>
+        <v>1.2500000010691223E-2</v>
       </c>
       <c r="AB27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,BID)-N27)</f>
-        <v>7.5000000000029765E-3</v>
+        <v>7.4999999999994377E-3</v>
       </c>
       <c r="AC27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M27,ASK)-O27)</f>
-        <v>7.5000000000029765E-3</v>
-      </c>
-      <c r="AD27" s="91" t="e">
+        <v>7.4999999999994377E-3</v>
+      </c>
+      <c r="AD27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,BID)-Q27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE27" s="91" t="e">
+        <v>1.2495368674177235E-2</v>
+      </c>
+      <c r="AE27" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P27,ASK)-R27)</f>
-        <v>#NUM!</v>
+        <v>1.2495368674177235E-2</v>
       </c>
       <c r="AF27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,BID)-T27)</f>
-        <v>0.1575000000104079</v>
+        <v>1.2500000010691223E-2</v>
       </c>
       <c r="AG27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S27,ASK)-U27)</f>
-        <v>0.1575000000104079</v>
-      </c>
-      <c r="AH27" s="11" t="e">
+        <v>1.2500000010691223E-2</v>
+      </c>
+      <c r="AH27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,BID)-W27)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI27" s="11" t="e">
+        <v>1.4634603212287961E-2</v>
+      </c>
+      <c r="AI27" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V27,ASK)-X27)</f>
-        <v>#NUM!</v>
+        <v>1.4634603212287961E-2</v>
       </c>
       <c r="AJ27" s="33" t="s">
         <v>56</v>
@@ -5311,10 +5315,10 @@
         <v>SEK3M4Y=</v>
       </c>
       <c r="K28" s="11">
-        <v>0.29750000000783788</v>
+        <v>0.21500000000126918</v>
       </c>
       <c r="L28" s="11">
-        <v>0.29750000000783788</v>
+        <v>0.21500000000126918</v>
       </c>
       <c r="M28" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5322,23 +5326,23 @@
       </c>
       <c r="N28" s="11">
         <f>'ON Pricing'!H28*100</f>
-        <v>6.7500000000001725E-2</v>
+        <v>2.3750000009517241E-2</v>
       </c>
       <c r="O28" s="11">
         <f t="shared" si="12"/>
-        <v>6.7500000000001725E-2</v>
+        <v>2.3750000009517241E-2</v>
       </c>
       <c r="P28" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M4Y=</v>
       </c>
-      <c r="Q28" s="90" t="e">
+      <c r="Q28" s="90">
         <f>'1M Pricing'!H28*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R28" s="90" t="e">
+        <v>0.11270977705203478</v>
+      </c>
+      <c r="R28" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.11270977705203478</v>
       </c>
       <c r="S28" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5346,64 +5350,64 @@
       </c>
       <c r="T28" s="11">
         <f>'3M Pricing'!H28*100</f>
-        <v>0.29750000000783788</v>
+        <v>0.21500000000126918</v>
       </c>
       <c r="U28" s="11">
         <f t="shared" si="20"/>
-        <v>0.29750000000783788</v>
+        <v>0.21500000000126918</v>
       </c>
       <c r="V28" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M4Y=</v>
       </c>
-      <c r="W28" s="11" t="e">
+      <c r="W28" s="11">
         <f>'6M Pricing'!H28*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X28" s="11" t="e">
+        <v>0.30856076319858533</v>
+      </c>
+      <c r="X28" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.30856076319858533</v>
       </c>
       <c r="Y28" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z28" s="11">
-        <v>0.29750000000783788</v>
+        <v>1.4999999998730834E-2</v>
       </c>
       <c r="AA28" s="11">
-        <v>0.29750000000783788</v>
+        <v>1.4999999998730834E-2</v>
       </c>
       <c r="AB28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,BID)-N28)</f>
-        <v>6.7500000000001725E-2</v>
+        <v>6.2499999904827575E-3</v>
       </c>
       <c r="AC28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M28,ASK)-O28)</f>
-        <v>6.7500000000001725E-2</v>
-      </c>
-      <c r="AD28" s="91" t="e">
+        <v>6.2499999904827575E-3</v>
+      </c>
+      <c r="AD28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,BID)-Q28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE28" s="91" t="e">
+        <v>1.4995898947965242E-2</v>
+      </c>
+      <c r="AE28" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P28,ASK)-R28)</f>
-        <v>#NUM!</v>
+        <v>1.4995898947965242E-2</v>
       </c>
       <c r="AF28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,BID)-T28)</f>
-        <v>0.29750000000783788</v>
+        <v>1.4999999998730834E-2</v>
       </c>
       <c r="AG28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S28,ASK)-U28)</f>
-        <v>0.29750000000783788</v>
-      </c>
-      <c r="AH28" s="11" t="e">
+        <v>1.4999999998730834E-2</v>
+      </c>
+      <c r="AH28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,BID)-W28)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI28" s="11" t="e">
+        <v>1.6626917801414676E-2</v>
+      </c>
+      <c r="AI28" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V28,ASK)-X28)</f>
-        <v>#NUM!</v>
+        <v>1.6626917801414676E-2</v>
       </c>
       <c r="AJ28" s="33" t="s">
         <v>56</v>
@@ -5437,10 +5441,10 @@
         <v>SEK3M5Y=</v>
       </c>
       <c r="K29" s="11">
-        <v>0.45250000000804619</v>
+        <v>0.36500000000124277</v>
       </c>
       <c r="L29" s="11">
-        <v>0.45250000000804619</v>
+        <v>0.36500000000124277</v>
       </c>
       <c r="M29" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5448,23 +5452,23 @@
       </c>
       <c r="N29" s="11">
         <f>'ON Pricing'!H29*100</f>
-        <v>0.13999999999999563</v>
+        <v>9.5000000000941387E-2</v>
       </c>
       <c r="O29" s="11">
         <f t="shared" si="12"/>
-        <v>0.13999999999999563</v>
+        <v>9.5000000000941387E-2</v>
       </c>
       <c r="P29" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M5Y=</v>
       </c>
-      <c r="Q29" s="90" t="e">
+      <c r="Q29" s="90">
         <f>'1M Pricing'!H29*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R29" s="90" t="e">
+        <v>0.262125719465582</v>
+      </c>
+      <c r="R29" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.262125719465582</v>
       </c>
       <c r="S29" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5472,64 +5476,64 @@
       </c>
       <c r="T29" s="11">
         <f>'3M Pricing'!H29*100</f>
-        <v>0.45250000000804619</v>
+        <v>0.36500000000124277</v>
       </c>
       <c r="U29" s="11">
         <f t="shared" si="20"/>
-        <v>0.45250000000804619</v>
+        <v>0.36500000000124277</v>
       </c>
       <c r="V29" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M5Y=</v>
       </c>
-      <c r="W29" s="11" t="e">
+      <c r="W29" s="11">
         <f>'6M Pricing'!H29*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X29" s="11" t="e">
+        <v>0.45994495849480627</v>
+      </c>
+      <c r="X29" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.45994495849480627</v>
       </c>
       <c r="Y29" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z29" s="11">
-        <v>0.45250000000804619</v>
+        <v>1.7499999998757232E-2</v>
       </c>
       <c r="AA29" s="11">
-        <v>0.45250000000804619</v>
+        <v>1.7499999998757232E-2</v>
       </c>
       <c r="AB29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,BID)-N29)</f>
-        <v>0.13999999999999563</v>
+        <v>9.9999999990586091E-3</v>
       </c>
       <c r="AC29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M29,ASK)-O29)</f>
-        <v>0.13999999999999563</v>
-      </c>
-      <c r="AD29" s="91" t="e">
+        <v>9.9999999990586091E-3</v>
+      </c>
+      <c r="AD29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,BID)-Q29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE29" s="91" t="e">
+        <v>1.7493939534418024E-2</v>
+      </c>
+      <c r="AE29" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P29,ASK)-R29)</f>
-        <v>#NUM!</v>
+        <v>1.7493939534418024E-2</v>
       </c>
       <c r="AF29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,BID)-T29)</f>
-        <v>0.45250000000804619</v>
+        <v>1.7499999998757232E-2</v>
       </c>
       <c r="AG29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S29,ASK)-U29)</f>
-        <v>0.45250000000804619</v>
-      </c>
-      <c r="AH29" s="11" t="e">
+        <v>1.7499999998757232E-2</v>
+      </c>
+      <c r="AH29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,BID)-W29)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI29" s="11" t="e">
+        <v>1.8824920505193743E-2</v>
+      </c>
+      <c r="AI29" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V29,ASK)-X29)</f>
-        <v>#NUM!</v>
+        <v>1.8824920505193743E-2</v>
       </c>
       <c r="AJ29" s="33" t="s">
         <v>56</v>
@@ -5563,10 +5567,10 @@
         <v>SEK3M6Y=</v>
       </c>
       <c r="K30" s="11">
-        <v>0.60000000000746323</v>
+        <v>0.50500000000097667</v>
       </c>
       <c r="L30" s="11">
-        <v>0.60000000000746323</v>
+        <v>0.50500000000097667</v>
       </c>
       <c r="M30" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5574,23 +5578,23 @@
       </c>
       <c r="N30" s="11">
         <f>'ON Pricing'!H30*100</f>
-        <v>0.21375000000000219</v>
+        <v>0.16375000000039086</v>
       </c>
       <c r="O30" s="11">
         <f t="shared" si="12"/>
-        <v>0.21375000000000219</v>
+        <v>0.16375000000039086</v>
       </c>
       <c r="P30" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M6Y=</v>
       </c>
-      <c r="Q30" s="90" t="e">
+      <c r="Q30" s="90">
         <f>'1M Pricing'!H30*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R30" s="90" t="e">
+        <v>0.40180681344880159</v>
+      </c>
+      <c r="R30" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.40180681344880159</v>
       </c>
       <c r="S30" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5598,64 +5602,64 @@
       </c>
       <c r="T30" s="11">
         <f>'3M Pricing'!H30*100</f>
-        <v>0.60000000000746323</v>
+        <v>0.50500000000097667</v>
       </c>
       <c r="U30" s="11">
         <f t="shared" si="20"/>
-        <v>0.60000000000746323</v>
+        <v>0.50500000000097667</v>
       </c>
       <c r="V30" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M6Y=</v>
       </c>
-      <c r="W30" s="11" t="e">
+      <c r="W30" s="11">
         <f>'6M Pricing'!H30*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X30" s="11" t="e">
+        <v>0.60066344015783124</v>
+      </c>
+      <c r="X30" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.60066344015783124</v>
       </c>
       <c r="Y30" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z30" s="11">
-        <v>0.60000000000746323</v>
+        <v>2.4999999999023359E-2</v>
       </c>
       <c r="AA30" s="11">
-        <v>0.60000000000746323</v>
+        <v>2.4999999999023359E-2</v>
       </c>
       <c r="AB30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,BID)-N30)</f>
-        <v>0.21375000000000219</v>
+        <v>1.3749999999609158E-2</v>
       </c>
       <c r="AC30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M30,ASK)-O30)</f>
-        <v>0.21375000000000219</v>
-      </c>
-      <c r="AD30" s="91" t="e">
+        <v>1.3749999999609158E-2</v>
+      </c>
+      <c r="AD30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,BID)-Q30)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE30" s="91" t="e">
+        <v>2.509402555119844E-2</v>
+      </c>
+      <c r="AE30" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P30,ASK)-R30)</f>
-        <v>#NUM!</v>
+        <v>2.509402555119844E-2</v>
       </c>
       <c r="AF30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,BID)-T30)</f>
-        <v>0.60000000000746323</v>
+        <v>2.4999999999023359E-2</v>
       </c>
       <c r="AG30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S30,ASK)-U30)</f>
-        <v>0.60000000000746323</v>
-      </c>
-      <c r="AH30" s="11" t="e">
+        <v>2.4999999999023359E-2</v>
+      </c>
+      <c r="AH30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,BID)-W30)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI30" s="11" t="e">
+        <v>2.6021468842168827E-2</v>
+      </c>
+      <c r="AI30" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V30,ASK)-X30)</f>
-        <v>#NUM!</v>
+        <v>2.6021468842168827E-2</v>
       </c>
       <c r="AJ30" s="33" t="s">
         <v>56</v>
@@ -5689,10 +5693,10 @@
         <v>SEK3M7Y=</v>
       </c>
       <c r="K31" s="11">
-        <v>0.73500000000693921</v>
+        <v>0.62750000000087758</v>
       </c>
       <c r="L31" s="11">
-        <v>0.73500000000693921</v>
+        <v>0.62750000000087758</v>
       </c>
       <c r="M31" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5700,23 +5704,23 @@
       </c>
       <c r="N31" s="11">
         <f>'ON Pricing'!H31*100</f>
-        <v>0.2812499999999955</v>
+        <v>0.22500000000067044</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" si="12"/>
-        <v>0.2812499999999955</v>
+        <v>0.22500000000067044</v>
       </c>
       <c r="P31" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M7Y=</v>
       </c>
-      <c r="Q31" s="90" t="e">
+      <c r="Q31" s="90">
         <f>'1M Pricing'!H31*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R31" s="90" t="e">
+        <v>0.52429125738546822</v>
+      </c>
+      <c r="R31" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.52429125738546822</v>
       </c>
       <c r="S31" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5724,64 +5728,64 @@
       </c>
       <c r="T31" s="11">
         <f>'3M Pricing'!H31*100</f>
-        <v>0.73500000000693921</v>
+        <v>0.62750000000087758</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" si="20"/>
-        <v>0.73500000000693921</v>
+        <v>0.62750000000087758</v>
       </c>
       <c r="V31" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M7Y=</v>
       </c>
-      <c r="W31" s="11" t="e">
+      <c r="W31" s="11">
         <f>'6M Pricing'!H31*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X31" s="11" t="e">
+        <v>0.72357920977970636</v>
+      </c>
+      <c r="X31" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.72357920977970636</v>
       </c>
       <c r="Y31" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z31" s="11">
-        <v>0.73500000000693921</v>
+        <v>2.4999999999122502E-2</v>
       </c>
       <c r="AA31" s="11">
-        <v>0.73500000000693921</v>
+        <v>2.4999999999122502E-2</v>
       </c>
       <c r="AB31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,BID)-N31)</f>
-        <v>0.2812499999999955</v>
+        <v>1.3749999999329576E-2</v>
       </c>
       <c r="AC31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M31,ASK)-O31)</f>
-        <v>0.2812499999999955</v>
-      </c>
-      <c r="AD31" s="91" t="e">
+        <v>1.3749999999329576E-2</v>
+      </c>
+      <c r="AD31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,BID)-Q31)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE31" s="91" t="e">
+        <v>2.4992864614531762E-2</v>
+      </c>
+      <c r="AE31" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P31,ASK)-R31)</f>
-        <v>#NUM!</v>
+        <v>2.4992864614531762E-2</v>
       </c>
       <c r="AF31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,BID)-T31)</f>
-        <v>0.73500000000693921</v>
+        <v>2.4999999999122502E-2</v>
       </c>
       <c r="AG31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S31,ASK)-U31)</f>
-        <v>0.73500000000693921</v>
-      </c>
-      <c r="AH31" s="11" t="e">
+        <v>2.4999999999122502E-2</v>
+      </c>
+      <c r="AH31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,BID)-W31)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI31" s="11" t="e">
+        <v>2.5919651220293716E-2</v>
+      </c>
+      <c r="AI31" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V31,ASK)-X31)</f>
-        <v>#NUM!</v>
+        <v>2.5919651220293716E-2</v>
       </c>
       <c r="AJ31" s="33" t="s">
         <v>56</v>
@@ -5815,10 +5819,10 @@
         <v>SEK3M8Y=</v>
       </c>
       <c r="K32" s="11">
-        <v>0.84750000000619208</v>
+        <v>0.7325000000007581</v>
       </c>
       <c r="L32" s="11">
-        <v>0.84750000000619208</v>
+        <v>0.7325000000007581</v>
       </c>
       <c r="M32" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5826,23 +5830,23 @@
       </c>
       <c r="N32" s="11">
         <f>'ON Pricing'!H32*100</f>
-        <v>0.33750000000000718</v>
+        <v>0.27875000000133238</v>
       </c>
       <c r="O32" s="11">
         <f t="shared" si="12"/>
-        <v>0.33750000000000718</v>
+        <v>0.27875000000133238</v>
       </c>
       <c r="P32" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M8Y=</v>
       </c>
-      <c r="Q32" s="90" t="e">
+      <c r="Q32" s="90">
         <f>'1M Pricing'!H32*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R32" s="90" t="e">
+        <v>0.62917539919121301</v>
+      </c>
+      <c r="R32" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.62917539919121301</v>
       </c>
       <c r="S32" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5850,64 +5854,64 @@
       </c>
       <c r="T32" s="11">
         <f>'3M Pricing'!H32*100</f>
-        <v>0.84750000000619208</v>
+        <v>0.7325000000007581</v>
       </c>
       <c r="U32" s="11">
         <f t="shared" si="20"/>
-        <v>0.84750000000619208</v>
+        <v>0.7325000000007581</v>
       </c>
       <c r="V32" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M8Y=</v>
       </c>
-      <c r="W32" s="11" t="e">
+      <c r="W32" s="11">
         <f>'6M Pricing'!H32*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X32" s="11" t="e">
+        <v>0.8288928587255483</v>
+      </c>
+      <c r="X32" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.8288928587255483</v>
       </c>
       <c r="Y32" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z32" s="11">
-        <v>0.84750000000619208</v>
+        <v>2.4999999999241962E-2</v>
       </c>
       <c r="AA32" s="11">
-        <v>0.84750000000619208</v>
+        <v>2.4999999999241962E-2</v>
       </c>
       <c r="AB32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,BID)-N32)</f>
-        <v>0.33750000000000718</v>
+        <v>1.2499999998667632E-2</v>
       </c>
       <c r="AC32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M32,ASK)-O32)</f>
-        <v>0.33750000000000718</v>
-      </c>
-      <c r="AD32" s="91" t="e">
+        <v>1.2499999998667632E-2</v>
+      </c>
+      <c r="AD32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,BID)-Q32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE32" s="91" t="e">
+        <v>2.5094973808787002E-2</v>
+      </c>
+      <c r="AE32" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P32,ASK)-R32)</f>
-        <v>#NUM!</v>
+        <v>2.5094973808787002E-2</v>
       </c>
       <c r="AF32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,BID)-T32)</f>
-        <v>0.84750000000619208</v>
+        <v>2.4999999999241962E-2</v>
       </c>
       <c r="AG32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S32,ASK)-U32)</f>
-        <v>0.84750000000619208</v>
-      </c>
-      <c r="AH32" s="11" t="e">
+        <v>2.4999999999241962E-2</v>
+      </c>
+      <c r="AH32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,BID)-W32)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI32" s="11" t="e">
+        <v>2.5817788274451803E-2</v>
+      </c>
+      <c r="AI32" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V32,ASK)-X32)</f>
-        <v>#NUM!</v>
+        <v>2.5817788274451803E-2</v>
       </c>
       <c r="AJ32" s="33" t="s">
         <v>56</v>
@@ -5941,10 +5945,10 @@
         <v>SEK3M9Y=</v>
       </c>
       <c r="K33" s="11">
-        <v>0.94250000000547562</v>
+        <v>0.82000000000067386</v>
       </c>
       <c r="L33" s="11">
-        <v>0.94250000000547562</v>
+        <v>0.82000000000067386</v>
       </c>
       <c r="M33" s="10" t="str">
         <f t="shared" si="15"/>
@@ -5952,23 +5956,23 @@
       </c>
       <c r="N33" s="11">
         <f>'ON Pricing'!H33*100</f>
-        <v>0.38500000000000167</v>
+        <v>0.32250000000310963</v>
       </c>
       <c r="O33" s="11">
         <f t="shared" si="12"/>
-        <v>0.38500000000000167</v>
+        <v>0.32250000000310963</v>
       </c>
       <c r="P33" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M9Y=</v>
       </c>
-      <c r="Q33" s="90" t="e">
+      <c r="Q33" s="90">
         <f>'1M Pricing'!H33*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R33" s="90" t="e">
+        <v>0.71673290638369691</v>
+      </c>
+      <c r="R33" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.71673290638369691</v>
       </c>
       <c r="S33" s="10" t="str">
         <f t="shared" si="18"/>
@@ -5976,64 +5980,64 @@
       </c>
       <c r="T33" s="11">
         <f>'3M Pricing'!H33*100</f>
-        <v>0.94250000000547562</v>
+        <v>0.82000000000067386</v>
       </c>
       <c r="U33" s="11">
         <f t="shared" si="20"/>
-        <v>0.94250000000547562</v>
+        <v>0.82000000000067386</v>
       </c>
       <c r="V33" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M9Y=</v>
       </c>
-      <c r="W33" s="11" t="e">
+      <c r="W33" s="11">
         <f>'6M Pricing'!H33*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X33" s="11" t="e">
+        <v>0.91663376432828592</v>
+      </c>
+      <c r="X33" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.91663376432828592</v>
       </c>
       <c r="Y33" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z33" s="11">
-        <v>0.94250000000547562</v>
+        <v>2.7499999999326175E-2</v>
       </c>
       <c r="AA33" s="11">
-        <v>0.94250000000547562</v>
+        <v>2.7499999999326175E-2</v>
       </c>
       <c r="AB33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,BID)-N33)</f>
-        <v>0.38500000000000167</v>
+        <v>1.3749999996890416E-2</v>
       </c>
       <c r="AC33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M33,ASK)-O33)</f>
-        <v>0.38500000000000167</v>
-      </c>
-      <c r="AD33" s="91" t="e">
+        <v>1.3749999996890416E-2</v>
+      </c>
+      <c r="AD33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,BID)-Q33)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE33" s="91" t="e">
+        <v>2.7492880616303172E-2</v>
+      </c>
+      <c r="AE33" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P33,ASK)-R33)</f>
-        <v>#NUM!</v>
+        <v>2.7492880616303172E-2</v>
       </c>
       <c r="AF33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,BID)-T33)</f>
-        <v>0.94250000000547562</v>
+        <v>2.7499999999326175E-2</v>
       </c>
       <c r="AG33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S33,ASK)-U33)</f>
-        <v>0.94250000000547562</v>
-      </c>
-      <c r="AH33" s="11" t="e">
+        <v>2.7499999999326175E-2</v>
+      </c>
+      <c r="AH33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,BID)-W33)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI33" s="11" t="e">
+        <v>2.8216865671714109E-2</v>
+      </c>
+      <c r="AI33" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V33,ASK)-X33)</f>
-        <v>#NUM!</v>
+        <v>2.8216865671714109E-2</v>
       </c>
       <c r="AJ33" s="33" t="s">
         <v>56</v>
@@ -6067,10 +6071,10 @@
         <v>SEK3M10Y=</v>
       </c>
       <c r="K34" s="11">
-        <v>1.0225000000033693</v>
+        <v>0.89500000000058522</v>
       </c>
       <c r="L34" s="11">
-        <v>1.0225000000033693</v>
+        <v>0.89500000000058522</v>
       </c>
       <c r="M34" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6078,23 +6082,23 @@
       </c>
       <c r="N34" s="11">
         <f>'ON Pricing'!H34*100</f>
-        <v>0.42499999999999793</v>
+        <v>0.36000000000353177</v>
       </c>
       <c r="O34" s="11">
         <f t="shared" si="12"/>
-        <v>0.42499999999999793</v>
+        <v>0.36000000000353177</v>
       </c>
       <c r="P34" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M10Y=</v>
       </c>
-      <c r="Q34" s="90" t="e">
+      <c r="Q34" s="90">
         <f>'1M Pricing'!H34*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R34" s="90" t="e">
+        <v>0.79172464384677022</v>
+      </c>
+      <c r="R34" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.79172464384677022</v>
       </c>
       <c r="S34" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6102,64 +6106,64 @@
       </c>
       <c r="T34" s="11">
         <f>'3M Pricing'!H34*100</f>
-        <v>1.0225000000033693</v>
+        <v>0.89500000000058522</v>
       </c>
       <c r="U34" s="11">
         <f t="shared" si="20"/>
-        <v>1.0225000000033693</v>
+        <v>0.89500000000058522</v>
       </c>
       <c r="V34" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M10Y=</v>
       </c>
-      <c r="W34" s="11" t="e">
+      <c r="W34" s="11">
         <f>'6M Pricing'!H34*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X34" s="11" t="e">
+        <v>0.99123199980293353</v>
+      </c>
+      <c r="X34" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>0.99123199980293353</v>
       </c>
       <c r="Y34" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z34" s="11">
-        <v>1.0225000000033693</v>
+        <v>2.4999999999414824E-2</v>
       </c>
       <c r="AA34" s="11">
-        <v>1.0225000000033693</v>
+        <v>2.4999999999414824E-2</v>
       </c>
       <c r="AB34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,BID)-N34)</f>
-        <v>0.42499999999999793</v>
+        <v>1.2499999996468225E-2</v>
       </c>
       <c r="AC34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M34,ASK)-O34)</f>
-        <v>0.42499999999999793</v>
-      </c>
-      <c r="AD34" s="91" t="e">
+        <v>1.2499999996468225E-2</v>
+      </c>
+      <c r="AD34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,BID)-Q34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE34" s="91" t="e">
+        <v>2.4993665153229871E-2</v>
+      </c>
+      <c r="AE34" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P34,ASK)-R34)</f>
-        <v>#NUM!</v>
+        <v>2.4993665153229871E-2</v>
       </c>
       <c r="AF34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,BID)-T34)</f>
-        <v>1.0225000000033693</v>
+        <v>2.4999999999414824E-2</v>
       </c>
       <c r="AG34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S34,ASK)-U34)</f>
-        <v>1.0225000000033693</v>
-      </c>
-      <c r="AH34" s="11" t="e">
+        <v>2.4999999999414824E-2</v>
+      </c>
+      <c r="AH34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,BID)-W34)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI34" s="11" t="e">
+        <v>2.571625019706647E-2</v>
+      </c>
+      <c r="AI34" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V34,ASK)-X34)</f>
-        <v>#NUM!</v>
+        <v>2.571625019706647E-2</v>
       </c>
       <c r="AJ34" s="33" t="s">
         <v>56</v>
@@ -6193,10 +6197,10 @@
         <v>SEK3M12Y=</v>
       </c>
       <c r="K35" s="11">
-        <v>1.1525000000047205</v>
+        <v>1.0175000000005168</v>
       </c>
       <c r="L35" s="11">
-        <v>1.1525000000047205</v>
+        <v>1.0175000000005168</v>
       </c>
       <c r="M35" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6204,23 +6208,23 @@
       </c>
       <c r="N35" s="11">
         <f>'ON Pricing'!H35*100</f>
-        <v>0.49124999999877117</v>
+        <v>0.42250000000587323</v>
       </c>
       <c r="O35" s="11">
         <f t="shared" si="12"/>
-        <v>0.49124999999877117</v>
+        <v>0.42250000000587323</v>
       </c>
       <c r="P35" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M12Y=</v>
       </c>
-      <c r="Q35" s="90" t="e">
+      <c r="Q35" s="90">
         <f>'1M Pricing'!H35*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R35" s="90" t="e">
+        <v>0.91431103235379041</v>
+      </c>
+      <c r="R35" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>0.91431103235379041</v>
       </c>
       <c r="S35" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6228,64 +6232,64 @@
       </c>
       <c r="T35" s="11">
         <f>'3M Pricing'!H35*100</f>
-        <v>1.1525000000047205</v>
+        <v>1.0175000000005168</v>
       </c>
       <c r="U35" s="11">
         <f t="shared" si="20"/>
-        <v>1.1525000000047205</v>
+        <v>1.0175000000005168</v>
       </c>
       <c r="V35" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M12Y=</v>
       </c>
-      <c r="W35" s="11" t="e">
+      <c r="W35" s="11">
         <f>'6M Pricing'!H35*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X35" s="11" t="e">
+        <v>1.1114037811975774</v>
+      </c>
+      <c r="X35" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>1.1114037811975774</v>
       </c>
       <c r="Y35" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z35" s="11">
-        <v>1.1525000000047205</v>
+        <v>2.749999999948316E-2</v>
       </c>
       <c r="AA35" s="11">
-        <v>1.1525000000047205</v>
+        <v>2.749999999948316E-2</v>
       </c>
       <c r="AB35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,BID)-N35)</f>
-        <v>0.49124999999877117</v>
+        <v>1.2499999994126765E-2</v>
       </c>
       <c r="AC35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M35,ASK)-O35)</f>
-        <v>0.49124999999877117</v>
-      </c>
-      <c r="AD35" s="91" t="e">
+        <v>1.2499999994126765E-2</v>
+      </c>
+      <c r="AD35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,BID)-Q35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE35" s="91" t="e">
+        <v>2.74935556462097E-2</v>
+      </c>
+      <c r="AE35" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P35,ASK)-R35)</f>
-        <v>#NUM!</v>
+        <v>2.74935556462097E-2</v>
       </c>
       <c r="AF35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,BID)-T35)</f>
-        <v>1.1525000000047205</v>
+        <v>2.749999999948316E-2</v>
       </c>
       <c r="AG35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S35,ASK)-U35)</f>
-        <v>1.1525000000047205</v>
-      </c>
-      <c r="AH35" s="11" t="e">
+        <v>2.749999999948316E-2</v>
+      </c>
+      <c r="AH35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,BID)-W35)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI35" s="11" t="e">
+        <v>2.8114665802422723E-2</v>
+      </c>
+      <c r="AI35" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V35,ASK)-X35)</f>
-        <v>#NUM!</v>
+        <v>2.8114665802422723E-2</v>
       </c>
       <c r="AJ35" s="33" t="s">
         <v>56</v>
@@ -6319,10 +6323,10 @@
         <v>SEK3M15Y=</v>
       </c>
       <c r="K36" s="11">
-        <v>1.292500000004571</v>
+        <v>1.1549999999989691</v>
       </c>
       <c r="L36" s="11">
-        <v>1.292500000004571</v>
+        <v>1.1549999999989691</v>
       </c>
       <c r="M36" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6330,23 +6334,23 @@
       </c>
       <c r="N36" s="11">
         <f>'ON Pricing'!H36*100</f>
-        <v>0.56250000000002276</v>
+        <v>0.49250000000551464</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="12"/>
-        <v>0.56250000000002276</v>
+        <v>0.49250000000551464</v>
       </c>
       <c r="P36" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M15Y=</v>
       </c>
-      <c r="Q36" s="90" t="e">
+      <c r="Q36" s="90">
         <f>'1M Pricing'!H36*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R36" s="90" t="e">
+        <v>1.0539096029397896</v>
+      </c>
+      <c r="R36" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>1.0539096029397896</v>
       </c>
       <c r="S36" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6354,64 +6358,64 @@
       </c>
       <c r="T36" s="11">
         <f>'3M Pricing'!H36*100</f>
-        <v>1.292500000004571</v>
+        <v>1.1549999999989691</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="20"/>
-        <v>1.292500000004571</v>
+        <v>1.1549999999989691</v>
       </c>
       <c r="V36" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M15Y=</v>
       </c>
-      <c r="W36" s="11" t="e">
+      <c r="W36" s="11">
         <f>'6M Pricing'!H36*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X36" s="11" t="e">
+        <v>1.2422226574754835</v>
+      </c>
+      <c r="X36" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>1.2422226574754835</v>
       </c>
       <c r="Y36" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z36" s="11">
-        <v>1.292500000004571</v>
+        <v>3.000000000103098E-2</v>
       </c>
       <c r="AA36" s="11">
-        <v>1.292500000004571</v>
+        <v>3.000000000103098E-2</v>
       </c>
       <c r="AB36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,BID)-N36)</f>
-        <v>0.56250000000002276</v>
+        <v>1.4999999994485425E-2</v>
       </c>
       <c r="AC36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M36,ASK)-O36)</f>
-        <v>0.56250000000002276</v>
-      </c>
-      <c r="AD36" s="91" t="e">
+        <v>1.4999999994485425E-2</v>
+      </c>
+      <c r="AD36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,BID)-Q36)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE36" s="91" t="e">
+        <v>2.9992596060210541E-2</v>
+      </c>
+      <c r="AE36" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P36,ASK)-R36)</f>
-        <v>#NUM!</v>
+        <v>2.9992596060210541E-2</v>
       </c>
       <c r="AF36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,BID)-T36)</f>
-        <v>1.292500000004571</v>
+        <v>3.000000000103098E-2</v>
       </c>
       <c r="AG36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S36,ASK)-U36)</f>
-        <v>1.292500000004571</v>
-      </c>
-      <c r="AH36" s="11" t="e">
+        <v>3.000000000103098E-2</v>
+      </c>
+      <c r="AH36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,BID)-W36)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI36" s="11" t="e">
+        <v>3.0513603524516597E-2</v>
+      </c>
+      <c r="AI36" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V36,ASK)-X36)</f>
-        <v>#NUM!</v>
+        <v>3.0513603524516597E-2</v>
       </c>
       <c r="AJ36" s="33" t="s">
         <v>56</v>
@@ -6445,10 +6449,10 @@
         <v>SEK3M20Y=</v>
       </c>
       <c r="K37" s="11">
-        <v>1.4674999999925105</v>
+        <v>1.3100000000004361</v>
       </c>
       <c r="L37" s="11">
-        <v>1.4674999999925105</v>
+        <v>1.3100000000004361</v>
       </c>
       <c r="M37" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6456,23 +6460,23 @@
       </c>
       <c r="N37" s="11">
         <f>'ON Pricing'!H37*100</f>
-        <v>0.65750000000251518</v>
+        <v>0.57749999999802648</v>
       </c>
       <c r="O37" s="11">
         <f t="shared" si="12"/>
-        <v>0.65750000000251518</v>
+        <v>0.57749999999802648</v>
       </c>
       <c r="P37" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M20Y=</v>
       </c>
-      <c r="Q37" s="90" t="e">
+      <c r="Q37" s="90">
         <f>'1M Pricing'!H37*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R37" s="90" t="e">
+        <v>1.2141657616593624</v>
+      </c>
+      <c r="R37" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>1.2141657616593624</v>
       </c>
       <c r="S37" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6480,64 +6484,64 @@
       </c>
       <c r="T37" s="11">
         <f>'3M Pricing'!H37*100</f>
-        <v>1.4674999999925105</v>
+        <v>1.3100000000004361</v>
       </c>
       <c r="U37" s="11">
         <f t="shared" si="20"/>
-        <v>1.4674999999925105</v>
+        <v>1.3100000000004361</v>
       </c>
       <c r="V37" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M20Y=</v>
       </c>
-      <c r="W37" s="11" t="e">
+      <c r="W37" s="11">
         <f>'6M Pricing'!H37*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X37" s="11" t="e">
+        <v>1.3870773285585209</v>
+      </c>
+      <c r="X37" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>1.3870773285585209</v>
       </c>
       <c r="Y37" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z37" s="11">
-        <v>1.4674999999925105</v>
+        <v>3.4999999999563824E-2</v>
       </c>
       <c r="AA37" s="11">
-        <v>1.4674999999925105</v>
+        <v>3.4999999999563824E-2</v>
       </c>
       <c r="AB37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,BID)-N37)</f>
-        <v>0.65750000000251518</v>
+        <v>1.6250000001973519E-2</v>
       </c>
       <c r="AC37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M37,ASK)-O37)</f>
-        <v>0.65750000000251518</v>
-      </c>
-      <c r="AD37" s="91" t="e">
+        <v>1.6250000001973519E-2</v>
+      </c>
+      <c r="AD37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,BID)-Q37)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE37" s="91" t="e">
+        <v>3.5094256340637564E-2</v>
+      </c>
+      <c r="AE37" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P37,ASK)-R37)</f>
-        <v>#NUM!</v>
+        <v>3.5094256340637564E-2</v>
       </c>
       <c r="AF37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,BID)-T37)</f>
-        <v>1.4674999999925105</v>
+        <v>3.4999999999563824E-2</v>
       </c>
       <c r="AG37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S37,ASK)-U37)</f>
-        <v>1.4674999999925105</v>
-      </c>
-      <c r="AH37" s="11" t="e">
+        <v>3.4999999999563824E-2</v>
+      </c>
+      <c r="AH37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,BID)-W37)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI37" s="11" t="e">
+        <v>3.5310039441479146E-2</v>
+      </c>
+      <c r="AI37" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V37,ASK)-X37)</f>
-        <v>#NUM!</v>
+        <v>3.5310039441479146E-2</v>
       </c>
       <c r="AJ37" s="33" t="s">
         <v>56</v>
@@ -6571,10 +6575,10 @@
         <v>SEK3M25Y=</v>
       </c>
       <c r="K38" s="11">
-        <v>1.542500000004283</v>
+        <v>1.385000000000296</v>
       </c>
       <c r="L38" s="11">
-        <v>1.542500000004283</v>
+        <v>1.385000000000296</v>
       </c>
       <c r="M38" s="10" t="str">
         <f t="shared" si="15"/>
@@ -6582,23 +6586,23 @@
       </c>
       <c r="N38" s="11">
         <f>'ON Pricing'!H38*100</f>
-        <v>0.70250000000042123</v>
+        <v>0.62124999999970199</v>
       </c>
       <c r="O38" s="11">
         <f t="shared" si="12"/>
-        <v>0.70250000000042123</v>
+        <v>0.62124999999970199</v>
       </c>
       <c r="P38" s="89" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M25Y=</v>
       </c>
-      <c r="Q38" s="90" t="e">
+      <c r="Q38" s="90">
         <f>'1M Pricing'!H38*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R38" s="90" t="e">
+        <v>1.2937192639630541</v>
+      </c>
+      <c r="R38" s="90">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>1.2937192639630541</v>
       </c>
       <c r="S38" s="10" t="str">
         <f t="shared" si="18"/>
@@ -6606,64 +6610,64 @@
       </c>
       <c r="T38" s="11">
         <f>'3M Pricing'!H38*100</f>
-        <v>1.542500000004283</v>
+        <v>1.385000000000296</v>
       </c>
       <c r="U38" s="11">
         <f t="shared" si="20"/>
-        <v>1.542500000004283</v>
+        <v>1.385000000000296</v>
       </c>
       <c r="V38" s="10" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M25Y=</v>
       </c>
-      <c r="W38" s="11" t="e">
+      <c r="W38" s="11">
         <f>'6M Pricing'!H38*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X38" s="11" t="e">
+        <v>1.4545688348535903</v>
+      </c>
+      <c r="X38" s="11">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>1.4545688348535903</v>
       </c>
       <c r="Y38" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z38" s="11">
-        <v>1.542500000004283</v>
+        <v>3.4999999999703935E-2</v>
       </c>
       <c r="AA38" s="11">
-        <v>1.542500000004283</v>
+        <v>3.4999999999703935E-2</v>
       </c>
       <c r="AB38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,BID)-N38)</f>
-        <v>0.70250000000042123</v>
+        <v>1.7500000000298055E-2</v>
       </c>
       <c r="AC38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$M38,ASK)-O38)</f>
-        <v>0.70250000000042123</v>
-      </c>
-      <c r="AD38" s="91" t="e">
+        <v>1.7500000000298055E-2</v>
+      </c>
+      <c r="AD38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,BID)-Q38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE38" s="91" t="e">
+        <v>3.4992421036945887E-2</v>
+      </c>
+      <c r="AE38" s="91">
         <f>ABS(_xll.RtGet(SourceAlias,$P38,ASK)-R38)</f>
-        <v>#NUM!</v>
+        <v>3.4992421036945887E-2</v>
       </c>
       <c r="AF38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,BID)-T38)</f>
-        <v>1.542500000004283</v>
+        <v>3.4999999999703935E-2</v>
       </c>
       <c r="AG38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$S38,ASK)-U38)</f>
-        <v>1.542500000004283</v>
-      </c>
-      <c r="AH38" s="11" t="e">
+        <v>3.4999999999703935E-2</v>
+      </c>
+      <c r="AH38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,BID)-W38)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI38" s="11" t="e">
+        <v>3.5309899146409807E-2</v>
+      </c>
+      <c r="AI38" s="11">
         <f>ABS(_xll.RtGet(SourceAlias,$V38,ASK)-X38)</f>
-        <v>#NUM!</v>
+        <v>3.5309899146409807E-2</v>
       </c>
       <c r="AJ38" s="33" t="s">
         <v>56</v>
@@ -6697,10 +6701,10 @@
         <v>SEK3M30Y=</v>
       </c>
       <c r="K39" s="13">
-        <v>1.567500000000364</v>
+        <v>1.4100000000002075</v>
       </c>
       <c r="L39" s="13">
-        <v>1.567500000000364</v>
+        <v>1.4100000000002075</v>
       </c>
       <c r="M39" s="12" t="str">
         <f t="shared" si="15"/>
@@ -6708,23 +6712,23 @@
       </c>
       <c r="N39" s="13">
         <f>'ON Pricing'!H39*100</f>
-        <v>0.72000000000078568</v>
+        <v>0.63999999999958168</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="12"/>
-        <v>0.72000000000078568</v>
+        <v>0.63999999999958168</v>
       </c>
       <c r="P39" s="102" t="str">
         <f t="shared" si="16"/>
         <v>SEK1M30Y=</v>
       </c>
-      <c r="Q39" s="103" t="e">
+      <c r="Q39" s="103">
         <f>'1M Pricing'!H39*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="R39" s="103" t="e">
+        <v>1.3216662399604417</v>
+      </c>
+      <c r="R39" s="103">
         <f t="shared" si="22"/>
-        <v>#NUM!</v>
+        <v>1.3216662399604417</v>
       </c>
       <c r="S39" s="12" t="str">
         <f t="shared" si="18"/>
@@ -6732,64 +6736,64 @@
       </c>
       <c r="T39" s="13">
         <f>'3M Pricing'!H39*100</f>
-        <v>1.567500000000364</v>
+        <v>1.4100000000002075</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="20"/>
-        <v>1.567500000000364</v>
+        <v>1.4100000000002075</v>
       </c>
       <c r="V39" s="12" t="str">
         <f t="shared" si="19"/>
         <v>SEK6M30Y=</v>
       </c>
-      <c r="W39" s="13" t="e">
+      <c r="W39" s="13">
         <f>'6M Pricing'!H39*100</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="X39" s="13" t="e">
+        <v>1.4733665776958309</v>
+      </c>
+      <c r="X39" s="13">
         <f t="shared" si="21"/>
-        <v>#NUM!</v>
+        <v>1.4733665776958309</v>
       </c>
       <c r="Y39" s="67" t="s">
         <v>56</v>
       </c>
       <c r="Z39" s="13">
-        <v>1.567500000000364</v>
+        <v>3.499999999979253E-2</v>
       </c>
       <c r="AA39" s="13">
-        <v>1.567500000000364</v>
+        <v>3.499999999979253E-2</v>
       </c>
       <c r="AB39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,BID)-N39)</f>
-        <v>0.72000000000078568</v>
+        <v>1.6250000000418319E-2</v>
       </c>
       <c r="AC39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$M39,ASK)-O39)</f>
-        <v>0.72000000000078568</v>
-      </c>
-      <c r="AD39" s="104" t="e">
+        <v>1.6250000000418319E-2</v>
+      </c>
+      <c r="AD39" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,BID)-Q39)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AE39" s="104" t="e">
+        <v>3.4993224039558291E-2</v>
+      </c>
+      <c r="AE39" s="104">
         <f>ABS(_xll.RtGet(SourceAlias,$P39,ASK)-R39)</f>
-        <v>#NUM!</v>
+        <v>3.4993224039558291E-2</v>
       </c>
       <c r="AF39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,BID)-T39)</f>
-        <v>1.567500000000364</v>
+        <v>3.499999999979253E-2</v>
       </c>
       <c r="AG39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$S39,ASK)-U39)</f>
-        <v>1.567500000000364</v>
-      </c>
-      <c r="AH39" s="13" t="e">
+        <v>3.499999999979253E-2</v>
+      </c>
+      <c r="AH39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,BID)-W39)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI39" s="13" t="e">
+        <v>3.5309150304169146E-2</v>
+      </c>
+      <c r="AI39" s="13">
         <f>ABS(_xll.RtGet(SourceAlias,$V39,ASK)-X39)</f>
-        <v>#NUM!</v>
+        <v>3.5309150304169146E-2</v>
       </c>
       <c r="AJ39" s="33" t="s">
         <v>56</v>
@@ -7004,19 +7008,19 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E7" si="1">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>-4.7859120925699937E-4</v>
+        <v>-2.0716389393711679E-3</v>
       </c>
       <c r="I6" s="44" t="str">
         <f>Contribution!M6</f>
@@ -7026,7 +7030,7 @@
       <c r="K6" s="33"/>
       <c r="L6" s="123" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B18,H8:H18,,Trigger)</f>
-        <v>obj_0035d#0000</v>
+        <v>obj_0035c#0000</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="33"/>
@@ -7035,7 +7039,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="152">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="152" t="s">
         <v>73</v>
@@ -7045,19 +7049,19 @@
       </c>
       <c r="E7" s="154">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F7" s="154">
         <f>_xll.qlInterestRateIndexValueDate(OvernightIndex,E7,)</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="G7" s="154">
         <f>_xll.qlInterestRateIndexMaturity(OvernightIndex,F7)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="H7" s="155">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>-4.7925535941029552E-4</v>
+        <v>-2.0719513692053866E-3</v>
       </c>
       <c r="I7" s="156" t="str">
         <f>Contribution!M7</f>
@@ -7077,7 +7081,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -7087,26 +7091,26 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" ref="E8:E18" si="2">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E8,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F8,IF(C8="SN","1D",IF(C8="SW","1W",C8)),"f",FALSE)</f>
-        <v>42080</v>
+        <v>42089</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlOvernightIndexedSwapFairRate(L8,InterestRateTrigger)</f>
-        <v>-4.7943259070759581E-4</v>
+        <v>-2.072241501993588E-3</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="45"/>
       <c r="K8" s="51"/>
       <c r="L8" s="123" t="str">
         <f>_xll.qlMakeOIS(,IF(C8="SN","1D",IF(C8="SW","1W",C8)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00307#0000</v>
+        <v>obj_00309#0000</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
@@ -7144,7 +7148,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -7154,26 +7158,26 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E9,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F9,IF(C9="SN","1D",IF(C9="SW","1W",C9)),"f",FALSE)</f>
-        <v>42086</v>
+        <v>42095</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L9,InterestRateTrigger)</f>
-        <v>-4.8095957540628115E-4</v>
+        <v>-2.0747626953334019E-3</v>
       </c>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="51"/>
       <c r="L9" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C9="SN","1D",IF(C9="SW","1W",C9)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00312#0000</v>
+        <v>obj_00304#0000</v>
       </c>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
@@ -7231,7 +7235,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -7241,26 +7245,26 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F10,IF(C10="SN","1D",IF(C10="SW","1W",C10)),"f",FALSE)</f>
-        <v>42093</v>
+        <v>42102</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L10,InterestRateTrigger)</f>
-        <v>-4.8563953896296757E-4</v>
+        <v>-2.0825512720255646E-3</v>
       </c>
       <c r="I10" s="30"/>
       <c r="J10" s="30"/>
       <c r="K10" s="51"/>
       <c r="L10" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C10="SN","1D",IF(C10="SW","1W",C10)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030c#0000</v>
+        <v>obj_00306#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="33"/>
@@ -7318,7 +7322,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -7328,26 +7332,26 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E11,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F11,IF(C11="SN","1D",IF(C11="SW","1W",C11)),"f",FALSE)</f>
-        <v>42101</v>
+        <v>42109</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L11,InterestRateTrigger)</f>
-        <v>-4.9481013036741092E-4</v>
+        <v>-2.0955592828026631E-3</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="51"/>
       <c r="L11" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C11="SN","1D",IF(C11="SW","1W",C11)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00304#0000</v>
+        <v>obj_00312#0000</v>
       </c>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
@@ -7415,19 +7419,19 @@
       </c>
       <c r="E12" s="175">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E12,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G12" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F12,IF(C12="SN","1D",IF(C12="SW","1W",C12)),"mf",TRUE)</f>
-        <v>42110</v>
+        <v>42121</v>
       </c>
       <c r="H12" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L12,InterestRateTrigger)</f>
-        <v>-5.0999999999135071E-4</v>
+        <v>-2.1299999992343351E-3</v>
       </c>
       <c r="I12" s="177" t="str">
         <f>Contribution!M12</f>
@@ -7439,7 +7443,7 @@
       <c r="K12" s="51"/>
       <c r="L12" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C12="SN","1D",IF(C12="SW","1W",C12)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030b#0000</v>
+        <v>obj_0030f#0000</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
@@ -7497,7 +7501,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -7507,19 +7511,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E13,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F13,IF(C13="SN","1D",IF(C13="SW","1W",C13)),"mf",TRUE)</f>
-        <v>42142</v>
+        <v>42150</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L13,InterestRateTrigger)</f>
-        <v>-5.9999999996586612E-4</v>
+        <v>-2.2399999979947427E-3</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!M13</f>
@@ -7531,7 +7535,7 @@
       <c r="K13" s="51"/>
       <c r="L13" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C13="SN","1D",IF(C13="SW","1W",C13)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00308#0000</v>
+        <v>obj_00319#0000</v>
       </c>
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
@@ -7589,7 +7593,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="173">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="173" t="s">
         <v>21</v>
@@ -7599,19 +7603,19 @@
       </c>
       <c r="E14" s="175">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E14,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G14" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F14,IF(C14="SN","1D",IF(C14="SW","1W",C14)),"mf",TRUE)</f>
-        <v>42171</v>
+        <v>42180</v>
       </c>
       <c r="H14" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L14,InterestRateTrigger)</f>
-        <v>-6.9999999992160881E-4</v>
+        <v>-2.3200000000003409E-3</v>
       </c>
       <c r="I14" s="177" t="str">
         <f>Contribution!M14</f>
@@ -7623,7 +7627,7 @@
       <c r="K14" s="51"/>
       <c r="L14" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C14="SN","1D",IF(C14="SW","1W",C14)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00309#0000</v>
+        <v>obj_0030c#0000</v>
       </c>
       <c r="M14" s="33"/>
       <c r="N14" s="33"/>
@@ -7691,19 +7695,19 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E15,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F15,IF(C15="SN","1D",IF(C15="SW","1W",C15)),"mf",TRUE)</f>
-        <v>42201</v>
+        <v>42212</v>
       </c>
       <c r="H15" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L15,InterestRateTrigger)</f>
-        <v>-7.6999999987491902E-4</v>
+        <v>-2.3700000000002482E-3</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!M15</f>
@@ -7715,7 +7719,7 @@
       <c r="K15" s="51"/>
       <c r="L15" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C15="SN","1D",IF(C15="SW","1W",C15)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00303#0000</v>
+        <v>obj_0030e#0000</v>
       </c>
       <c r="M15" s="33"/>
       <c r="N15" s="33"/>
@@ -7773,7 +7777,7 @@
       <c r="A16" s="62"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
@@ -7783,19 +7787,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E16,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F16,IF(C16="SN","1D",IF(C16="SW","1W",C16)),"mf",TRUE)</f>
-        <v>42233</v>
+        <v>42241</v>
       </c>
       <c r="H16" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L16,InterestRateTrigger)</f>
-        <v>-8.3999999975873936E-4</v>
+        <v>-2.4099999999998797E-3</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!M16</f>
@@ -7807,7 +7811,7 @@
       <c r="K16" s="51"/>
       <c r="L16" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C16="SN","1D",IF(C16="SW","1W",C16)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030d#0000</v>
+        <v>obj_00307#0000</v>
       </c>
       <c r="M16" s="33"/>
       <c r="N16" s="33"/>
@@ -7865,7 +7869,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="173">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="173" t="s">
         <v>14</v>
@@ -7875,19 +7879,19 @@
       </c>
       <c r="E17" s="175">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,E17,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G17" s="175">
         <f>_xll.qlCalendarAdvance(Calendar,F17,IF(C17="SN","1D",IF(C17="SW","1W",C17)),"mf",TRUE)</f>
-        <v>42263</v>
+        <v>42272</v>
       </c>
       <c r="H17" s="176">
         <f>_xll.qlOvernightIndexedSwapFairRate(L17,InterestRateTrigger)</f>
-        <v>-8.8999999971501968E-4</v>
+        <v>-2.4400000000001716E-3</v>
       </c>
       <c r="I17" s="177" t="str">
         <f>Contribution!M17</f>
@@ -7899,7 +7903,7 @@
       <c r="K17" s="51"/>
       <c r="L17" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C17="SN","1D",IF(C17="SW","1W",C17)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00313#0000</v>
+        <v>obj_00310#0000</v>
       </c>
       <c r="M17" s="33"/>
       <c r="N17" s="33"/>
@@ -7957,7 +7961,7 @@
       <c r="A18" s="62"/>
       <c r="B18" s="17">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>24</v>
@@ -7967,19 +7971,19 @@
       </c>
       <c r="E18" s="41">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E18,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G18" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F18,IF(C18="SN","1D",IF(C18="SW","1W",C18)),"mf",TRUE)</f>
-        <v>42354</v>
+        <v>42366</v>
       </c>
       <c r="H18" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L18,InterestRateTrigger)</f>
-        <v>-1.0199999999998511E-3</v>
+        <v>-2.5000000000004194E-3</v>
       </c>
       <c r="I18" s="32" t="str">
         <f>Contribution!M18</f>
@@ -7991,7 +7995,7 @@
       <c r="K18" s="51"/>
       <c r="L18" s="26" t="str">
         <f>_xll.qlMakeOIS(,IF(C18="SN","1D",IF(C18="SW","1W",C18)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00318#0000</v>
+        <v>obj_0031a#0000</v>
       </c>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -8446,19 +8450,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:E39" si="3">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,E25,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F25,IF(C25="SN","1D",IF(C25="SW","1W",C25)),"mf",TRUE)</f>
-        <v>42445</v>
+        <v>42458</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlOvernightIndexedSwapFairRate(L25,InterestRateTrigger)</f>
-        <v>-1.0499999999998898E-3</v>
+        <v>-2.4300000000006881E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!M25</f>
@@ -8470,7 +8474,7 @@
       <c r="K25" s="50"/>
       <c r="L25" s="23" t="str">
         <f>_xll.qlMakeOIS(,IF(C25="SN","1D",IF(C25="SW","1W",C25)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00310#0000</v>
+        <v>obj_0030b#0000</v>
       </c>
       <c r="M25" s="33"/>
       <c r="N25" s="33"/>
@@ -8535,19 +8539,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E26,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F26,IF(C26="SN","1D",IF(C26="SW","1W",C26)),"mf",TRUE)</f>
-        <v>42810</v>
+        <v>42821</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L26,InterestRateTrigger)</f>
-        <v>-4.1249999999999024E-4</v>
+        <v>-1.0374999999999887E-3</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!M26</f>
@@ -8559,7 +8563,7 @@
       <c r="K26" s="50"/>
       <c r="L26" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C26="SN","1D",IF(C26="SW","1W",C26)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0031a#0000</v>
+        <v>obj_00305#0000</v>
       </c>
       <c r="M26" s="33"/>
       <c r="N26" s="33"/>
@@ -8624,19 +8628,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E27,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F27,IF(C27="SN","1D",IF(C27="SW","1W",C27)),"mf",TRUE)</f>
-        <v>43175</v>
+        <v>43185</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L27,InterestRateTrigger)</f>
-        <v>7.5000000000029768E-5</v>
+        <v>-4.4999999999999435E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!M27</f>
@@ -8648,7 +8652,7 @@
       <c r="K27" s="50"/>
       <c r="L27" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C27="SN","1D",IF(C27="SW","1W",C27)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030e#0000</v>
+        <v>obj_00308#0000</v>
       </c>
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
@@ -8713,19 +8717,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E28,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F28,IF(C28="SN","1D",IF(C28="SW","1W",C28)),"mf",TRUE)</f>
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L28,InterestRateTrigger)</f>
-        <v>6.7500000000001727E-4</v>
+        <v>2.375000000951724E-4</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!M28</f>
@@ -8737,7 +8741,7 @@
       <c r="K28" s="50"/>
       <c r="L28" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C28="SN","1D",IF(C28="SW","1W",C28)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030a#0000</v>
+        <v>obj_00303#0000</v>
       </c>
       <c r="M28" s="33"/>
       <c r="N28" s="33"/>
@@ -8802,19 +8806,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E29,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F29,IF(C29="SN","1D",IF(C29="SW","1W",C29)),"mf",TRUE)</f>
-        <v>43906</v>
+        <v>43915</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L29,InterestRateTrigger)</f>
-        <v>1.3999999999999562E-3</v>
+        <v>9.5000000000941391E-4</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!M29</f>
@@ -8826,7 +8830,7 @@
       <c r="K29" s="50"/>
       <c r="L29" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C29="SN","1D",IF(C29="SW","1W",C29)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00306#0000</v>
+        <v>obj_00316#0000</v>
       </c>
       <c r="M29" s="33"/>
       <c r="N29" s="33"/>
@@ -8891,19 +8895,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E30,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F30,IF(C30="SN","1D",IF(C30="SW","1W",C30)),"mf",TRUE)</f>
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L30,InterestRateTrigger)</f>
-        <v>2.1375000000000218E-3</v>
+        <v>1.6375000000039086E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!M30</f>
@@ -8915,7 +8919,7 @@
       <c r="K30" s="50"/>
       <c r="L30" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C30="SN","1D",IF(C30="SW","1W",C30)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00311#0000</v>
+        <v>obj_0031b#0000</v>
       </c>
       <c r="M30" s="33"/>
       <c r="N30" s="33"/>
@@ -8980,19 +8984,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E31,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F31,IF(C31="SN","1D",IF(C31="SW","1W",C31)),"mf",TRUE)</f>
-        <v>44636</v>
+        <v>44645</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L31,InterestRateTrigger)</f>
-        <v>2.8124999999999548E-3</v>
+        <v>2.2500000000067045E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!M31</f>
@@ -9069,19 +9073,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E32,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F32,IF(C32="SN","1D",IF(C32="SW","1W",C32)),"mf",TRUE)</f>
-        <v>45001</v>
+        <v>45012</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L32,InterestRateTrigger)</f>
-        <v>3.375000000000072E-3</v>
+        <v>2.787500000013324E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!M32</f>
@@ -9158,19 +9162,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E33,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F33,IF(C33="SN","1D",IF(C33="SW","1W",C33)),"mf",TRUE)</f>
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L33,InterestRateTrigger)</f>
-        <v>3.8500000000000166E-3</v>
+        <v>3.2250000000310962E-3</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!M33</f>
@@ -9182,7 +9186,7 @@
       <c r="K33" s="50"/>
       <c r="L33" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C33="SN","1D",IF(C33="SW","1W",C33)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00316#0000</v>
+        <v>obj_00317#0000</v>
       </c>
       <c r="M33" s="33"/>
       <c r="N33" s="33"/>
@@ -9247,19 +9251,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E34,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F34,IF(C34="SN","1D",IF(C34="SW","1W",C34)),"mf",TRUE)</f>
-        <v>45733</v>
+        <v>45741</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L34,InterestRateTrigger)</f>
-        <v>4.2499999999999795E-3</v>
+        <v>3.6000000000353176E-3</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!M34</f>
@@ -9271,7 +9275,7 @@
       <c r="K34" s="50"/>
       <c r="L34" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C34="SN","1D",IF(C34="SW","1W",C34)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0031b#0000</v>
+        <v>obj_00311#0000</v>
       </c>
       <c r="M34" s="33"/>
       <c r="N34" s="33"/>
@@ -9336,19 +9340,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E35,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F35,IF(C35="SN","1D",IF(C35="SW","1W",C35)),"mf",TRUE)</f>
-        <v>46462</v>
+        <v>46471</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L35,InterestRateTrigger)</f>
-        <v>4.9124999999877114E-3</v>
+        <v>4.2250000000587321E-3</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!M35</f>
@@ -9360,7 +9364,7 @@
       <c r="K35" s="50"/>
       <c r="L35" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C35="SN","1D",IF(C35="SW","1W",C35)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00319#0000</v>
+        <v>obj_0030d#0000</v>
       </c>
       <c r="M35" s="33"/>
       <c r="N35" s="33"/>
@@ -9425,19 +9429,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E36,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F36,IF(C36="SN","1D",IF(C36="SW","1W",C36)),"mf",TRUE)</f>
-        <v>47560</v>
+        <v>47567</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L36,InterestRateTrigger)</f>
-        <v>5.6250000000002279E-3</v>
+        <v>4.9250000000551465E-3</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!M36</f>
@@ -9449,7 +9453,7 @@
       <c r="K36" s="50"/>
       <c r="L36" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C36="SN","1D",IF(C36="SW","1W",C36)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00317#0000</v>
+        <v>obj_0030a#0000</v>
       </c>
       <c r="M36" s="33"/>
       <c r="N36" s="33"/>
@@ -9514,19 +9518,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E37,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F37,IF(C37="SN","1D",IF(C37="SW","1W",C37)),"mf",TRUE)</f>
-        <v>49384</v>
+        <v>49395</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L37,InterestRateTrigger)</f>
-        <v>6.5750000000251519E-3</v>
+        <v>5.7749999999802647E-3</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!M37</f>
@@ -9538,7 +9542,7 @@
       <c r="K37" s="50"/>
       <c r="L37" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C37="SN","1D",IF(C37="SW","1W",C37)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00305#0000</v>
+        <v>obj_00314#0000</v>
       </c>
       <c r="M37" s="33"/>
       <c r="N37" s="33"/>
@@ -9603,19 +9607,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,E38,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F38,IF(C38="SN","1D",IF(C38="SW","1W",C38)),"mf",TRUE)</f>
-        <v>51211</v>
+        <v>51221</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlOvernightIndexedSwapFairRate(L38,InterestRateTrigger)</f>
-        <v>7.0250000000042119E-3</v>
+        <v>6.2124999999970199E-3</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!M38</f>
@@ -9627,7 +9631,7 @@
       <c r="K38" s="50"/>
       <c r="L38" s="24" t="str">
         <f>_xll.qlMakeOIS(,IF(C38="SN","1D",IF(C38="SW","1W",C38)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_00314#0000</v>
+        <v>obj_00313#0000</v>
       </c>
       <c r="M38" s="33"/>
       <c r="N38" s="33"/>
@@ -9692,19 +9696,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="3"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,E39,"2D","f",FALSE)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlCalendarAdvance(Calendar,F39,IF(C39="SN","1D",IF(C39="SW","1W",C39)),"mf",TRUE)</f>
-        <v>53037</v>
+        <v>53048</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlOvernightIndexedSwapFairRate(L39,InterestRateTrigger)</f>
-        <v>7.2000000000078564E-3</v>
+        <v>6.399999999995817E-3</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!M39</f>
@@ -9716,7 +9720,7 @@
       <c r="K39" s="50"/>
       <c r="L39" s="26" t="str">
         <f>_xll.qlMakeOIS(,IF(C39="SN","1D",IF(C39="SW","1W",C39)),OvernightIndex,,"0D",,,,Trigger)</f>
-        <v>obj_0030f#0000</v>
+        <v>obj_00318#0000</v>
       </c>
       <c r="M39" s="33"/>
       <c r="N39" s="33"/>
@@ -10239,26 +10243,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E39" si="1">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42076</v>
-      </c>
-      <c r="H6" s="43" t="e">
+        <v>42087</v>
+      </c>
+      <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>-1.2095604491853952E-3</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="e">
+      <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B12,H8:H12,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>obj_0035f#0000</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -10271,7 +10275,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -10281,19 +10285,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42079</v>
-      </c>
-      <c r="H7" s="111" t="e">
+        <v>42088</v>
+      </c>
+      <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>-1.2099117633482515E-3</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -10318,7 +10322,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -10328,19 +10332,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42080</v>
-      </c>
-      <c r="H8" s="43" t="e">
+        <v>42089</v>
+      </c>
+      <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.2102406118863485E-3</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!P8</f>
@@ -10350,7 +10354,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0032c#0000</v>
+        <v>obj_00350#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -10369,7 +10373,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -10379,19 +10383,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42086</v>
-      </c>
-      <c r="H9" s="39" t="e">
+        <v>42095</v>
+      </c>
+      <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.2129999999815106E-3</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!P9</f>
@@ -10401,7 +10405,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0032d#0000</v>
+        <v>obj_0034a#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -10414,7 +10418,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -10424,19 +10428,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42093</v>
-      </c>
-      <c r="H10" s="39" t="e">
+        <v>42102</v>
+      </c>
+      <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.221000000046768E-3</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!P10</f>
@@ -10446,7 +10450,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00325#0000</v>
+        <v>obj_00345#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -10459,7 +10463,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -10469,19 +10473,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42101</v>
-      </c>
-      <c r="H11" s="39" t="e">
+        <v>42109</v>
+      </c>
+      <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.234000000190757E-3</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!P11</f>
@@ -10491,7 +10495,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00343#0000</v>
+        <v>obj_00320#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -10514,19 +10518,19 @@
       </c>
       <c r="E12" s="144">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F12" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E12,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G12" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F12,Trigger)</f>
-        <v>42110</v>
-      </c>
-      <c r="H12" s="145" t="e">
+        <v>42121</v>
+      </c>
+      <c r="H12" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E12,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.2679999980850939E-3</v>
       </c>
       <c r="I12" s="146" t="str">
         <f>Contribution!P12</f>
@@ -10803,19 +10807,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H25" s="38" t="e">
+        <v>42458</v>
+      </c>
+      <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.9132798649356046E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!P25</f>
@@ -10828,7 +10832,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00322#0000</v>
+        <v>obj_00337#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="59" t="s">
@@ -10854,19 +10858,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42810</v>
-      </c>
-      <c r="H26" s="39" t="e">
+        <v>42821</v>
+      </c>
+      <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-1.5627027289320406E-3</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!P26</f>
@@ -10879,7 +10883,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033d#0000</v>
+        <v>obj_00339#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="62"/>
@@ -10899,19 +10903,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43175</v>
-      </c>
-      <c r="H27" s="39" t="e">
+        <v>43185</v>
+      </c>
+      <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-3.2037612674177233E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!P27</f>
@@ -10924,7 +10928,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00323#0000</v>
+        <v>obj_00344#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -10944,19 +10948,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43542</v>
-      </c>
-      <c r="H28" s="39" t="e">
+        <v>43549</v>
+      </c>
+      <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.1270977705203477E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!P28</f>
@@ -10969,7 +10973,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00354#0000</v>
+        <v>obj_00323#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -10989,19 +10993,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43906</v>
-      </c>
-      <c r="H29" s="39" t="e">
+        <v>43915</v>
+      </c>
+      <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>2.6212571946558198E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!P29</f>
@@ -11014,7 +11018,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00336#0000</v>
+        <v>obj_00325#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -11034,19 +11038,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44271</v>
-      </c>
-      <c r="H30" s="39" t="e">
+        <v>44280</v>
+      </c>
+      <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>4.0180681344880158E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!P30</f>
@@ -11059,7 +11063,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00321#0000</v>
+        <v>obj_00332#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -11079,19 +11083,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44636</v>
-      </c>
-      <c r="H31" s="39" t="e">
+        <v>44645</v>
+      </c>
+      <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>5.2429125738546823E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!P31</f>
@@ -11104,7 +11108,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034e#0000</v>
+        <v>obj_00322#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -11124,19 +11128,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45001</v>
-      </c>
-      <c r="H32" s="39" t="e">
+        <v>45012</v>
+      </c>
+      <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>6.2917539919121303E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!P32</f>
@@ -11149,7 +11153,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00345#0000</v>
+        <v>obj_00326#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -11169,19 +11173,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45369</v>
-      </c>
-      <c r="H33" s="39" t="e">
+        <v>45376</v>
+      </c>
+      <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>7.1673290638369696E-3</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!P33</f>
@@ -11194,7 +11198,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032b#0000</v>
+        <v>obj_0033c#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -11214,19 +11218,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45733</v>
-      </c>
-      <c r="H34" s="39" t="e">
+        <v>45741</v>
+      </c>
+      <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>7.9172464384677024E-3</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!P34</f>
@@ -11239,7 +11243,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00330#0000</v>
+        <v>obj_00334#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -11259,19 +11263,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46462</v>
-      </c>
-      <c r="H35" s="39" t="e">
+        <v>46471</v>
+      </c>
+      <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>9.1431103235379042E-3</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!P35</f>
@@ -11284,7 +11288,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031d#0000</v>
+        <v>obj_0033f#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -11304,19 +11308,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47560</v>
-      </c>
-      <c r="H36" s="39" t="e">
+        <v>47567</v>
+      </c>
+      <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.0539096029397897E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!P36</f>
@@ -11329,7 +11333,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00359#0000</v>
+        <v>obj_00328#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -11349,19 +11353,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49384</v>
-      </c>
-      <c r="H37" s="39" t="e">
+        <v>49395</v>
+      </c>
+      <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.2141657616593624E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!P37</f>
@@ -11374,7 +11378,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00333#0000</v>
+        <v>obj_00355#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -11394,19 +11398,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51211</v>
-      </c>
-      <c r="H38" s="39" t="e">
+        <v>51221</v>
+      </c>
+      <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.2937192639630541E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!P38</f>
@@ -11419,7 +11423,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00352#0000</v>
+        <v>obj_00357#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -11439,19 +11443,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53037</v>
-      </c>
-      <c r="H39" s="42" t="e">
+        <v>53048</v>
+      </c>
+      <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.3216662399604418E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!P39</f>
@@ -11464,7 +11468,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00331#0000</v>
+        <v>obj_00338#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -11698,26 +11702,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E14" si="1">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>4.7684581367460051E-4</v>
+        <v>-6.4704629470333549E-4</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
       <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B14,H8:H14,,Trigger)</f>
-        <v>obj_0035c#0000</v>
+        <v>obj_0035e#0000</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -11730,7 +11734,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -11740,19 +11744,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>4.745013349354753E-4</v>
+        <v>-6.473663059407491E-4</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -11777,7 +11781,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -11787,19 +11791,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42080</v>
+        <v>42089</v>
       </c>
       <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>4.7387613089533431E-4</v>
+        <v>-6.4766386753678518E-4</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!S8</f>
@@ -11809,7 +11813,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00324#0000</v>
+        <v>obj_0032c#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -11828,7 +11832,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -11838,19 +11842,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42086</v>
+        <v>42095</v>
       </c>
       <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>4.6848387348903079E-4</v>
+        <v>-6.5023497456121295E-4</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!S9</f>
@@ -11860,7 +11864,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0031c#0000</v>
+        <v>obj_0033b#0000</v>
       </c>
       <c r="M9" s="57"/>
       <c r="N9" s="62"/>
@@ -11873,7 +11877,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -11883,19 +11887,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42093</v>
+        <v>42102</v>
       </c>
       <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>4.5196634371080791E-4</v>
+        <v>-6.5811548335816179E-4</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!S10</f>
@@ -11905,7 +11909,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00346#0000</v>
+        <v>obj_0033a#0000</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="62"/>
@@ -11918,7 +11922,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -11928,19 +11932,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42101</v>
+        <v>42109</v>
       </c>
       <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>4.1960327556908345E-4</v>
+        <v>-6.7125212964036507E-4</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!S11</f>
@@ -11950,7 +11954,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0035b#0000</v>
+        <v>obj_0034d#0000</v>
       </c>
       <c r="M11" s="57"/>
       <c r="N11" s="62"/>
@@ -11973,19 +11977,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42110</v>
+        <v>42121</v>
       </c>
       <c r="H12" s="39">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>3.660000000026814E-4</v>
+        <v>-7.059999998239939E-4</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!S12</f>
@@ -11995,7 +11999,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0031e#0000</v>
+        <v>obj_00354#0000</v>
       </c>
       <c r="M12" s="57"/>
       <c r="N12" s="62"/>
@@ -12008,7 +12012,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -12018,19 +12022,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42142</v>
+        <v>42150</v>
       </c>
       <c r="H13" s="39">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>1.0700000003233917E-4</v>
+        <v>-8.159999994035304E-4</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!S13</f>
@@ -12040,7 +12044,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00328#0000</v>
+        <v>obj_0032d#0000</v>
       </c>
       <c r="M13" s="57"/>
       <c r="N13" s="62"/>
@@ -12053,7 +12057,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="142">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="142" t="s">
         <v>21</v>
@@ -12063,19 +12067,19 @@
       </c>
       <c r="E14" s="144">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F14" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E14,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G14" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F14,Trigger)</f>
-        <v>42171</v>
+        <v>42180</v>
       </c>
       <c r="H14" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E14,TRUE,InterestRateTrigger)</f>
-        <v>-7.9714098994697764E-5</v>
+        <v>-8.9699999814722416E-4</v>
       </c>
       <c r="I14" s="146" t="str">
         <f>Contribution!S14</f>
@@ -12199,7 +12203,7 @@
       </c>
       <c r="H19" s="77">
         <f>(1-_xll.qlIndexFixing(IborIndex,E19,TRUE,InterestRateTrigger))*100</f>
-        <v>100.01999999973208</v>
+        <v>100.11499999985878</v>
       </c>
       <c r="I19" s="31" t="str">
         <f>Contribution!S19</f>
@@ -12244,7 +12248,7 @@
       </c>
       <c r="H20" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E20,TRUE,InterestRateTrigger))*100</f>
-        <v>100.01750000015137</v>
+        <v>100.12499999994462</v>
       </c>
       <c r="I20" s="30" t="str">
         <f>Contribution!S20</f>
@@ -12289,7 +12293,7 @@
       </c>
       <c r="H21" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E21,TRUE,InterestRateTrigger))*100</f>
-        <v>99.995000000190558</v>
+        <v>100.125</v>
       </c>
       <c r="I21" s="30" t="str">
         <f>Contribution!S21</f>
@@ -12334,7 +12338,7 @@
       </c>
       <c r="H22" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E22,TRUE,InterestRateTrigger))*100</f>
-        <v>99.955000000245079</v>
+        <v>100.09499999999998</v>
       </c>
       <c r="I22" s="30" t="str">
         <f>Contribution!S22</f>
@@ -12379,7 +12383,7 @@
       </c>
       <c r="H23" s="78">
         <f>(1-_xll.qlIndexFixing(IborIndex,E23,TRUE,InterestRateTrigger))*100</f>
-        <v>99.889999999905783</v>
+        <v>100.04249999990166</v>
       </c>
       <c r="I23" s="30" t="str">
         <f>Contribution!S23</f>
@@ -12424,7 +12428,7 @@
       </c>
       <c r="H24" s="79">
         <f>(1-_xll.qlIndexFixing(IborIndex,E24,TRUE,InterestRateTrigger))*100</f>
-        <v>99.925520211378029</v>
+        <v>99.974999999999994</v>
       </c>
       <c r="I24" s="32" t="str">
         <f>Contribution!S24</f>
@@ -12462,19 +12466,19 @@
       </c>
       <c r="E25" s="37">
         <f>EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42445</v>
+        <v>42458</v>
       </c>
       <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>-1.0391898640119836E-4</v>
+        <v>-1.1542212671681977E-3</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!S25</f>
@@ -12487,7 +12491,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00348#0000</v>
+        <v>obj_00352#0000</v>
       </c>
       <c r="M25" s="57"/>
       <c r="N25" s="59" t="s">
@@ -12513,19 +12517,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" ref="E26:E27" si="4">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42810</v>
+        <v>42821</v>
       </c>
       <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>3.7500000014603207E-4</v>
+        <v>-6.2499999995672701E-4</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!S26</f>
@@ -12538,7 +12542,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00344#0000</v>
+        <v>obj_00330#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="62"/>
@@ -12558,19 +12562,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="4"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43175</v>
+        <v>43185</v>
       </c>
       <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>1.5750000001040791E-3</v>
+        <v>6.7499999989308784E-4</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!S27</f>
@@ -12583,7 +12587,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00334#0000</v>
+        <v>obj_00359#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -12603,19 +12607,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" ref="E28:E29" si="5">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43542</v>
+        <v>43549</v>
       </c>
       <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>2.9750000000783789E-3</v>
+        <v>2.1500000000126917E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!S28</f>
@@ -12628,7 +12632,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032e#0000</v>
+        <v>obj_0031d#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="62"/>
@@ -12648,19 +12652,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43906</v>
+        <v>43915</v>
       </c>
       <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>4.5250000000804621E-3</v>
+        <v>3.650000000012428E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!S29</f>
@@ -12673,7 +12677,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00353#0000</v>
+        <v>obj_0034c#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="62"/>
@@ -12693,19 +12697,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E39" si="6">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>6.0000000000746323E-3</v>
+        <v>5.0500000000097672E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!S30</f>
@@ -12718,7 +12722,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00320#0000</v>
+        <v>obj_0032b#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="62"/>
@@ -12738,19 +12742,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44636</v>
+        <v>44645</v>
       </c>
       <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>7.3500000000693922E-3</v>
+        <v>6.2750000000087762E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!S31</f>
@@ -12763,7 +12767,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00338#0000</v>
+        <v>obj_00346#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="62"/>
@@ -12783,19 +12787,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45001</v>
+        <v>45012</v>
       </c>
       <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>8.4750000000619208E-3</v>
+        <v>7.3250000000075815E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!S32</f>
@@ -12808,7 +12812,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00358#0000</v>
+        <v>obj_00324#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="62"/>
@@ -12828,19 +12832,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>9.4250000000547559E-3</v>
+        <v>8.2000000000067384E-3</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!S33</f>
@@ -12853,7 +12857,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032a#0000</v>
+        <v>obj_00329#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="62"/>
@@ -12873,19 +12877,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45733</v>
+        <v>45741</v>
       </c>
       <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>1.0225000000033693E-2</v>
+        <v>8.9500000000058526E-3</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!S34</f>
@@ -12898,7 +12902,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00342#0000</v>
+        <v>obj_00341#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="62"/>
@@ -12918,19 +12922,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46462</v>
+        <v>46471</v>
       </c>
       <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>1.1525000000047206E-2</v>
+        <v>1.0175000000005168E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!S35</f>
@@ -12943,7 +12947,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00335#0000</v>
+        <v>obj_0031e#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="62"/>
@@ -12963,19 +12967,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47560</v>
+        <v>47567</v>
       </c>
       <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>1.2925000000045709E-2</v>
+        <v>1.1549999999989692E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!S36</f>
@@ -12988,7 +12992,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0035a#0000</v>
+        <v>obj_00343#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="62"/>
@@ -13008,19 +13012,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49384</v>
+        <v>49395</v>
       </c>
       <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>1.4674999999925104E-2</v>
+        <v>1.3100000000004362E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!S37</f>
@@ -13033,7 +13037,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034d#0000</v>
+        <v>obj_00347#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="62"/>
@@ -13053,19 +13057,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51211</v>
+        <v>51221</v>
       </c>
       <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>1.542500000004283E-2</v>
+        <v>1.3850000000002959E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!S38</f>
@@ -13078,7 +13082,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00329#0000</v>
+        <v>obj_00333#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="62"/>
@@ -13098,19 +13102,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="6"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53037</v>
+        <v>53048</v>
       </c>
       <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>1.5675000000003641E-2</v>
+        <v>1.4100000000002074E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!S39</f>
@@ -13123,7 +13127,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034c#0000</v>
+        <v>obj_00342#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="62"/>
@@ -13358,26 +13362,26 @@
       </c>
       <c r="E6" s="37">
         <f t="shared" ref="E6:E17" si="1">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F6" s="37">
         <f>E6</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="G6" s="37">
         <f>_xll.qlCalendarAdvance(Calendar,F6,"1D","f",TRUE,Trigger)</f>
-        <v>42076</v>
-      </c>
-      <c r="H6" s="43" t="e">
+        <v>42087</v>
+      </c>
+      <c r="H6" s="43">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B6,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>-4.0768964136895478E-4</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="45"/>
       <c r="K6" s="33"/>
-      <c r="L6" s="59" t="e">
+      <c r="L6" s="59" t="str">
         <f>_xll.qlInterpolation(,InterpolationType,B8:B17,H8:H17,,Trigger)</f>
-        <v>#NUM!</v>
+        <v>obj_0035d#0000</v>
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
@@ -13390,7 +13394,7 @@
       <c r="A7" s="62"/>
       <c r="B7" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>73</v>
@@ -13400,19 +13404,19 @@
       </c>
       <c r="E7" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F7" s="40">
         <f>G6</f>
-        <v>42076</v>
+        <v>42087</v>
       </c>
       <c r="G7" s="40">
         <f>_xll.qlCalendarAdvance(Calendar,F7,"1D","f",TRUE,Trigger)</f>
-        <v>42079</v>
-      </c>
-      <c r="H7" s="111" t="e">
+        <v>42088</v>
+      </c>
+      <c r="H7" s="111">
         <f>_xll.qlInterpolationInterpolate(Interpolation,B7,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>-4.0785416222941E-4</v>
       </c>
       <c r="I7" s="46"/>
       <c r="J7" s="112"/>
@@ -13437,7 +13441,7 @@
       <c r="A8" s="62"/>
       <c r="B8" s="15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>74</v>
@@ -13447,19 +13451,19 @@
       </c>
       <c r="E8" s="37">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F8" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L8,E8,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G8" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L8,F8,Trigger)</f>
-        <v>42080</v>
-      </c>
-      <c r="H8" s="43" t="e">
+        <v>42089</v>
+      </c>
+      <c r="H8" s="43">
         <f>_xll.qlIndexFixing(L8,E8,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.0800712896249536E-4</v>
       </c>
       <c r="I8" s="44" t="str">
         <f>Contribution!V8</f>
@@ -13469,7 +13473,7 @@
       <c r="K8" s="33"/>
       <c r="L8" s="60" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C8="SN","1D",IF(C8="SW","1W",C8)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0033e#0000</v>
+        <v>obj_00351#0000</v>
       </c>
       <c r="M8" s="57"/>
       <c r="N8" s="59" t="b">
@@ -13488,7 +13492,7 @@
       <c r="A9" s="62"/>
       <c r="B9" s="16">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -13498,19 +13502,19 @@
       </c>
       <c r="E9" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F9" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L9,E9,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G9" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L9,F9,Trigger)</f>
-        <v>42086</v>
-      </c>
-      <c r="H9" s="39" t="e">
+        <v>42095</v>
+      </c>
+      <c r="H9" s="39">
         <f>_xll.qlIndexFixing(L9,E9,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.0932932381895374E-4</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>Contribution!V9</f>
@@ -13520,7 +13524,7 @@
       <c r="K9" s="33"/>
       <c r="L9" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C9="SN","1D",IF(C9="SW","1W",C9)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00356#0000</v>
+        <v>obj_0034f#0000</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="62"/>
@@ -13533,7 +13537,7 @@
       <c r="A10" s="62"/>
       <c r="B10" s="16">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>17</v>
@@ -13543,19 +13547,19 @@
       </c>
       <c r="E10" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F10" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L10,E10,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G10" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L10,F10,Trigger)</f>
-        <v>42093</v>
-      </c>
-      <c r="H10" s="39" t="e">
+        <v>42102</v>
+      </c>
+      <c r="H10" s="39">
         <f>_xll.qlIndexFixing(L10,E10,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.1338113243614771E-4</v>
       </c>
       <c r="I10" s="30" t="str">
         <f>Contribution!V10</f>
@@ -13565,7 +13569,7 @@
       <c r="K10" s="33"/>
       <c r="L10" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C10="SN","1D",IF(C10="SW","1W",C10)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00350#0000</v>
+        <v>obj_0033e#0000</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="62"/>
@@ -13578,7 +13582,7 @@
       <c r="A11" s="62"/>
       <c r="B11" s="16">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -13588,19 +13592,19 @@
       </c>
       <c r="E11" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F11" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L11,E11,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G11" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L11,F11,Trigger)</f>
-        <v>42101</v>
-      </c>
-      <c r="H11" s="39" t="e">
+        <v>42109</v>
+      </c>
+      <c r="H11" s="39">
         <f>_xll.qlIndexFixing(L11,E11,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.2013514419839533E-4</v>
       </c>
       <c r="I11" s="30" t="str">
         <f>Contribution!V11</f>
@@ -13610,7 +13614,7 @@
       <c r="K11" s="33"/>
       <c r="L11" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C11="SN","1D",IF(C11="SW","1W",C11)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034a#0000</v>
+        <v>obj_00321#0000</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="62"/>
@@ -13633,19 +13637,19 @@
       </c>
       <c r="E12" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F12" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L12,E12,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G12" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L12,F12,Trigger)</f>
-        <v>42110</v>
-      </c>
-      <c r="H12" s="39" t="e">
+        <v>42121</v>
+      </c>
+      <c r="H12" s="39">
         <f>_xll.qlIndexFixing(L12,E12,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.3799999999896954E-4</v>
       </c>
       <c r="I12" s="30" t="str">
         <f>Contribution!V12</f>
@@ -13655,7 +13659,7 @@
       <c r="K12" s="33"/>
       <c r="L12" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C12="SN","1D",IF(C12="SW","1W",C12)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00327#0000</v>
+        <v>obj_0031c#0000</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="62"/>
@@ -13668,7 +13672,7 @@
       <c r="A13" s="62"/>
       <c r="B13" s="16">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -13678,19 +13682,19 @@
       </c>
       <c r="E13" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F13" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L13,E13,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G13" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L13,F13,Trigger)</f>
-        <v>42142</v>
-      </c>
-      <c r="H13" s="39" t="e">
+        <v>42150</v>
+      </c>
+      <c r="H13" s="39">
         <f>_xll.qlIndexFixing(L13,E13,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.9100000000059936E-4</v>
       </c>
       <c r="I13" s="30" t="str">
         <f>Contribution!V13</f>
@@ -13700,7 +13704,7 @@
       <c r="K13" s="33"/>
       <c r="L13" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C13="SN","1D",IF(C13="SW","1W",C13)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00347#0000</v>
+        <v>obj_0033d#0000</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="47"/>
@@ -13713,7 +13717,7 @@
       <c r="A14" s="62"/>
       <c r="B14" s="16">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>21</v>
@@ -13723,19 +13727,19 @@
       </c>
       <c r="E14" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F14" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L14,E14,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G14" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L14,F14,Trigger)</f>
-        <v>42171</v>
-      </c>
-      <c r="H14" s="39" t="e">
+        <v>42180</v>
+      </c>
+      <c r="H14" s="39">
         <f>_xll.qlIndexFixing(L14,E14,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-5.1200000000000041E-4</v>
       </c>
       <c r="I14" s="30" t="str">
         <f>Contribution!V14</f>
@@ -13745,7 +13749,7 @@
       <c r="K14" s="33"/>
       <c r="L14" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C14="SN","1D",IF(C14="SW","1W",C14)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_0034f#0000</v>
+        <v>obj_00336#0000</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="47"/>
@@ -13768,19 +13772,19 @@
       </c>
       <c r="E15" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F15" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L15,E15,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G15" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L15,F15,Trigger)</f>
-        <v>42201</v>
-      </c>
-      <c r="H15" s="39" t="e">
+        <v>42212</v>
+      </c>
+      <c r="H15" s="39">
         <f>_xll.qlIndexFixing(L15,E15,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.9799999952417474E-4</v>
       </c>
       <c r="I15" s="30" t="str">
         <f>Contribution!V15</f>
@@ -13790,7 +13794,7 @@
       <c r="K15" s="33"/>
       <c r="L15" s="25" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C15="SN","1D",IF(C15="SW","1W",C15)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00349#0000</v>
+        <v>obj_0035b#0000</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="47"/>
@@ -13803,7 +13807,7 @@
       <c r="A16" s="62"/>
       <c r="B16" s="16">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>23</v>
@@ -13813,19 +13817,19 @@
       </c>
       <c r="E16" s="40">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F16" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L16,E16,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G16" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L16,F16,Trigger)</f>
-        <v>42233</v>
-      </c>
-      <c r="H16" s="39" t="e">
+        <v>42241</v>
+      </c>
+      <c r="H16" s="39">
         <f>_xll.qlIndexFixing(L16,E16,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.8100000046095748E-4</v>
       </c>
       <c r="I16" s="30" t="str">
         <f>Contribution!V16</f>
@@ -13835,7 +13839,7 @@
       <c r="K16" s="33"/>
       <c r="L16" s="27" t="str">
         <f>_xll.qlIborIndex(,IborIndexFamily,IF(C16="SN","1D",IF(C16="SW","1W",C16)),SettlementDays,Currency,Calendar,BDayConvention,EndOfMonth,DayCounter,YieldCurve,,Trigger)</f>
-        <v>obj_00337#0000</v>
+        <v>obj_0034e#0000</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="47"/>
@@ -13848,7 +13852,7 @@
       <c r="A17" s="62"/>
       <c r="B17" s="142">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C17" s="142" t="s">
         <v>14</v>
@@ -13858,19 +13862,19 @@
       </c>
       <c r="E17" s="144">
         <f t="shared" si="1"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F17" s="144">
         <f>_xll.qlInterestRateIndexValueDate(IborIndex,E17,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G17" s="144">
         <f>_xll.qlInterestRateIndexMaturity(IborIndex,F17,Trigger)</f>
-        <v>42263</v>
-      </c>
-      <c r="H17" s="145" t="e">
+        <v>42272</v>
+      </c>
+      <c r="H17" s="145">
         <f>_xll.qlIndexFixing(IborIndex,E17,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.4999999999990702E-4</v>
       </c>
       <c r="I17" s="146" t="str">
         <f>Contribution!V17</f>
@@ -14047,19 +14051,19 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:E27" si="2">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F25" s="37">
         <f>_xll.qlInterestRateIndexValueDate(L25,E25,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G25" s="37">
         <f>_xll.qlInterestRateIndexMaturity(L25,F25,Trigger)</f>
-        <v>42445</v>
-      </c>
-      <c r="H25" s="38" t="e">
+        <v>42458</v>
+      </c>
+      <c r="H25" s="38">
         <f>_xll.qlIndexFixing(L25,E25,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>-4.3623538733729601E-4</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>Contribution!V25</f>
@@ -14072,7 +14076,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="60" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C25,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033b#0000</v>
+        <v>obj_0032f#0000</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="59" t="s">
@@ -14098,19 +14102,19 @@
       </c>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F26" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L26,E26,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G26" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L26,F26,Trigger)</f>
-        <v>42810</v>
-      </c>
-      <c r="H26" s="39" t="e">
+        <v>42821</v>
+      </c>
+      <c r="H26" s="39">
         <f>_xll.qlIndexFixing(L26,E26,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>2.3970658132554441E-4</v>
       </c>
       <c r="I26" s="30" t="str">
         <f>Contribution!V26</f>
@@ -14123,7 +14127,7 @@
       <c r="K26" s="33"/>
       <c r="L26" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C26,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00326#0000</v>
+        <v>obj_00358#0000</v>
       </c>
       <c r="M26" s="57"/>
       <c r="N26" s="62"/>
@@ -14143,19 +14147,19 @@
       </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F27" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L27,E27,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G27" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L27,F27,Trigger)</f>
-        <v>43175</v>
-      </c>
-      <c r="H27" s="39" t="e">
+        <v>43185</v>
+      </c>
+      <c r="H27" s="39">
         <f>_xll.qlIndexFixing(L27,E27,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.5882204778771207E-3</v>
       </c>
       <c r="I27" s="30" t="str">
         <f>Contribution!V27</f>
@@ -14168,7 +14172,7 @@
       <c r="K27" s="33"/>
       <c r="L27" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C27,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00339#0000</v>
+        <v>obj_0034b#0000</v>
       </c>
       <c r="M27" s="57"/>
       <c r="N27" s="62"/>
@@ -14188,19 +14192,19 @@
       </c>
       <c r="E28" s="40">
         <f t="shared" ref="E28:E29" si="4">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F28" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L28,E28,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G28" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L28,F28,Trigger)</f>
-        <v>43542</v>
-      </c>
-      <c r="H28" s="39" t="e">
+        <v>43549</v>
+      </c>
+      <c r="H28" s="39">
         <f>_xll.qlIndexFixing(L28,E28,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>3.0856076319858532E-3</v>
       </c>
       <c r="I28" s="30" t="str">
         <f>Contribution!V28</f>
@@ -14213,7 +14217,7 @@
       <c r="K28" s="33"/>
       <c r="L28" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C28,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00351#0000</v>
+        <v>obj_00353#0000</v>
       </c>
       <c r="M28" s="57"/>
       <c r="N28" s="47"/>
@@ -14233,19 +14237,19 @@
       </c>
       <c r="E29" s="40">
         <f t="shared" si="4"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F29" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L29,E29,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G29" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L29,F29,Trigger)</f>
-        <v>43906</v>
-      </c>
-      <c r="H29" s="39" t="e">
+        <v>43915</v>
+      </c>
+      <c r="H29" s="39">
         <f>_xll.qlIndexFixing(L29,E29,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>4.5994495849480625E-3</v>
       </c>
       <c r="I29" s="30" t="str">
         <f>Contribution!V29</f>
@@ -14258,7 +14262,7 @@
       <c r="K29" s="33"/>
       <c r="L29" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C29,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0032f#0000</v>
+        <v>obj_0032e#0000</v>
       </c>
       <c r="M29" s="57"/>
       <c r="N29" s="47"/>
@@ -14278,19 +14282,19 @@
       </c>
       <c r="E30" s="40">
         <f t="shared" ref="E30:E39" si="5">EvaluationDate</f>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F30" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L30,E30,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G30" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L30,F30,Trigger)</f>
-        <v>44271</v>
-      </c>
-      <c r="H30" s="39" t="e">
+        <v>44280</v>
+      </c>
+      <c r="H30" s="39">
         <f>_xll.qlIndexFixing(L30,E30,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>6.0066344015783125E-3</v>
       </c>
       <c r="I30" s="30" t="str">
         <f>Contribution!V30</f>
@@ -14303,7 +14307,7 @@
       <c r="K30" s="33"/>
       <c r="L30" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C30,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033c#0000</v>
+        <v>obj_00335#0000</v>
       </c>
       <c r="M30" s="57"/>
       <c r="N30" s="47"/>
@@ -14323,19 +14327,19 @@
       </c>
       <c r="E31" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F31" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L31,E31,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G31" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L31,F31,Trigger)</f>
-        <v>44636</v>
-      </c>
-      <c r="H31" s="39" t="e">
+        <v>44645</v>
+      </c>
+      <c r="H31" s="39">
         <f>_xll.qlIndexFixing(L31,E31,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>7.2357920977970634E-3</v>
       </c>
       <c r="I31" s="30" t="str">
         <f>Contribution!V31</f>
@@ -14348,7 +14352,7 @@
       <c r="K31" s="33"/>
       <c r="L31" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C31,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00332#0000</v>
+        <v>obj_00340#0000</v>
       </c>
       <c r="M31" s="57"/>
       <c r="N31" s="47"/>
@@ -14368,19 +14372,19 @@
       </c>
       <c r="E32" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F32" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L32,E32,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G32" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L32,F32,Trigger)</f>
-        <v>45001</v>
-      </c>
-      <c r="H32" s="39" t="e">
+        <v>45012</v>
+      </c>
+      <c r="H32" s="39">
         <f>_xll.qlIndexFixing(L32,E32,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>8.2889285872554831E-3</v>
       </c>
       <c r="I32" s="30" t="str">
         <f>Contribution!V32</f>
@@ -14393,7 +14397,7 @@
       <c r="K32" s="33"/>
       <c r="L32" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C32,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0034b#0000</v>
+        <v>obj_00331#0000</v>
       </c>
       <c r="M32" s="57"/>
       <c r="N32" s="47"/>
@@ -14413,19 +14417,19 @@
       </c>
       <c r="E33" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F33" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L33,E33,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G33" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L33,F33,Trigger)</f>
-        <v>45369</v>
-      </c>
-      <c r="H33" s="39" t="e">
+        <v>45376</v>
+      </c>
+      <c r="H33" s="39">
         <f>_xll.qlIndexFixing(L33,E33,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>9.1663376432828594E-3</v>
       </c>
       <c r="I33" s="30" t="str">
         <f>Contribution!V33</f>
@@ -14438,7 +14442,7 @@
       <c r="K33" s="33"/>
       <c r="L33" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C33,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00341#0000</v>
+        <v>obj_0032a#0000</v>
       </c>
       <c r="M33" s="57"/>
       <c r="N33" s="47"/>
@@ -14458,19 +14462,19 @@
       </c>
       <c r="E34" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F34" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L34,E34,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G34" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L34,F34,Trigger)</f>
-        <v>45733</v>
-      </c>
-      <c r="H34" s="39" t="e">
+        <v>45741</v>
+      </c>
+      <c r="H34" s="39">
         <f>_xll.qlIndexFixing(L34,E34,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>9.9123199980293356E-3</v>
       </c>
       <c r="I34" s="30" t="str">
         <f>Contribution!V34</f>
@@ -14483,7 +14487,7 @@
       <c r="K34" s="33"/>
       <c r="L34" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C34,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033f#0000</v>
+        <v>obj_00356#0000</v>
       </c>
       <c r="M34" s="57"/>
       <c r="N34" s="47"/>
@@ -14503,19 +14507,19 @@
       </c>
       <c r="E35" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F35" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L35,E35,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G35" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L35,F35,Trigger)</f>
-        <v>46462</v>
-      </c>
-      <c r="H35" s="39" t="e">
+        <v>46471</v>
+      </c>
+      <c r="H35" s="39">
         <f>_xll.qlIndexFixing(L35,E35,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.1114037811975773E-2</v>
       </c>
       <c r="I35" s="30" t="str">
         <f>Contribution!V35</f>
@@ -14528,7 +14532,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C35,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00355#0000</v>
+        <v>obj_00327#0000</v>
       </c>
       <c r="M35" s="57"/>
       <c r="N35" s="47"/>
@@ -14548,19 +14552,19 @@
       </c>
       <c r="E36" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F36" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L36,E36,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G36" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L36,F36,Trigger)</f>
-        <v>47560</v>
-      </c>
-      <c r="H36" s="39" t="e">
+        <v>47567</v>
+      </c>
+      <c r="H36" s="39">
         <f>_xll.qlIndexFixing(L36,E36,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.2422226574754835E-2</v>
       </c>
       <c r="I36" s="30" t="str">
         <f>Contribution!V36</f>
@@ -14573,7 +14577,7 @@
       <c r="K36" s="33"/>
       <c r="L36" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C36,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00340#0000</v>
+        <v>obj_0035a#0000</v>
       </c>
       <c r="M36" s="57"/>
       <c r="N36" s="47"/>
@@ -14593,19 +14597,19 @@
       </c>
       <c r="E37" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F37" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L37,E37,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G37" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L37,F37,Trigger)</f>
-        <v>49384</v>
-      </c>
-      <c r="H37" s="39" t="e">
+        <v>49395</v>
+      </c>
+      <c r="H37" s="39">
         <f>_xll.qlIndexFixing(L37,E37,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.3870773285585209E-2</v>
       </c>
       <c r="I37" s="30" t="str">
         <f>Contribution!V37</f>
@@ -14618,7 +14622,7 @@
       <c r="K37" s="33"/>
       <c r="L37" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C37,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0033a#0000</v>
+        <v>obj_0031f#0000</v>
       </c>
       <c r="M37" s="57"/>
       <c r="N37" s="47"/>
@@ -14638,19 +14642,19 @@
       </c>
       <c r="E38" s="40">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F38" s="40">
         <f>_xll.qlInterestRateIndexValueDate(L38,E38,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G38" s="40">
         <f>_xll.qlInterestRateIndexMaturity(L38,F38,Trigger)</f>
-        <v>51211</v>
-      </c>
-      <c r="H38" s="39" t="e">
+        <v>51221</v>
+      </c>
+      <c r="H38" s="39">
         <f>_xll.qlIndexFixing(L38,E38,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.4545688348535903E-2</v>
       </c>
       <c r="I38" s="30" t="str">
         <f>Contribution!V38</f>
@@ -14663,7 +14667,7 @@
       <c r="K38" s="33"/>
       <c r="L38" s="25" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C38,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031f#0000</v>
+        <v>obj_00349#0000</v>
       </c>
       <c r="M38" s="57"/>
       <c r="N38" s="47"/>
@@ -14683,19 +14687,19 @@
       </c>
       <c r="E39" s="41">
         <f t="shared" si="5"/>
-        <v>42075</v>
+        <v>42086</v>
       </c>
       <c r="F39" s="41">
         <f>_xll.qlInterestRateIndexValueDate(L39,E39,Trigger)</f>
-        <v>42079</v>
+        <v>42088</v>
       </c>
       <c r="G39" s="41">
         <f>_xll.qlInterestRateIndexMaturity(L39,F39,Trigger)</f>
-        <v>53037</v>
-      </c>
-      <c r="H39" s="42" t="e">
+        <v>53048</v>
+      </c>
+      <c r="H39" s="42">
         <f>_xll.qlIndexFixing(L39,E39,TRUE,InterestRateTrigger)</f>
-        <v>#NUM!</v>
+        <v>1.4733665776958308E-2</v>
       </c>
       <c r="I39" s="32" t="str">
         <f>Contribution!V39</f>
@@ -14708,7 +14712,7 @@
       <c r="K39" s="33"/>
       <c r="L39" s="27" t="str">
         <f>_xll.qlSwapIndex(,IborIndexFamily,C39,SettlementDays,Currency,Calendar,FixedLegTenor,FixedLegBDC,FixedLegDayCounter,IborIndex,DiscountingCurve,,Trigger)</f>
-        <v>obj_00357#0000</v>
+        <v>obj_00348#0000</v>
       </c>
       <c r="M39" s="57"/>
       <c r="N39" s="47"/>
